--- a/Jogos_da_Semana_FlashScore_2024-10-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BB2"/>
+  <dimension ref="A1:BD2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -676,39 +676,49 @@
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_3-3_HT</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_0-1_HT</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-2_HT</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-2_HT</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-3_HT</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-3_HT</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-3_HT</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_4-4_HT</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>WIXMJjpJ</t>
+          <t>QB5xzkQh</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -718,167 +728,173 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>05:35</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>INDONESIA - LIGA 1</t>
+          <t>AUSTRALIA - A-LEAGUE</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Semen Padang</t>
+          <t>Macarthur FC</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Dewa United</t>
+          <t>Newcastle Jets</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.47</v>
+        <v>1.7</v>
       </c>
       <c r="H2" t="n">
-        <v>3.15</v>
+        <v>4.33</v>
       </c>
       <c r="I2" t="n">
-        <v>2.72</v>
+        <v>4.5</v>
       </c>
       <c r="J2" t="n">
-        <v>3.05</v>
+        <v>2.2</v>
       </c>
       <c r="K2" t="n">
-        <v>2.02</v>
+        <v>2.6</v>
       </c>
       <c r="L2" t="n">
-        <v>3.35</v>
+        <v>4.33</v>
       </c>
       <c r="M2" t="n">
-        <v>8.300000000000001</v>
+        <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>1.05</v>
+        <v>19</v>
       </c>
       <c r="O2" t="n">
-        <v>1.28</v>
+        <v>1.14</v>
       </c>
       <c r="P2" t="n">
-        <v>3.05</v>
+        <v>5.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.88</v>
+        <v>1.44</v>
       </c>
       <c r="R2" t="n">
-        <v>1.82</v>
+        <v>2.75</v>
       </c>
       <c r="S2" t="n">
-        <v>1.42</v>
+        <v>1.22</v>
       </c>
       <c r="T2" t="n">
-        <v>2.47</v>
+        <v>4</v>
       </c>
       <c r="U2" t="n">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="V2" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="W2" t="n">
-        <v>8.75</v>
+        <v>12</v>
       </c>
       <c r="X2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="AA2" t="n">
-        <v>19.5</v>
+        <v>12</v>
       </c>
       <c r="AB2" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.75</v>
+        <v>21</v>
       </c>
       <c r="AD2" t="n">
-        <v>6.1</v>
+        <v>9</v>
       </c>
       <c r="AE2" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AF2" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="AG2" t="n">
-        <v>400</v>
+        <v>101</v>
       </c>
       <c r="AH2" t="n">
-        <v>8.75</v>
+        <v>19</v>
       </c>
       <c r="AI2" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="AJ2" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AK2" t="n">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="AL2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ2" t="n">
         <v>23</v>
       </c>
-      <c r="AM2" t="n">
-        <v>30</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>20</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>55</v>
-      </c>
       <c r="AR2" t="n">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="AS2" t="n">
-        <v>250</v>
+        <v>81</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="AU2" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AV2" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="AW2" t="n">
-        <v>4.65</v>
+        <v>301</v>
       </c>
       <c r="AX2" t="n">
-        <v>15</v>
+        <v>6.5</v>
       </c>
       <c r="AY2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ2" t="n">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="BA2" t="n">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="BB2" t="n">
-        <v>300</v>
+        <v>67</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>101</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-10-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-25.xlsx
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H2" t="n">
         <v>4.33</v>
@@ -756,7 +756,7 @@
         <v>4.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K2" t="n">
         <v>2.6</v>
@@ -768,13 +768,13 @@
         <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O2" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q2" t="n">
         <v>1.44</v>
@@ -819,7 +819,7 @@
         <v>9</v>
       </c>
       <c r="AE2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF2" t="n">
         <v>34</v>
@@ -849,7 +849,7 @@
         <v>4</v>
       </c>
       <c r="AO2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP2" t="n">
         <v>15</v>
@@ -858,7 +858,7 @@
         <v>23</v>
       </c>
       <c r="AR2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AS2" t="n">
         <v>81</v>
@@ -873,16 +873,16 @@
         <v>41</v>
       </c>
       <c r="AW2" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AX2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AY2" t="n">
         <v>21</v>
       </c>
       <c r="AZ2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA2" t="n">
         <v>67</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-25.xlsx
@@ -756,7 +756,7 @@
         <v>4.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K2" t="n">
         <v>2.6</v>
@@ -768,13 +768,13 @@
         <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O2" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q2" t="n">
         <v>1.44</v>
@@ -783,10 +783,10 @@
         <v>2.75</v>
       </c>
       <c r="S2" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="T2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U2" t="n">
         <v>1.5</v>
@@ -795,7 +795,7 @@
         <v>2.5</v>
       </c>
       <c r="W2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X2" t="n">
         <v>11</v>
@@ -810,7 +810,7 @@
         <v>12</v>
       </c>
       <c r="AB2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC2" t="n">
         <v>21</v>
@@ -849,7 +849,7 @@
         <v>4</v>
       </c>
       <c r="AO2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AP2" t="n">
         <v>15</v>
@@ -858,13 +858,13 @@
         <v>23</v>
       </c>
       <c r="AR2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AS2" t="n">
         <v>81</v>
       </c>
       <c r="AT2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AU2" t="n">
         <v>7</v>
@@ -873,10 +873,10 @@
         <v>41</v>
       </c>
       <c r="AW2" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AX2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AY2" t="n">
         <v>21</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-25.xlsx
@@ -747,28 +747,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H2" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I2" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K2" t="n">
         <v>2.6</v>
       </c>
       <c r="L2" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O2" t="n">
         <v>1.14</v>
@@ -783,10 +783,10 @@
         <v>2.75</v>
       </c>
       <c r="S2" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="T2" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U2" t="n">
         <v>1.5</v>
@@ -798,7 +798,7 @@
         <v>11</v>
       </c>
       <c r="X2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y2" t="n">
         <v>8.5</v>
@@ -810,7 +810,7 @@
         <v>12</v>
       </c>
       <c r="AB2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC2" t="n">
         <v>21</v>
@@ -828,7 +828,7 @@
         <v>101</v>
       </c>
       <c r="AH2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI2" t="n">
         <v>29</v>
@@ -840,7 +840,7 @@
         <v>51</v>
       </c>
       <c r="AL2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM2" t="n">
         <v>29</v>
@@ -849,22 +849,22 @@
         <v>4</v>
       </c>
       <c r="AO2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP2" t="n">
         <v>15</v>
       </c>
       <c r="AQ2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AS2" t="n">
         <v>81</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AU2" t="n">
         <v>7</v>
@@ -876,7 +876,7 @@
         <v>301</v>
       </c>
       <c r="AX2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AY2" t="n">
         <v>21</v>
@@ -891,7 +891,7 @@
         <v>67</v>
       </c>
       <c r="BC2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BD2" t="n">
         <v>151</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-25.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H2" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I2" t="n">
         <v>4.5</v>
-      </c>
-      <c r="I2" t="n">
-        <v>4.75</v>
       </c>
       <c r="J2" t="n">
         <v>2.1</v>
@@ -768,7 +768,7 @@
         <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O2" t="n">
         <v>1.14</v>
@@ -798,7 +798,7 @@
         <v>11</v>
       </c>
       <c r="X2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y2" t="n">
         <v>8.5</v>
@@ -828,7 +828,7 @@
         <v>101</v>
       </c>
       <c r="AH2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI2" t="n">
         <v>29</v>
@@ -840,7 +840,7 @@
         <v>51</v>
       </c>
       <c r="AL2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM2" t="n">
         <v>29</v>
@@ -855,7 +855,7 @@
         <v>15</v>
       </c>
       <c r="AQ2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR2" t="n">
         <v>34</v>
@@ -891,7 +891,7 @@
         <v>67</v>
       </c>
       <c r="BC2" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BD2" t="n">
         <v>151</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD2"/>
+  <dimension ref="A1:BD3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -897,6 +897,188 @@
         <v>151</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>0QZWAqio</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>25/10/2024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>BULGARIA - PARVA LIGA</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Arda</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Septemvri Sofia</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>7</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L3" t="n">
+        <v>7</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N3" t="n">
+        <v>10</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W3" t="n">
+        <v>6</v>
+      </c>
+      <c r="X3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Jogos_da_Semana_FlashScore_2024-10-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-25.xlsx
@@ -929,40 +929,40 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H3" t="n">
         <v>4.1</v>
       </c>
       <c r="I3" t="n">
-        <v>7</v>
+        <v>6.25</v>
       </c>
       <c r="J3" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K3" t="n">
         <v>2.25</v>
       </c>
       <c r="L3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O3" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P3" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="R3" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="S3" t="n">
         <v>1.4</v>
@@ -971,37 +971,37 @@
         <v>2.75</v>
       </c>
       <c r="U3" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="W3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X3" t="n">
         <v>6.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA3" t="n">
         <v>13</v>
       </c>
       <c r="AB3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF3" t="n">
         <v>67</v>
@@ -1019,7 +1019,7 @@
         <v>21</v>
       </c>
       <c r="AK3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AL3" t="n">
         <v>51</v>
@@ -1028,7 +1028,7 @@
         <v>51</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AO3" t="n">
         <v>7.5</v>
@@ -1049,7 +1049,7 @@
         <v>2.75</v>
       </c>
       <c r="AU3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV3" t="n">
         <v>67</v>
@@ -1058,16 +1058,16 @@
         <v>51</v>
       </c>
       <c r="AX3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AY3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ3" t="n">
         <v>41</v>
       </c>
       <c r="BA3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB3" t="n">
         <v>151</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-25.xlsx
@@ -947,22 +947,22 @@
         <v>6.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O3" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="R3" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="S3" t="n">
         <v>1.4</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD3"/>
+  <dimension ref="A1:BD5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -947,10 +947,10 @@
         <v>6.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O3" t="n">
         <v>1.3</v>
@@ -959,10 +959,10 @@
         <v>3.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S3" t="n">
         <v>1.4</v>
@@ -1077,6 +1077,370 @@
       </c>
       <c r="BD3" t="n">
         <v>51</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>dximVNgc</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>25/10/2024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>09:15</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>MALAYSIA - SUPER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Penang</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sabah</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N4" t="n">
+        <v>10</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T4" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="W4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X4" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>175</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>55</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>75</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>45</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>40</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>60</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>175</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Y1UhtUYP</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>25/10/2024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>09:30</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Rukh Lviv</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Ch. Odesa</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L5" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>7</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="W5" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="X5" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>45</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>175</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>24</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>32</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>90</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>450</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>120</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>32</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>45</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>250</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>350</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>700</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-10-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-25.xlsx
@@ -929,46 +929,46 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H3" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I3" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K3" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L3" t="n">
         <v>6.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O3" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="P3" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="R3" t="n">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="S3" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T3" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U3" t="n">
         <v>2</v>
@@ -998,10 +998,10 @@
         <v>10</v>
       </c>
       <c r="AD3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF3" t="n">
         <v>67</v>
@@ -1046,7 +1046,7 @@
         <v>151</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU3" t="n">
         <v>9</v>
@@ -1073,7 +1073,7 @@
         <v>151</v>
       </c>
       <c r="BC3" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD3" t="n">
         <v>51</v>
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.67</v>
+        <v>2.75</v>
       </c>
       <c r="H4" t="n">
         <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>2.22</v>
+        <v>2.15</v>
       </c>
       <c r="J4" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K4" t="n">
         <v>2.25</v>
       </c>
       <c r="L4" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="M4" t="n">
         <v>1.03</v>
@@ -1135,10 +1135,10 @@
         <v>10</v>
       </c>
       <c r="O4" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P4" t="n">
-        <v>4.34</v>
+        <v>4.31</v>
       </c>
       <c r="Q4" t="n">
         <v>1.6</v>
@@ -1159,22 +1159,22 @@
         <v>2.46</v>
       </c>
       <c r="W4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X4" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="Z4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AA4" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AB4" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AC4" t="n">
         <v>13.5</v>
@@ -1192,25 +1192,25 @@
         <v>175</v>
       </c>
       <c r="AH4" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AJ4" t="n">
         <v>7.7</v>
       </c>
       <c r="AK4" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AL4" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AM4" t="n">
         <v>17.5</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AO4" t="n">
         <v>14</v>
@@ -1225,7 +1225,7 @@
         <v>75</v>
       </c>
       <c r="AS4" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AT4" t="n">
         <v>3.2</v>
@@ -1240,7 +1240,7 @@
         <v>51</v>
       </c>
       <c r="AX4" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="AY4" t="n">
         <v>11</v>
@@ -1314,7 +1314,7 @@
         <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>7</v>
+        <v>6.95</v>
       </c>
       <c r="O5" t="n">
         <v>1.47</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD5"/>
+  <dimension ref="A1:BD7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -947,22 +947,22 @@
         <v>6.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O3" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P3" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="R3" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S3" t="n">
         <v>1.36</v>
@@ -1007,7 +1007,7 @@
         <v>67</v>
       </c>
       <c r="AG3" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH3" t="n">
         <v>15</v>
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.75</v>
+        <v>2.95</v>
       </c>
       <c r="H4" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I4" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="J4" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="K4" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="L4" t="n">
-        <v>2.67</v>
+        <v>2.57</v>
       </c>
       <c r="M4" t="n">
         <v>1.03</v>
@@ -1159,22 +1159,22 @@
         <v>2.46</v>
       </c>
       <c r="W4" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="X4" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="Z4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA4" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AC4" t="n">
         <v>13.5</v>
@@ -1192,40 +1192,40 @@
         <v>175</v>
       </c>
       <c r="AH4" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AI4" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AJ4" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AL4" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AM4" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AN4" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="AO4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP4" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AQ4" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AR4" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AS4" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AT4" t="n">
         <v>3.2</v>
@@ -1240,19 +1240,19 @@
         <v>51</v>
       </c>
       <c r="AX4" t="n">
-        <v>4.35</v>
+        <v>4.2</v>
       </c>
       <c r="AY4" t="n">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="AZ4" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="BA4" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="BB4" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BC4" t="n">
         <v>175</v>
@@ -1264,182 +1264,546 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>42feT1O9</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>25/10/2024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>MALAYSIA - SUPER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Kedah</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>PDRM FC</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N5" t="n">
+        <v>10</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="V5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W5" t="n">
+        <v>7</v>
+      </c>
+      <c r="X5" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>20</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>27</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>27</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>50</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>25</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>110</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>120</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>250</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>QHr4RugM</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>25/10/2024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>MALAYSIA - SUPER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Kelantan DNFC</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sri Pahang</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="V6" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="W6" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>35</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>28</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>150</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>175</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>350</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>22</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>45</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>175</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>Y1UhtUYP</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>25/10/2024</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>09:30</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>UKRAINE - PREMIER LEAGUE</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Rukh Lviv</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Ch. Odesa</t>
         </is>
       </c>
-      <c r="G5" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="G7" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="L7" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>7.05</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W7" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="X7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>45</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>175</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN7" t="n">
         <v>3.25</v>
       </c>
-      <c r="I5" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L5" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N5" t="n">
-        <v>6.95</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="W5" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="X5" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="Y5" t="n">
+      <c r="AO7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>24</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>32</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>90</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>450</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU7" t="n">
         <v>9</v>
       </c>
-      <c r="Z5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AB5" t="n">
+      <c r="AV7" t="n">
+        <v>120</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>32</v>
+      </c>
+      <c r="AZ7" t="n">
         <v>45</v>
       </c>
-      <c r="AC5" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>175</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>18</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>100</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>24</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>32</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>90</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>450</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>120</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>32</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>45</v>
-      </c>
-      <c r="BA5" t="n">
+      <c r="BA7" t="n">
         <v>250</v>
       </c>
-      <c r="BB5" t="n">
+      <c r="BB7" t="n">
         <v>350</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BC7" t="n">
         <v>700</v>
       </c>
-      <c r="BD5" t="n">
+      <c r="BD7" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD7"/>
+  <dimension ref="A1:BD8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>dximVNgc</t>
+          <t>hKMIYnqh</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,170 +1092,170 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MALAYSIA - SUPER LEAGUE</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Penang</t>
+          <t>Botev Plovdiv</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Sabah</t>
+          <t>Cherno More</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.95</v>
+        <v>2.4</v>
       </c>
       <c r="H4" t="n">
-        <v>3.55</v>
+        <v>2.9</v>
       </c>
       <c r="I4" t="n">
-        <v>2.05</v>
+        <v>3.3</v>
       </c>
       <c r="J4" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="K4" t="n">
-        <v>2.27</v>
+        <v>1.91</v>
       </c>
       <c r="L4" t="n">
-        <v>2.57</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.03</v>
+        <v>1.11</v>
       </c>
       <c r="N4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W4" t="n">
+        <v>6</v>
+      </c>
+      <c r="X4" t="n">
         <v>10</v>
       </c>
-      <c r="O4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P4" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T4" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="V4" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="W4" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="X4" t="n">
-        <v>14.5</v>
-      </c>
       <c r="Y4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z4" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AA4" t="n">
-        <v>18.5</v>
+        <v>23</v>
       </c>
       <c r="AB4" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AC4" t="n">
-        <v>13.5</v>
+        <v>6</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.3</v>
+        <v>5.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>10.25</v>
+        <v>17</v>
       </c>
       <c r="AF4" t="n">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="AG4" t="n">
-        <v>175</v>
+        <v>351</v>
       </c>
       <c r="AH4" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AI4" t="n">
-        <v>9.75</v>
+        <v>15</v>
       </c>
       <c r="AJ4" t="n">
-        <v>7.5</v>
+        <v>13</v>
       </c>
       <c r="AK4" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="AL4" t="n">
-        <v>12.5</v>
+        <v>34</v>
       </c>
       <c r="AM4" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AN4" t="n">
-        <v>5.2</v>
+        <v>4.33</v>
       </c>
       <c r="AO4" t="n">
         <v>15</v>
       </c>
       <c r="AP4" t="n">
-        <v>19.5</v>
+        <v>29</v>
       </c>
       <c r="AQ4" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="AR4" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS4" t="n">
-        <v>200</v>
+        <v>301</v>
       </c>
       <c r="AT4" t="n">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="AU4" t="n">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="AV4" t="n">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AW4" t="n">
         <v>51</v>
       </c>
       <c r="AX4" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="AY4" t="n">
-        <v>10.25</v>
+        <v>19</v>
       </c>
       <c r="AZ4" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="BA4" t="n">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="BB4" t="n">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="BC4" t="n">
-        <v>175</v>
+        <v>301</v>
       </c>
       <c r="BD4" t="n">
         <v>51</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>42feT1O9</t>
+          <t>dximVNgc</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1284,31 +1284,31 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Kedah</t>
+          <t>Penang</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>PDRM FC</t>
+          <t>Sabah</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.7</v>
+        <v>3.15</v>
       </c>
       <c r="H5" t="n">
-        <v>3.65</v>
+        <v>3.25</v>
       </c>
       <c r="I5" t="n">
-        <v>4.05</v>
+        <v>2.05</v>
       </c>
       <c r="J5" t="n">
-        <v>2.22</v>
+        <v>3.55</v>
       </c>
       <c r="K5" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="L5" t="n">
-        <v>4.25</v>
+        <v>2.57</v>
       </c>
       <c r="M5" t="n">
         <v>1.03</v>
@@ -1317,127 +1317,127 @@
         <v>10</v>
       </c>
       <c r="O5" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P5" t="n">
-        <v>4.05</v>
+        <v>4.32</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R5" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="S5" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="T5" t="n">
-        <v>3.23</v>
+        <v>3.27</v>
       </c>
       <c r="U5" t="n">
-        <v>1.64</v>
+        <v>1.52</v>
       </c>
       <c r="V5" t="n">
-        <v>2.2</v>
+        <v>2.46</v>
       </c>
       <c r="W5" t="n">
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="X5" t="n">
-        <v>7.6</v>
+        <v>16</v>
       </c>
       <c r="Y5" t="n">
-        <v>7</v>
+        <v>9.25</v>
       </c>
       <c r="Z5" t="n">
-        <v>11.5</v>
+        <v>35</v>
       </c>
       <c r="AA5" t="n">
-        <v>10.5</v>
+        <v>20</v>
       </c>
       <c r="AB5" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AC5" t="n">
         <v>12.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="AE5" t="n">
-        <v>11.25</v>
+        <v>9.5</v>
       </c>
       <c r="AF5" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>16</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>75</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>90</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AV5" t="n">
         <v>40</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>250</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>20</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>27</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>27</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>50</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>175</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>55</v>
       </c>
       <c r="AW5" t="n">
         <v>51</v>
       </c>
       <c r="AX5" t="n">
-        <v>6.1</v>
+        <v>4.25</v>
       </c>
       <c r="AY5" t="n">
-        <v>22</v>
+        <v>10.5</v>
       </c>
       <c r="AZ5" t="n">
-        <v>25</v>
+        <v>15.5</v>
       </c>
       <c r="BA5" t="n">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="BB5" t="n">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="BC5" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="BD5" t="n">
         <v>51</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>QHr4RugM</t>
+          <t>42feT1O9</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1466,136 +1466,136 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Kelantan DNFC</t>
+          <t>Kedah</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Sri Pahang</t>
+          <t>PDRM FC</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>4.9</v>
+        <v>1.7</v>
       </c>
       <c r="H6" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="I6" t="n">
-        <v>1.55</v>
+        <v>4.05</v>
       </c>
       <c r="J6" t="n">
-        <v>4.9</v>
+        <v>2.22</v>
       </c>
       <c r="K6" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L6" t="n">
-        <v>2.05</v>
+        <v>4.25</v>
       </c>
       <c r="M6" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
+        <v>10</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="V6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W6" t="n">
+        <v>7</v>
+      </c>
+      <c r="X6" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA6" t="n">
         <v>10.5</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P6" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="V6" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="W6" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="X6" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>70</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>35</v>
-      </c>
       <c r="AB6" t="n">
-        <v>32</v>
+        <v>17.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="AE6" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AF6" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AG6" t="n">
         <v>250</v>
       </c>
       <c r="AH6" t="n">
-        <v>7</v>
+        <v>11.75</v>
       </c>
       <c r="AI6" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="AJ6" t="n">
-        <v>6.8</v>
+        <v>11.25</v>
       </c>
       <c r="AK6" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AL6" t="n">
-        <v>9.75</v>
+        <v>27</v>
       </c>
       <c r="AM6" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="AN6" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>50</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AU6" t="n">
         <v>6.9</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>28</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>150</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>175</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>350</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>7.1</v>
       </c>
       <c r="AV6" t="n">
         <v>55</v>
@@ -1604,22 +1604,22 @@
         <v>51</v>
       </c>
       <c r="AX6" t="n">
-        <v>3.5</v>
+        <v>6.1</v>
       </c>
       <c r="AY6" t="n">
-        <v>7.3</v>
+        <v>22</v>
       </c>
       <c r="AZ6" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="BA6" t="n">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="BB6" t="n">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="BC6" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="BD6" t="n">
         <v>51</v>
@@ -1628,182 +1628,364 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>QHr4RugM</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>25/10/2024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>MALAYSIA - SUPER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Kelantan DNFC</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sri Pahang</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="V7" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="W7" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>35</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>28</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>150</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>175</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>350</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>22</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>45</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>175</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>Y1UhtUYP</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>25/10/2024</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>09:30</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>UKRAINE - PREMIER LEAGUE</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Rukh Lviv</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Ch. Odesa</t>
         </is>
       </c>
-      <c r="G7" t="n">
+      <c r="G8" t="n">
         <v>1.7</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H8" t="n">
         <v>3.35</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I8" t="n">
         <v>4.9</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J8" t="n">
         <v>2.35</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K8" t="n">
         <v>1.98</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L8" t="n">
         <v>5.4</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M8" t="n">
         <v>1.1</v>
       </c>
-      <c r="N7" t="n">
-        <v>7.05</v>
-      </c>
-      <c r="O7" t="n">
+      <c r="N8" t="n">
+        <v>7</v>
+      </c>
+      <c r="O8" t="n">
         <v>1.47</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P8" t="n">
         <v>2.32</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q8" t="n">
         <v>2.35</v>
       </c>
-      <c r="R7" t="n">
+      <c r="R8" t="n">
         <v>1.47</v>
       </c>
-      <c r="S7" t="n">
+      <c r="S8" t="n">
         <v>1.5</v>
       </c>
-      <c r="T7" t="n">
+      <c r="T8" t="n">
         <v>2.25</v>
       </c>
-      <c r="U7" t="n">
+      <c r="U8" t="n">
         <v>2.25</v>
       </c>
-      <c r="V7" t="n">
+      <c r="V8" t="n">
         <v>1.5</v>
       </c>
-      <c r="W7" t="n">
+      <c r="W8" t="n">
         <v>4.9</v>
       </c>
-      <c r="X7" t="n">
+      <c r="X8" t="n">
         <v>6.5</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="Y8" t="n">
         <v>9</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="Z8" t="n">
         <v>12.5</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AA8" t="n">
         <v>17.5</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AB8" t="n">
         <v>45</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AC8" t="n">
         <v>6.8</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AD8" t="n">
         <v>6.9</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AE8" t="n">
         <v>24</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AF8" t="n">
         <v>175</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AG8" t="n">
         <v>67</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AH8" t="n">
         <v>9.75</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AI8" t="n">
         <v>25</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AJ8" t="n">
         <v>18</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AK8" t="n">
         <v>100</v>
       </c>
-      <c r="AL7" t="n">
+      <c r="AL8" t="n">
         <v>70</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AM8" t="n">
         <v>90</v>
       </c>
-      <c r="AN7" t="n">
+      <c r="AN8" t="n">
         <v>3.25</v>
       </c>
-      <c r="AO7" t="n">
+      <c r="AO8" t="n">
         <v>8.5</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AP8" t="n">
         <v>24</v>
       </c>
-      <c r="AQ7" t="n">
+      <c r="AQ8" t="n">
         <v>32</v>
       </c>
-      <c r="AR7" t="n">
+      <c r="AR8" t="n">
         <v>90</v>
       </c>
-      <c r="AS7" t="n">
+      <c r="AS8" t="n">
         <v>450</v>
       </c>
-      <c r="AT7" t="n">
+      <c r="AT8" t="n">
         <v>2.2</v>
       </c>
-      <c r="AU7" t="n">
+      <c r="AU8" t="n">
         <v>9</v>
       </c>
-      <c r="AV7" t="n">
+      <c r="AV8" t="n">
         <v>120</v>
       </c>
-      <c r="AW7" t="n">
+      <c r="AW8" t="n">
         <v>81</v>
       </c>
-      <c r="AX7" t="n">
+      <c r="AX8" t="n">
         <v>6.3</v>
       </c>
-      <c r="AY7" t="n">
+      <c r="AY8" t="n">
         <v>32</v>
       </c>
-      <c r="AZ7" t="n">
+      <c r="AZ8" t="n">
         <v>45</v>
       </c>
-      <c r="BA7" t="n">
+      <c r="BA8" t="n">
         <v>250</v>
       </c>
-      <c r="BB7" t="n">
+      <c r="BB8" t="n">
         <v>350</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BC8" t="n">
         <v>700</v>
       </c>
-      <c r="BD7" t="n">
+      <c r="BD8" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-25.xlsx
@@ -1111,28 +1111,28 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="H4" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>3.25</v>
+        <v>2.88</v>
       </c>
       <c r="K4" t="n">
         <v>1.91</v>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O4" t="n">
         <v>1.5</v>
@@ -1153,25 +1153,25 @@
         <v>2.25</v>
       </c>
       <c r="U4" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X4" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Y4" t="n">
         <v>10</v>
       </c>
       <c r="Z4" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AA4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB4" t="n">
         <v>41</v>
@@ -1180,82 +1180,82 @@
         <v>6</v>
       </c>
       <c r="AD4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AE4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG4" t="n">
         <v>351</v>
       </c>
       <c r="AH4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>15</v>
       </c>
-      <c r="AJ4" t="n">
-        <v>13</v>
-      </c>
       <c r="AK4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO4" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AP4" t="n">
         <v>29</v>
       </c>
       <c r="AQ4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR4" t="n">
         <v>81</v>
       </c>
       <c r="AS4" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT4" t="n">
         <v>2.25</v>
       </c>
       <c r="AU4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW4" t="n">
         <v>51</v>
       </c>
       <c r="AX4" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AY4" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AZ4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB4" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC4" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD4" t="n">
         <v>51</v>
@@ -1317,10 +1317,10 @@
         <v>10</v>
       </c>
       <c r="O5" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="P5" t="n">
-        <v>4.32</v>
+        <v>4.33</v>
       </c>
       <c r="Q5" t="n">
         <v>1.6</v>
@@ -1329,16 +1329,16 @@
         <v>2.07</v>
       </c>
       <c r="S5" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="T5" t="n">
-        <v>3.27</v>
+        <v>3.25</v>
       </c>
       <c r="U5" t="n">
-        <v>1.52</v>
+        <v>1.62</v>
       </c>
       <c r="V5" t="n">
-        <v>2.46</v>
+        <v>2.21</v>
       </c>
       <c r="W5" t="n">
         <v>10.5</v>
@@ -1502,7 +1502,7 @@
         <v>1.2</v>
       </c>
       <c r="P6" t="n">
-        <v>4.05</v>
+        <v>4.06</v>
       </c>
       <c r="Q6" t="n">
         <v>1.62</v>
@@ -1681,10 +1681,10 @@
         <v>10.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P7" t="n">
-        <v>4.19</v>
+        <v>4.21</v>
       </c>
       <c r="Q7" t="n">
         <v>1.6</v>
@@ -1699,10 +1699,10 @@
         <v>3.32</v>
       </c>
       <c r="U7" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="V7" t="n">
-        <v>2.13</v>
+        <v>2.15</v>
       </c>
       <c r="W7" t="n">
         <v>13.5</v>
@@ -1839,37 +1839,37 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H8" t="n">
         <v>3.35</v>
       </c>
       <c r="I8" t="n">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="J8" t="n">
-        <v>2.35</v>
+        <v>2.27</v>
       </c>
       <c r="K8" t="n">
         <v>1.98</v>
       </c>
       <c r="L8" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="M8" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N8" t="n">
-        <v>7</v>
+        <v>7.25</v>
       </c>
       <c r="O8" t="n">
         <v>1.47</v>
       </c>
       <c r="P8" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Q8" t="n">
         <v>2.32</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.35</v>
       </c>
       <c r="R8" t="n">
         <v>1.47</v>
@@ -1881,31 +1881,31 @@
         <v>2.25</v>
       </c>
       <c r="U8" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="V8" t="n">
         <v>1.5</v>
       </c>
       <c r="W8" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="X8" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="Y8" t="n">
         <v>9</v>
       </c>
       <c r="Z8" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AB8" t="n">
         <v>45</v>
       </c>
       <c r="AC8" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AD8" t="n">
         <v>6.9</v>
@@ -1920,34 +1920,34 @@
         <v>67</v>
       </c>
       <c r="AH8" t="n">
-        <v>9.75</v>
+        <v>10.75</v>
       </c>
       <c r="AI8" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AJ8" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AK8" t="n">
+        <v>120</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM8" t="n">
         <v>100</v>
       </c>
-      <c r="AL8" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>90</v>
-      </c>
       <c r="AN8" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AO8" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AP8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ8" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AR8" t="n">
         <v>90</v>
@@ -1956,7 +1956,7 @@
         <v>450</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="AU8" t="n">
         <v>9</v>
@@ -1968,13 +1968,13 @@
         <v>81</v>
       </c>
       <c r="AX8" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="AY8" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AZ8" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="BA8" t="n">
         <v>250</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD8"/>
+  <dimension ref="A1:BD10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1111,28 +1111,28 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.1</v>
+        <v>1.81</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="J4" t="n">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="K4" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L4" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O4" t="n">
         <v>1.5</v>
@@ -1141,10 +1141,10 @@
         <v>2.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R4" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S4" t="n">
         <v>1.57</v>
@@ -1153,37 +1153,37 @@
         <v>2.25</v>
       </c>
       <c r="U4" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V4" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W4" t="n">
         <v>5.5</v>
       </c>
       <c r="X4" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA4" t="n">
         <v>19</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>21</v>
       </c>
       <c r="AB4" t="n">
         <v>41</v>
       </c>
       <c r="AC4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF4" t="n">
         <v>81</v>
@@ -1192,16 +1192,16 @@
         <v>351</v>
       </c>
       <c r="AH4" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL4" t="n">
         <v>41</v>
@@ -1210,19 +1210,19 @@
         <v>51</v>
       </c>
       <c r="AN4" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AO4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ4" t="n">
         <v>41</v>
       </c>
       <c r="AR4" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS4" t="n">
         <v>251</v>
@@ -1240,19 +1240,19 @@
         <v>51</v>
       </c>
       <c r="AX4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AY4" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AZ4" t="n">
         <v>41</v>
       </c>
       <c r="BA4" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC4" t="n">
         <v>351</v>
@@ -1502,7 +1502,7 @@
         <v>1.2</v>
       </c>
       <c r="P6" t="n">
-        <v>4.06</v>
+        <v>4.02</v>
       </c>
       <c r="Q6" t="n">
         <v>1.62</v>
@@ -1514,7 +1514,7 @@
         <v>1.31</v>
       </c>
       <c r="T6" t="n">
-        <v>3.23</v>
+        <v>3.21</v>
       </c>
       <c r="U6" t="n">
         <v>1.64</v>
@@ -1681,10 +1681,10 @@
         <v>10.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P7" t="n">
-        <v>4.21</v>
+        <v>4.33</v>
       </c>
       <c r="Q7" t="n">
         <v>1.6</v>
@@ -1699,10 +1699,10 @@
         <v>3.32</v>
       </c>
       <c r="U7" t="n">
-        <v>1.67</v>
+        <v>1.87</v>
       </c>
       <c r="V7" t="n">
-        <v>2.15</v>
+        <v>1.87</v>
       </c>
       <c r="W7" t="n">
         <v>13.5</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Y1UhtUYP</t>
+          <t>U5ehv3Vb</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,172 +1820,536 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Rukh Lviv</t>
+          <t>Al Qadisiya</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ch. Odesa</t>
+          <t>Damac</t>
         </is>
       </c>
       <c r="G8" t="n">
         <v>1.65</v>
       </c>
       <c r="H8" t="n">
-        <v>3.35</v>
+        <v>3.9</v>
       </c>
       <c r="I8" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="J8" t="n">
-        <v>2.27</v>
+        <v>2.2</v>
       </c>
       <c r="K8" t="n">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="L8" t="n">
-        <v>5.8</v>
+        <v>4.75</v>
       </c>
       <c r="M8" t="n">
-        <v>1.09</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>7.25</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
-        <v>1.47</v>
+        <v>1.22</v>
       </c>
       <c r="P8" t="n">
-        <v>2.35</v>
+        <v>3.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.32</v>
+        <v>1.8</v>
       </c>
       <c r="R8" t="n">
-        <v>1.47</v>
+        <v>2</v>
       </c>
       <c r="S8" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="T8" t="n">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U8" t="n">
-        <v>2.27</v>
+        <v>1.83</v>
       </c>
       <c r="V8" t="n">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="W8" t="n">
-        <v>4.8</v>
+        <v>7.5</v>
       </c>
       <c r="X8" t="n">
-        <v>6.2</v>
+        <v>8</v>
       </c>
       <c r="Y8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AA8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE8" t="n">
         <v>17</v>
       </c>
-      <c r="AB8" t="n">
-        <v>45</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>24</v>
-      </c>
       <c r="AF8" t="n">
-        <v>175</v>
+        <v>51</v>
       </c>
       <c r="AG8" t="n">
-        <v>67</v>
+        <v>600</v>
       </c>
       <c r="AH8" t="n">
-        <v>10.75</v>
+        <v>13</v>
       </c>
       <c r="AI8" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AJ8" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AK8" t="n">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="AL8" t="n">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AM8" t="n">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="AO8" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AP8" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AQ8" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AR8" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="AS8" t="n">
-        <v>450</v>
+        <v>126</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.22</v>
+        <v>3</v>
       </c>
       <c r="AU8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV8" t="n">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="AW8" t="n">
         <v>81</v>
       </c>
       <c r="AX8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>400</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>lnKaZbQH</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>25/10/2024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SERBIA - SUPER LIGA</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>IMT Novi Beograd</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Tekstilac Odzaci</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="I9" t="n">
+        <v>6</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N9" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W9" t="n">
+        <v>6</v>
+      </c>
+      <c r="X9" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>110</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>120</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>60</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>100</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>37</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>45</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>250</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>300</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>500</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Y1UhtUYP</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>25/10/2024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>09:30</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Rukh Lviv</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Ch. Odesa</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="L10" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N10" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W10" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="X10" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>45</v>
+      </c>
+      <c r="AC10" t="n">
         <v>6.7</v>
       </c>
-      <c r="AY8" t="n">
+      <c r="AD10" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>175</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>120</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>30</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>90</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>450</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>120</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AY10" t="n">
         <v>35</v>
       </c>
-      <c r="AZ8" t="n">
+      <c r="AZ10" t="n">
         <v>50</v>
       </c>
-      <c r="BA8" t="n">
+      <c r="BA10" t="n">
         <v>250</v>
       </c>
-      <c r="BB8" t="n">
+      <c r="BB10" t="n">
         <v>350</v>
       </c>
-      <c r="BC8" t="n">
+      <c r="BC10" t="n">
         <v>700</v>
       </c>
-      <c r="BD8" t="n">
+      <c r="BD10" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD10"/>
+  <dimension ref="A1:BD12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1111,7 +1111,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="H4" t="n">
         <v>3.1</v>
@@ -1129,10 +1129,10 @@
         <v>5.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.5</v>
@@ -1141,10 +1141,10 @@
         <v>2.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R4" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S4" t="n">
         <v>1.57</v>
@@ -1499,10 +1499,10 @@
         <v>10</v>
       </c>
       <c r="O6" t="n">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="P6" t="n">
-        <v>4.02</v>
+        <v>3.85</v>
       </c>
       <c r="Q6" t="n">
         <v>1.62</v>
@@ -1511,16 +1511,16 @@
         <v>2.02</v>
       </c>
       <c r="S6" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="T6" t="n">
-        <v>3.21</v>
+        <v>3.25</v>
       </c>
       <c r="U6" t="n">
-        <v>1.64</v>
+        <v>1.78</v>
       </c>
       <c r="V6" t="n">
-        <v>2.2</v>
+        <v>1.98</v>
       </c>
       <c r="W6" t="n">
         <v>7</v>
@@ -1681,10 +1681,10 @@
         <v>10.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P7" t="n">
-        <v>4.33</v>
+        <v>4.51</v>
       </c>
       <c r="Q7" t="n">
         <v>1.6</v>
@@ -1693,16 +1693,16 @@
         <v>2.07</v>
       </c>
       <c r="S7" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="T7" t="n">
-        <v>3.32</v>
+        <v>3.25</v>
       </c>
       <c r="U7" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="V7" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="W7" t="n">
         <v>13.5</v>
@@ -1857,13 +1857,13 @@
         <v>4.75</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
         <v>9</v>
       </c>
       <c r="O8" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P8" t="n">
         <v>3.75</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>lnKaZbQH</t>
+          <t>WATRNsoI</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,179 +2002,179 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>12:05</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>IMT Novi Beograd</t>
+          <t>Al Kholood</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tekstilac Odzaci</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="G9" t="n">
+        <v>9</v>
+      </c>
+      <c r="H9" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="J9" t="n">
+        <v>7</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N9" t="n">
+        <v>11</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
         <v>1.5</v>
       </c>
-      <c r="H9" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="R9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W9" t="n">
+        <v>26</v>
+      </c>
+      <c r="X9" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>101</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>151</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>500</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AY9" t="n">
         <v>6</v>
       </c>
-      <c r="J9" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L9" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N9" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W9" t="n">
-        <v>6</v>
-      </c>
-      <c r="X9" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>20</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>110</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>14</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>35</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>120</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>60</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>300</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>100</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>37</v>
-      </c>
       <c r="AZ9" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="BA9" t="n">
-        <v>250</v>
+        <v>15</v>
       </c>
       <c r="BB9" t="n">
-        <v>300</v>
+        <v>34</v>
       </c>
       <c r="BC9" t="n">
-        <v>500</v>
+        <v>101</v>
       </c>
       <c r="BD9" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Y1UhtUYP</t>
+          <t>lnKaZbQH</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,110 +2184,110 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Rukh Lviv</t>
+          <t>IMT Novi Beograd</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Ch. Odesa</t>
+          <t>Tekstilac Odzaci</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="H10" t="n">
-        <v>3.35</v>
+        <v>4.05</v>
       </c>
       <c r="I10" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="J10" t="n">
-        <v>2.27</v>
+        <v>2.05</v>
       </c>
       <c r="K10" t="n">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="L10" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="M10" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>7.33</v>
+        <v>7.3</v>
       </c>
       <c r="O10" t="n">
-        <v>1.47</v>
+        <v>1.31</v>
       </c>
       <c r="P10" t="n">
-        <v>2.35</v>
+        <v>3.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.32</v>
+        <v>1.93</v>
       </c>
       <c r="R10" t="n">
-        <v>1.47</v>
+        <v>1.82</v>
       </c>
       <c r="S10" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="T10" t="n">
-        <v>2.25</v>
+        <v>2.67</v>
       </c>
       <c r="U10" t="n">
-        <v>2.27</v>
+        <v>2.05</v>
       </c>
       <c r="V10" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="W10" t="n">
-        <v>4.8</v>
+        <v>6</v>
       </c>
       <c r="X10" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="Y10" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="Z10" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AB10" t="n">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="AC10" t="n">
-        <v>6.7</v>
+        <v>7.3</v>
       </c>
       <c r="AD10" t="n">
-        <v>6.9</v>
+        <v>7.8</v>
       </c>
       <c r="AE10" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AF10" t="n">
-        <v>175</v>
+        <v>110</v>
       </c>
       <c r="AG10" t="n">
-        <v>67</v>
+        <v>1000</v>
       </c>
       <c r="AH10" t="n">
-        <v>10.75</v>
+        <v>14</v>
       </c>
       <c r="AI10" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AJ10" t="n">
         <v>19.5</v>
@@ -2296,60 +2296,424 @@
         <v>120</v>
       </c>
       <c r="AL10" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AM10" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AN10" t="n">
         <v>3.2</v>
       </c>
       <c r="AO10" t="n">
-        <v>8.25</v>
+        <v>7.2</v>
       </c>
       <c r="AP10" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AQ10" t="n">
         <v>23</v>
       </c>
-      <c r="AQ10" t="n">
-        <v>30</v>
-      </c>
       <c r="AR10" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="AS10" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.22</v>
+        <v>2.67</v>
       </c>
       <c r="AU10" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AV10" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AW10" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AX10" t="n">
-        <v>6.7</v>
+        <v>7.2</v>
       </c>
       <c r="AY10" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AZ10" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="BA10" t="n">
         <v>250</v>
       </c>
       <c r="BB10" t="n">
+        <v>300</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>500</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Y1UhtUYP</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>25/10/2024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>09:30</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Rukh Lviv</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Ch. Odesa</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="L11" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N11" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W11" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="X11" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>45</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>175</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>120</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>30</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>90</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>450</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>120</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>35</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>50</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>250</v>
+      </c>
+      <c r="BB11" t="n">
         <v>350</v>
       </c>
-      <c r="BC10" t="n">
+      <c r="BC11" t="n">
         <v>700</v>
       </c>
-      <c r="BD10" t="n">
+      <c r="BD11" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>hnBPz8dm</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>25/10/2024</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Polissya Zhytomyr</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Kolos Kovalivka</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="L12" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N12" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W12" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="X12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>55</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>250</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>120</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>90</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>37</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>100</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>500</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>120</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>37</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>55</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>300</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>450</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>67</v>
+      </c>
+      <c r="BD12" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-25.xlsx
@@ -1839,28 +1839,28 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="H8" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J8" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K8" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L8" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O8" t="n">
         <v>1.25</v>
@@ -1887,10 +1887,10 @@
         <v>1.83</v>
       </c>
       <c r="W8" t="n">
+        <v>7</v>
+      </c>
+      <c r="X8" t="n">
         <v>7.5</v>
-      </c>
-      <c r="X8" t="n">
-        <v>8</v>
       </c>
       <c r="Y8" t="n">
         <v>8.5</v>
@@ -1905,10 +1905,10 @@
         <v>26</v>
       </c>
       <c r="AC8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD8" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE8" t="n">
         <v>17</v>
@@ -1917,10 +1917,10 @@
         <v>51</v>
       </c>
       <c r="AG8" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AH8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI8" t="n">
         <v>26</v>
@@ -1938,19 +1938,19 @@
         <v>41</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO8" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP8" t="n">
         <v>19</v>
       </c>
       <c r="AQ8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS8" t="n">
         <v>126</v>
@@ -1968,7 +1968,7 @@
         <v>81</v>
       </c>
       <c r="AX8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AY8" t="n">
         <v>26</v>
@@ -1983,7 +1983,7 @@
         <v>101</v>
       </c>
       <c r="BC8" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="BD8" t="n">
         <v>81</v>
@@ -2021,40 +2021,40 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H9" t="n">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="I9" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="J9" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="K9" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="L9" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="M9" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P9" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R9" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="S9" t="n">
         <v>1.25</v>
@@ -2063,22 +2063,22 @@
         <v>3.75</v>
       </c>
       <c r="U9" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V9" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X9" t="n">
         <v>41</v>
       </c>
       <c r="Y9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z9" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AA9" t="n">
         <v>51</v>
@@ -2090,10 +2090,10 @@
         <v>17</v>
       </c>
       <c r="AD9" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF9" t="n">
         <v>51</v>
@@ -2102,16 +2102,16 @@
         <v>151</v>
       </c>
       <c r="AH9" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI9" t="n">
         <v>7.5</v>
       </c>
       <c r="AJ9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK9" t="n">
         <v>9.5</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>8.5</v>
       </c>
       <c r="AL9" t="n">
         <v>11</v>
@@ -2120,28 +2120,28 @@
         <v>23</v>
       </c>
       <c r="AN9" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ9" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AR9" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AS9" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AT9" t="n">
         <v>3.75</v>
       </c>
       <c r="AU9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV9" t="n">
         <v>51</v>
@@ -2150,16 +2150,16 @@
         <v>81</v>
       </c>
       <c r="AX9" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AY9" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AZ9" t="n">
         <v>15</v>
       </c>
       <c r="BA9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BB9" t="n">
         <v>34</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD12"/>
+  <dimension ref="A1:BD19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0QZWAqio</t>
+          <t>ldBRqWuK</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,179 +910,179 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>BULGARIA - PARVA LIGA</t>
+          <t>AUSTRIA - 2. LIGA</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Arda</t>
+          <t>Amstetten</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Septemvri Sofia</t>
+          <t>Floridsdorfer AC</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.48</v>
+        <v>2.45</v>
       </c>
       <c r="H3" t="n">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>6.5</v>
+        <v>2.65</v>
       </c>
       <c r="J3" t="n">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="L3" t="n">
-        <v>6.5</v>
+        <v>3.15</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="P3" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.93</v>
+        <v>1.7</v>
       </c>
       <c r="R3" t="n">
-        <v>1.93</v>
+        <v>2.07</v>
       </c>
       <c r="S3" t="n">
         <v>1.36</v>
       </c>
       <c r="T3" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="U3" t="n">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="V3" t="n">
-        <v>1.73</v>
+        <v>2.25</v>
       </c>
       <c r="W3" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="X3" t="n">
-        <v>6.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="Z3" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="AA3" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>25</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AO3" t="n">
         <v>13</v>
       </c>
-      <c r="AB3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AP3" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AQ3" t="n">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="AR3" t="n">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="AS3" t="n">
-        <v>151</v>
+        <v>200</v>
       </c>
       <c r="AT3" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="AU3" t="n">
-        <v>9</v>
+        <v>6.6</v>
       </c>
       <c r="AV3" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="AW3" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AX3" t="n">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="AY3" t="n">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="AZ3" t="n">
-        <v>41</v>
+        <v>19.5</v>
       </c>
       <c r="BA3" t="n">
-        <v>126</v>
+        <v>60</v>
       </c>
       <c r="BB3" t="n">
-        <v>151</v>
+        <v>80</v>
       </c>
       <c r="BC3" t="n">
-        <v>301</v>
+        <v>200</v>
       </c>
       <c r="BD3" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>hKMIYnqh</t>
+          <t>0zVWNlJ0</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,179 +1092,179 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>BULGARIA - PARVA LIGA</t>
+          <t>AUSTRIA - 2. LIGA</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Botev Plovdiv</t>
+          <t>First Vienna</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Cherno More</t>
+          <t>ASK Voitsberg</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="H4" t="n">
-        <v>3.1</v>
+        <v>3.65</v>
       </c>
       <c r="I4" t="n">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.63</v>
+        <v>2.47</v>
       </c>
       <c r="K4" t="n">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="L4" t="n">
-        <v>5.5</v>
+        <v>3.85</v>
       </c>
       <c r="M4" t="n">
-        <v>1.11</v>
+        <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>6.5</v>
+        <v>8.25</v>
       </c>
       <c r="O4" t="n">
-        <v>1.5</v>
+        <v>1.22</v>
       </c>
       <c r="P4" t="n">
-        <v>2.5</v>
+        <v>3.85</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.6</v>
+        <v>1.65</v>
       </c>
       <c r="R4" t="n">
-        <v>1.48</v>
+        <v>2.15</v>
       </c>
       <c r="S4" t="n">
-        <v>1.57</v>
+        <v>1.34</v>
       </c>
       <c r="T4" t="n">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U4" t="n">
-        <v>2.25</v>
+        <v>1.6</v>
       </c>
       <c r="V4" t="n">
-        <v>1.57</v>
+        <v>2.2</v>
       </c>
       <c r="W4" t="n">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="X4" t="n">
-        <v>7.5</v>
+        <v>10.25</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.5</v>
+        <v>8.25</v>
       </c>
       <c r="Z4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA4" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AB4" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AC4" t="n">
-        <v>6.5</v>
+        <v>8.25</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.5</v>
+        <v>7.2</v>
       </c>
       <c r="AE4" t="n">
-        <v>21</v>
+        <v>12.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AG4" t="n">
-        <v>351</v>
+        <v>300</v>
       </c>
       <c r="AH4" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AI4" t="n">
         <v>21</v>
       </c>
       <c r="AJ4" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AK4" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AL4" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="AM4" t="n">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="AO4" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AP4" t="n">
-        <v>26</v>
+        <v>16.5</v>
       </c>
       <c r="AQ4" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="AR4" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="AS4" t="n">
-        <v>251</v>
+        <v>175</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="AU4" t="n">
-        <v>9.5</v>
+        <v>6.8</v>
       </c>
       <c r="AV4" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW4" t="n">
         <v>81</v>
       </c>
-      <c r="AW4" t="n">
-        <v>51</v>
-      </c>
       <c r="AX4" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="AY4" t="n">
-        <v>29</v>
+        <v>18.5</v>
       </c>
       <c r="AZ4" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="BA4" t="n">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="BB4" t="n">
-        <v>151</v>
+        <v>110</v>
       </c>
       <c r="BC4" t="n">
-        <v>351</v>
+        <v>250</v>
       </c>
       <c r="BD4" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>dximVNgc</t>
+          <t>MkJuMSmD</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,179 +1274,179 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>MALAYSIA - SUPER LEAGUE</t>
+          <t>AUSTRIA - 2. LIGA</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Penang</t>
+          <t>Ried</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Sabah</t>
+          <t>Kapfenberg</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.15</v>
+        <v>1.35</v>
       </c>
       <c r="H5" t="n">
-        <v>3.25</v>
+        <v>4.8</v>
       </c>
       <c r="I5" t="n">
-        <v>2.05</v>
+        <v>7.6</v>
       </c>
       <c r="J5" t="n">
-        <v>3.55</v>
+        <v>1.8</v>
       </c>
       <c r="K5" t="n">
-        <v>2.18</v>
+        <v>2.47</v>
       </c>
       <c r="L5" t="n">
-        <v>2.57</v>
+        <v>6.7</v>
       </c>
       <c r="M5" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P5" t="n">
-        <v>4.33</v>
+        <v>3.9</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="R5" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="S5" t="n">
         <v>1.32</v>
       </c>
       <c r="T5" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="U5" t="n">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="V5" t="n">
-        <v>2.21</v>
+        <v>1.72</v>
       </c>
       <c r="W5" t="n">
-        <v>10.5</v>
+        <v>7.1</v>
       </c>
       <c r="X5" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>175</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>90</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AQ5" t="n">
         <v>16</v>
       </c>
-      <c r="Y5" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>35</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>20</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>30</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>150</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>16</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>75</v>
-      </c>
       <c r="AR5" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="AS5" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT5" t="n">
         <v>3.1</v>
       </c>
       <c r="AU5" t="n">
-        <v>6.2</v>
+        <v>8.75</v>
       </c>
       <c r="AV5" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AW5" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AX5" t="n">
-        <v>4.25</v>
+        <v>8.5</v>
       </c>
       <c r="AY5" t="n">
-        <v>10.5</v>
+        <v>45</v>
       </c>
       <c r="AZ5" t="n">
-        <v>15.5</v>
+        <v>45</v>
       </c>
       <c r="BA5" t="n">
-        <v>37</v>
+        <v>300</v>
       </c>
       <c r="BB5" t="n">
-        <v>55</v>
+        <v>300</v>
       </c>
       <c r="BC5" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="BD5" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>42feT1O9</t>
+          <t>0QZWAqio</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,170 +1456,170 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MALAYSIA - SUPER LEAGUE</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Kedah</t>
+          <t>Arda</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>PDRM FC</t>
+          <t>Septemvri Sofia</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.7</v>
+        <v>1.48</v>
       </c>
       <c r="H6" t="n">
-        <v>3.65</v>
+        <v>4.2</v>
       </c>
       <c r="I6" t="n">
-        <v>4.05</v>
+        <v>6.5</v>
       </c>
       <c r="J6" t="n">
-        <v>2.22</v>
+        <v>2.05</v>
       </c>
       <c r="K6" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L6" t="n">
-        <v>4.25</v>
+        <v>6.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
+        <v>11</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z6" t="n">
         <v>10</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="W6" t="n">
-        <v>7</v>
-      </c>
-      <c r="X6" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AA6" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AB6" t="n">
-        <v>17.5</v>
+        <v>29</v>
       </c>
       <c r="AC6" t="n">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="AD6" t="n">
-        <v>6.4</v>
+        <v>8</v>
       </c>
       <c r="AE6" t="n">
-        <v>11.25</v>
+        <v>21</v>
       </c>
       <c r="AF6" t="n">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="AG6" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AH6" t="n">
-        <v>11.75</v>
+        <v>15</v>
       </c>
       <c r="AI6" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="AJ6" t="n">
-        <v>11.25</v>
+        <v>21</v>
       </c>
       <c r="AK6" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="AL6" t="n">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="AM6" t="n">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="AO6" t="n">
-        <v>8.25</v>
+        <v>7.5</v>
       </c>
       <c r="AP6" t="n">
-        <v>15.5</v>
+        <v>21</v>
       </c>
       <c r="AQ6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR6" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AS6" t="n">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="AU6" t="n">
-        <v>6.9</v>
+        <v>9</v>
       </c>
       <c r="AV6" t="n">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="AW6" t="n">
         <v>51</v>
       </c>
       <c r="AX6" t="n">
-        <v>6.1</v>
+        <v>7.5</v>
       </c>
       <c r="AY6" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="AZ6" t="n">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="BA6" t="n">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="BB6" t="n">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="BC6" t="n">
-        <v>250</v>
+        <v>301</v>
       </c>
       <c r="BD6" t="n">
         <v>51</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>QHr4RugM</t>
+          <t>hKMIYnqh</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,170 +1638,170 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MALAYSIA - SUPER LEAGUE</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Kelantan DNFC</t>
+          <t>Botev Plovdiv</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Sri Pahang</t>
+          <t>Cherno More</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4.9</v>
+        <v>1.85</v>
       </c>
       <c r="H7" t="n">
-        <v>3.85</v>
+        <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>1.55</v>
+        <v>4.75</v>
       </c>
       <c r="J7" t="n">
-        <v>4.9</v>
+        <v>2.63</v>
       </c>
       <c r="K7" t="n">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="L7" t="n">
-        <v>2.05</v>
+        <v>5.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.02</v>
+        <v>1.11</v>
       </c>
       <c r="N7" t="n">
-        <v>10.5</v>
+        <v>6.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.18</v>
+        <v>1.5</v>
       </c>
       <c r="P7" t="n">
-        <v>4.51</v>
+        <v>2.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="R7" t="n">
-        <v>2.07</v>
+        <v>1.48</v>
       </c>
       <c r="S7" t="n">
-        <v>1.32</v>
+        <v>1.57</v>
       </c>
       <c r="T7" t="n">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U7" t="n">
-        <v>1.83</v>
+        <v>2.25</v>
       </c>
       <c r="V7" t="n">
-        <v>1.91</v>
+        <v>1.57</v>
       </c>
       <c r="W7" t="n">
-        <v>13.5</v>
+        <v>5.5</v>
       </c>
       <c r="X7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP7" t="n">
         <v>26</v>
       </c>
-      <c r="Y7" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>70</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>35</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>45</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>250</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>28</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>29</v>
-      </c>
       <c r="AQ7" t="n">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="AR7" t="n">
-        <v>175</v>
+        <v>67</v>
       </c>
       <c r="AS7" t="n">
-        <v>350</v>
+        <v>251</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.1</v>
+        <v>9.5</v>
       </c>
       <c r="AV7" t="n">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="AW7" t="n">
         <v>51</v>
       </c>
       <c r="AX7" t="n">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="AY7" t="n">
-        <v>7.3</v>
+        <v>29</v>
       </c>
       <c r="AZ7" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="BA7" t="n">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="BB7" t="n">
-        <v>45</v>
+        <v>151</v>
       </c>
       <c r="BC7" t="n">
-        <v>175</v>
+        <v>351</v>
       </c>
       <c r="BD7" t="n">
         <v>51</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>U5ehv3Vb</t>
+          <t>CMxKWQD4</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,179 +1820,179 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Al Qadisiya</t>
+          <t>Levski Sofia</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Damac</t>
+          <t>Beroe</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="I8" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N8" t="n">
+        <v>9</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q8" t="n">
         <v>2.1</v>
       </c>
-      <c r="K8" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L8" t="n">
-        <v>5</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N8" t="n">
-        <v>12</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.8</v>
-      </c>
       <c r="R8" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="S8" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="T8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>151</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>101</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>101</v>
+      </c>
+      <c r="AN8" t="n">
         <v>3</v>
       </c>
-      <c r="U8" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W8" t="n">
-        <v>7</v>
-      </c>
-      <c r="X8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF8" t="n">
+      <c r="AO8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR8" t="n">
         <v>51</v>
       </c>
-      <c r="AG8" t="n">
-        <v>700</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK8" t="n">
+      <c r="AS8" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW8" t="n">
         <v>51</v>
       </c>
-      <c r="AL8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV8" t="n">
+      <c r="AX8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY8" t="n">
         <v>51</v>
       </c>
-      <c r="AW8" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>26</v>
-      </c>
       <c r="AZ8" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="BA8" t="n">
-        <v>81</v>
+        <v>301</v>
       </c>
       <c r="BB8" t="n">
-        <v>101</v>
+        <v>351</v>
       </c>
       <c r="BC8" t="n">
-        <v>450</v>
+        <v>501</v>
       </c>
       <c r="BD8" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>WATRNsoI</t>
+          <t>bkJw2HxA</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,95 +2002,95 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>12:05</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>CROATIA - HNL</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Al Kholood</t>
+          <t>Slaven Belupo</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Sibenik</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>8</v>
+        <v>1.67</v>
       </c>
       <c r="H9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I9" t="n">
         <v>4.75</v>
       </c>
-      <c r="I9" t="n">
-        <v>1.36</v>
-      </c>
       <c r="J9" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>5</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N9" t="n">
+        <v>10</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W9" t="n">
         <v>6.5</v>
       </c>
-      <c r="K9" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N9" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P9" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W9" t="n">
-        <v>23</v>
-      </c>
       <c r="X9" t="n">
-        <v>41</v>
+        <v>7.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>23</v>
+        <v>8.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="AA9" t="n">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="AB9" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AC9" t="n">
-        <v>17</v>
+        <v>9.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="AE9" t="n">
         <v>17</v>
@@ -2099,46 +2099,46 @@
         <v>51</v>
       </c>
       <c r="AG9" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS9" t="n">
         <v>151</v>
       </c>
-      <c r="AH9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>126</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>126</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>400</v>
-      </c>
       <c r="AT9" t="n">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="AU9" t="n">
         <v>8.5</v>
@@ -2150,22 +2150,22 @@
         <v>81</v>
       </c>
       <c r="AX9" t="n">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="AY9" t="n">
-        <v>6.5</v>
+        <v>26</v>
       </c>
       <c r="AZ9" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="BA9" t="n">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="BB9" t="n">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="BC9" t="n">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="BD9" t="n">
         <v>81</v>
@@ -2174,7 +2174,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>lnKaZbQH</t>
+          <t>dximVNgc</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,170 +2184,170 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>MALAYSIA - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>IMT Novi Beograd</t>
+          <t>Penang</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tekstilac Odzaci</t>
+          <t>Sabah</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.5</v>
+        <v>3.15</v>
       </c>
       <c r="H10" t="n">
-        <v>4.05</v>
+        <v>3.25</v>
       </c>
       <c r="I10" t="n">
-        <v>6</v>
+        <v>2.05</v>
       </c>
       <c r="J10" t="n">
-        <v>2.05</v>
+        <v>3.55</v>
       </c>
       <c r="K10" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="L10" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N10" t="n">
+        <v>10</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="W10" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="X10" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>35</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD10" t="n">
         <v>5.9</v>
       </c>
-      <c r="M10" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N10" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W10" t="n">
-        <v>6</v>
-      </c>
-      <c r="X10" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="Y10" t="n">
+      <c r="AE10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH10" t="n">
         <v>8.25</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="AI10" t="n">
         <v>10</v>
       </c>
-      <c r="AA10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>20</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>110</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>14</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>35</v>
-      </c>
       <c r="AJ10" t="n">
-        <v>19.5</v>
+        <v>7.2</v>
       </c>
       <c r="AK10" t="n">
-        <v>120</v>
+        <v>17</v>
       </c>
       <c r="AL10" t="n">
-        <v>70</v>
+        <v>12.5</v>
       </c>
       <c r="AM10" t="n">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.2</v>
+        <v>5.4</v>
       </c>
       <c r="AO10" t="n">
-        <v>7.2</v>
+        <v>17</v>
       </c>
       <c r="AP10" t="n">
         <v>19.5</v>
       </c>
       <c r="AQ10" t="n">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="AR10" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AS10" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.67</v>
+        <v>3.1</v>
       </c>
       <c r="AU10" t="n">
-        <v>8.75</v>
+        <v>6.2</v>
       </c>
       <c r="AV10" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AW10" t="n">
         <v>51</v>
       </c>
       <c r="AX10" t="n">
-        <v>7.2</v>
+        <v>4.25</v>
       </c>
       <c r="AY10" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="BA10" t="n">
         <v>37</v>
       </c>
-      <c r="AZ10" t="n">
-        <v>45</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>250</v>
-      </c>
       <c r="BB10" t="n">
-        <v>300</v>
+        <v>55</v>
       </c>
       <c r="BC10" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="BD10" t="n">
         <v>51</v>
@@ -2356,7 +2356,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Y1UhtUYP</t>
+          <t>42feT1O9</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,354 +2366,1628 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>MALAYSIA - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Rukh Lviv</t>
+          <t>Kedah</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Ch. Odesa</t>
+          <t>PDRM FC</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H11" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="I11" t="n">
-        <v>5.5</v>
+        <v>4.05</v>
       </c>
       <c r="J11" t="n">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="K11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L11" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N11" t="n">
+        <v>10</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V11" t="n">
         <v>1.98</v>
       </c>
-      <c r="L11" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N11" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.5</v>
-      </c>
       <c r="W11" t="n">
-        <v>4.8</v>
+        <v>7</v>
       </c>
       <c r="X11" t="n">
-        <v>6.2</v>
+        <v>7.6</v>
       </c>
       <c r="Y11" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Z11" t="n">
         <v>11.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>17</v>
+        <v>10.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>45</v>
+        <v>17.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>6.7</v>
+        <v>12.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="AE11" t="n">
-        <v>24</v>
+        <v>11.25</v>
       </c>
       <c r="AF11" t="n">
-        <v>175</v>
+        <v>40</v>
       </c>
       <c r="AG11" t="n">
-        <v>67</v>
+        <v>250</v>
       </c>
       <c r="AH11" t="n">
-        <v>10.75</v>
+        <v>11.75</v>
       </c>
       <c r="AI11" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AJ11" t="n">
-        <v>19.5</v>
+        <v>11.25</v>
       </c>
       <c r="AK11" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="AL11" t="n">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="AM11" t="n">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="AO11" t="n">
         <v>8.25</v>
       </c>
       <c r="AP11" t="n">
-        <v>23</v>
+        <v>15.5</v>
       </c>
       <c r="AQ11" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AR11" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AS11" t="n">
-        <v>450</v>
+        <v>175</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.22</v>
+        <v>3.05</v>
       </c>
       <c r="AU11" t="n">
-        <v>9</v>
+        <v>6.9</v>
       </c>
       <c r="AV11" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>25</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>110</v>
+      </c>
+      <c r="BB11" t="n">
         <v>120</v>
       </c>
-      <c r="AW11" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>35</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>50</v>
-      </c>
-      <c r="BA11" t="n">
+      <c r="BC11" t="n">
         <v>250</v>
       </c>
-      <c r="BB11" t="n">
-        <v>350</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>700</v>
-      </c>
       <c r="BD11" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>QHr4RugM</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>25/10/2024</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>MALAYSIA - SUPER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Kelantan DNFC</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Sri Pahang</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="J12" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N12" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W12" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="X12" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>35</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>28</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>150</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>175</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>350</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>22</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>45</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>175</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2oOvgLGE</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>25/10/2024</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>POLAND - EKSTRAKLASA</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Piast Gliwice</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Lechia Gdansk</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I13" t="n">
+        <v>6</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L13" t="n">
+        <v>6</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N13" t="n">
+        <v>13</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W13" t="n">
+        <v>7</v>
+      </c>
+      <c r="X13" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>pnFeHfN0</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>25/10/2024</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>POLAND - DIVISION 1</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Chrobry Glogow</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Kotwica Kolobrzeg</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L14" t="n">
+        <v>4</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N14" t="n">
+        <v>9</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W14" t="n">
+        <v>7</v>
+      </c>
+      <c r="X14" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>201</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>U5ehv3Vb</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>25/10/2024</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>11:35</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Al Qadisiya</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Damac</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L15" t="n">
+        <v>5</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N15" t="n">
+        <v>9</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T15" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>400</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>WATRNsoI</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>25/10/2024</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>12:05</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Al Kholood</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Al Nassr</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="J16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N16" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T16" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W16" t="n">
+        <v>23</v>
+      </c>
+      <c r="X16" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>81</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>126</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>450</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>15</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>34</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>101</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>lnKaZbQH</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>25/10/2024</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>SERBIA - SUPER LIGA</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>IMT Novi Beograd</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Tekstilac Odzaci</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="I17" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L17" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="W17" t="n">
+        <v>6</v>
+      </c>
+      <c r="X17" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>300</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>110</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>60</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>65</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>350</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>450</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>500</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Y1UhtUYP</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>25/10/2024</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>09:30</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Rukh Lviv</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Ch. Odesa</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="L18" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N18" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W18" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="X18" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>45</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>175</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>67</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>120</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>30</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>90</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>450</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>120</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>35</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>50</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>250</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>350</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>700</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>hnBPz8dm</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>25/10/2024</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>12:00</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>UKRAINE - PREMIER LEAGUE</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>Polissya Zhytomyr</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>Kolos Kovalivka</t>
         </is>
       </c>
-      <c r="G12" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="I12" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="G19" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I19" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="K19" t="n">
         <v>1.85</v>
       </c>
-      <c r="L12" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N12" t="n">
+      <c r="L19" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N19" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="W19" t="n">
         <v>4.35</v>
       </c>
-      <c r="O12" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="W12" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="X12" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y12" t="n">
+      <c r="X19" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Y19" t="n">
         <v>9.5</v>
       </c>
-      <c r="Z12" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>20</v>
-      </c>
-      <c r="AB12" t="n">
+      <c r="Z19" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AB19" t="n">
         <v>55</v>
       </c>
-      <c r="AC12" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>27</v>
-      </c>
-      <c r="AF12" t="n">
+      <c r="AC19" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF19" t="n">
         <v>250</v>
       </c>
-      <c r="AG12" t="n">
+      <c r="AG19" t="n">
         <v>67</v>
       </c>
-      <c r="AH12" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>120</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>90</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP12" t="n">
+      <c r="AH19" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>110</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AP19" t="n">
         <v>26</v>
       </c>
-      <c r="AQ12" t="n">
-        <v>37</v>
-      </c>
-      <c r="AR12" t="n">
+      <c r="AQ19" t="n">
+        <v>35</v>
+      </c>
+      <c r="AR19" t="n">
         <v>100</v>
       </c>
-      <c r="AS12" t="n">
+      <c r="AS19" t="n">
         <v>500</v>
       </c>
-      <c r="AT12" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>120</v>
-      </c>
-      <c r="AW12" t="n">
+      <c r="AT19" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AW19" t="n">
         <v>81</v>
       </c>
-      <c r="AX12" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>37</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>55</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>300</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>450</v>
-      </c>
-      <c r="BC12" t="n">
+      <c r="AX19" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>40</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>60</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>350</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>500</v>
+      </c>
+      <c r="BC19" t="n">
         <v>67</v>
       </c>
-      <c r="BD12" t="n">
+      <c r="BD19" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD19"/>
+  <dimension ref="A1:BD23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -676,37 +676,37 @@
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_0-1_HT</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-2_HT</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-2_HT</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-3_HT</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-3_HT</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-3_HT</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_3-3_HT</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-1_HT</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-2_HT</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-2_HT</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-3_HT</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-3_HT</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-3_HT</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>QB5xzkQh</t>
+          <t>I5fXHFho</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,170 +728,170 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>05:35</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>AUSTRALIA - A-LEAGUE</t>
+          <t>ITALY - SERIE A</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Macarthur FC</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Newcastle Jets</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="H2" t="n">
-        <v>4.33</v>
+        <v>3.1</v>
       </c>
       <c r="I2" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="J2" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N2" t="n">
+        <v>8</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q2" t="n">
         <v>2.1</v>
       </c>
-      <c r="K2" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L2" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="R2" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="W2" t="n">
+        <v>7</v>
+      </c>
+      <c r="X2" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA2" t="n">
         <v>19</v>
       </c>
-      <c r="O2" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P2" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R2" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="T2" t="n">
-        <v>4</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W2" t="n">
-        <v>11</v>
-      </c>
-      <c r="X2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y2" t="n">
+      <c r="AB2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC2" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AD2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE2" t="n">
         <v>15</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AF2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>12</v>
       </c>
-      <c r="AB2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>15</v>
-      </c>
       <c r="AK2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL2" t="n">
         <v>29</v>
       </c>
       <c r="AM2" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AN2" t="n">
         <v>4</v>
       </c>
       <c r="AO2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AU2" t="n">
         <v>8</v>
       </c>
-      <c r="AP2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AS2" t="n">
+      <c r="AV2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA2" t="n">
         <v>81</v>
       </c>
-      <c r="AT2" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>301</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>7</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>23</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>67</v>
-      </c>
       <c r="BB2" t="n">
-        <v>67</v>
+        <v>201</v>
       </c>
       <c r="BC2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BD2" t="n">
         <v>151</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ldBRqWuK</t>
+          <t>QB5xzkQh</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,179 +910,179 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>05:35</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>AUSTRIA - 2. LIGA</t>
+          <t>AUSTRALIA - A-LEAGUE</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Amstetten</t>
+          <t>Macarthur FC</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Floridsdorfer AC</t>
+          <t>Newcastle Jets</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.45</v>
+        <v>1.65</v>
       </c>
       <c r="H3" t="n">
-        <v>3.4</v>
+        <v>4.33</v>
       </c>
       <c r="I3" t="n">
-        <v>2.65</v>
+        <v>4.5</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="K3" t="n">
-        <v>2.18</v>
+        <v>2.6</v>
       </c>
       <c r="L3" t="n">
-        <v>3.15</v>
+        <v>4.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N3" t="n">
+        <v>19</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T3" t="n">
+        <v>4</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W3" t="n">
+        <v>11</v>
+      </c>
+      <c r="X3" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO3" t="n">
         <v>8</v>
       </c>
-      <c r="O3" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V3" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W3" t="n">
-        <v>10</v>
-      </c>
-      <c r="X3" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>27</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>45</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>300</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AI3" t="n">
+      <c r="AP3" t="n">
         <v>15</v>
       </c>
-      <c r="AJ3" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>20</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>25</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AQ3" t="n">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="AR3" t="n">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AS3" t="n">
-        <v>200</v>
+        <v>81</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.92</v>
+        <v>4</v>
       </c>
       <c r="AU3" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AV3" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AW3" t="n">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="AX3" t="n">
-        <v>4.75</v>
+        <v>21</v>
       </c>
       <c r="AY3" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="AZ3" t="n">
-        <v>19.5</v>
+        <v>67</v>
       </c>
       <c r="BA3" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="BB3" t="n">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="BC3" t="n">
-        <v>200</v>
+        <v>301</v>
       </c>
       <c r="BD3" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0zVWNlJ0</t>
+          <t>ldBRqWuK</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1102,85 +1102,85 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>First Vienna</t>
+          <t>Amstetten</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>ASK Voitsberg</t>
+          <t>Floridsdorfer AC</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="H4" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="I4" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="J4" t="n">
-        <v>2.47</v>
+        <v>2.57</v>
       </c>
       <c r="K4" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="L4" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P4" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="R4" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="S4" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="T4" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="U4" t="n">
         <v>1.6</v>
       </c>
       <c r="V4" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="W4" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="X4" t="n">
-        <v>10.25</v>
+        <v>11.25</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB4" t="n">
         <v>21</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AD4" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="AE4" t="n">
         <v>12.5</v>
@@ -1192,34 +1192,34 @@
         <v>300</v>
       </c>
       <c r="AH4" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ4" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AK4" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AL4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM4" t="n">
         <v>30</v>
       </c>
       <c r="AN4" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="AO4" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="AP4" t="n">
         <v>16.5</v>
       </c>
       <c r="AQ4" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AR4" t="n">
         <v>60</v>
@@ -1228,34 +1228,34 @@
         <v>175</v>
       </c>
       <c r="AT4" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="AU4" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AV4" t="n">
         <v>50</v>
       </c>
       <c r="AW4" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>90</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>120</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC4" t="n">
         <v>81</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>23</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>90</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>110</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>250</v>
       </c>
       <c r="BD4" t="n">
         <v>81</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MkJuMSmD</t>
+          <t>0zVWNlJ0</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1284,43 +1284,43 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Ried</t>
+          <t>First Vienna</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Kapfenberg</t>
+          <t>ASK Voitsberg</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.35</v>
+        <v>1.91</v>
       </c>
       <c r="H5" t="n">
-        <v>4.8</v>
+        <v>3.65</v>
       </c>
       <c r="I5" t="n">
-        <v>7.6</v>
+        <v>3.5</v>
       </c>
       <c r="J5" t="n">
-        <v>1.8</v>
+        <v>2.47</v>
       </c>
       <c r="K5" t="n">
-        <v>2.47</v>
+        <v>2.25</v>
       </c>
       <c r="L5" t="n">
-        <v>6.7</v>
+        <v>3.85</v>
       </c>
       <c r="M5" t="n">
         <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="O5" t="n">
         <v>1.22</v>
       </c>
       <c r="P5" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="Q5" t="n">
         <v>1.65</v>
@@ -1329,115 +1329,115 @@
         <v>2.15</v>
       </c>
       <c r="S5" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="T5" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="U5" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="V5" t="n">
-        <v>1.72</v>
+        <v>2.2</v>
       </c>
       <c r="W5" t="n">
-        <v>7.1</v>
+        <v>9</v>
       </c>
       <c r="X5" t="n">
-        <v>6.4</v>
+        <v>10.25</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="Z5" t="n">
-        <v>8.5</v>
+        <v>17</v>
       </c>
       <c r="AA5" t="n">
-        <v>11.25</v>
+        <v>14</v>
       </c>
       <c r="AB5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL5" t="n">
         <v>28</v>
       </c>
-      <c r="AC5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD5" t="n">
+      <c r="AM5" t="n">
+        <v>30</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO5" t="n">
         <v>9.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>800</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>175</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>90</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>6</v>
       </c>
       <c r="AP5" t="n">
         <v>16.5</v>
       </c>
       <c r="AQ5" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="AR5" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AS5" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>90</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>110</v>
+      </c>
+      <c r="BB5" t="n">
         <v>250</v>
       </c>
-      <c r="AT5" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>80</v>
-      </c>
-      <c r="AW5" t="n">
+      <c r="BC5" t="n">
         <v>81</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>45</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>45</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>300</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>300</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>500</v>
       </c>
       <c r="BD5" t="n">
         <v>81</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0QZWAqio</t>
+          <t>MkJuMSmD</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,179 +1456,179 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>BULGARIA - PARVA LIGA</t>
+          <t>AUSTRIA - 2. LIGA</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Arda</t>
+          <t>Ried</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Septemvri Sofia</t>
+          <t>Kapfenberg</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.48</v>
+        <v>1.35</v>
       </c>
       <c r="H6" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="I6" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="J6" t="n">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="K6" t="n">
-        <v>2.3</v>
+        <v>2.47</v>
       </c>
       <c r="L6" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="P6" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.93</v>
+        <v>1.65</v>
       </c>
       <c r="R6" t="n">
-        <v>1.93</v>
+        <v>2.15</v>
       </c>
       <c r="S6" t="n">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="T6" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="V6" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="W6" t="n">
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
       <c r="X6" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="Y6" t="n">
         <v>8.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>13</v>
+        <v>11.25</v>
       </c>
       <c r="AB6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC6" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AE6" t="n">
         <v>21</v>
       </c>
       <c r="AF6" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="AG6" t="n">
-        <v>251</v>
+        <v>800</v>
       </c>
       <c r="AH6" t="n">
-        <v>15</v>
+        <v>19.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="AJ6" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AK6" t="n">
-        <v>67</v>
+        <v>175</v>
       </c>
       <c r="AL6" t="n">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="AM6" t="n">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="AO6" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="AP6" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AQ6" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="AR6" t="n">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="AS6" t="n">
-        <v>151</v>
+        <v>200</v>
       </c>
       <c r="AT6" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AU6" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AV6" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="AW6" t="n">
-        <v>51</v>
+        <v>8.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>7.5</v>
+        <v>45</v>
       </c>
       <c r="AY6" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="AZ6" t="n">
-        <v>41</v>
+        <v>300</v>
       </c>
       <c r="BA6" t="n">
-        <v>126</v>
+        <v>300</v>
       </c>
       <c r="BB6" t="n">
-        <v>151</v>
+        <v>500</v>
       </c>
       <c r="BC6" t="n">
-        <v>301</v>
+        <v>81</v>
       </c>
       <c r="BD6" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>hKMIYnqh</t>
+          <t>0QZWAqio</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,7 +1638,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1648,160 +1648,160 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Botev Plovdiv</t>
+          <t>Arda</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Cherno More</t>
+          <t>Septemvri Sofia</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.85</v>
+        <v>1.48</v>
       </c>
       <c r="H7" t="n">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="I7" t="n">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="J7" t="n">
-        <v>2.63</v>
+        <v>2.05</v>
       </c>
       <c r="K7" t="n">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="L7" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
+        <v>11</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W7" t="n">
         <v>6.5</v>
       </c>
-      <c r="O7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W7" t="n">
-        <v>5.5</v>
-      </c>
       <c r="X7" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AB7" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AC7" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AE7" t="n">
         <v>21</v>
       </c>
       <c r="AF7" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG7" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AH7" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="AI7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>21</v>
       </c>
-      <c r="AJ7" t="n">
-        <v>17</v>
-      </c>
       <c r="AK7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL7" t="n">
         <v>51</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>41</v>
       </c>
       <c r="AM7" t="n">
         <v>51</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="AO7" t="n">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="AP7" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AQ7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY7" t="n">
         <v>41</v>
       </c>
-      <c r="AR7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW7" t="n">
+      <c r="AZ7" t="n">
+        <v>126</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC7" t="n">
         <v>51</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>351</v>
       </c>
       <c r="BD7" t="n">
         <v>51</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CMxKWQD4</t>
+          <t>hKMIYnqh</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,7 +1820,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1830,160 +1830,160 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Levski Sofia</t>
+          <t>Botev Plovdiv</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Beroe</t>
+          <t>Cherno More</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.33</v>
+        <v>1.85</v>
       </c>
       <c r="H8" t="n">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="I8" t="n">
-        <v>11</v>
+        <v>4.75</v>
       </c>
       <c r="J8" t="n">
-        <v>1.8</v>
+        <v>2.63</v>
       </c>
       <c r="K8" t="n">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="L8" t="n">
-        <v>9.5</v>
+        <v>5.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="N8" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="P8" t="n">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="R8" t="n">
-        <v>1.7</v>
+        <v>1.48</v>
       </c>
       <c r="S8" t="n">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="T8" t="n">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="U8" t="n">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="V8" t="n">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="W8" t="n">
         <v>5.5</v>
       </c>
       <c r="X8" t="n">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="Y8" t="n">
         <v>9.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="AA8" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AB8" t="n">
         <v>41</v>
       </c>
       <c r="AC8" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AF8" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG8" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AH8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI8" t="n">
         <v>21</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AJ8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK8" t="n">
         <v>51</v>
       </c>
-      <c r="AJ8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>151</v>
-      </c>
       <c r="AL8" t="n">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="AM8" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="AN8" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="AO8" t="n">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="AP8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ8" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AR8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS8" t="n">
         <v>251</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="AU8" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AV8" t="n">
         <v>81</v>
       </c>
       <c r="AW8" t="n">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="AX8" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="AY8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AZ8" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BA8" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="BB8" t="n">
         <v>351</v>
       </c>
       <c r="BC8" t="n">
-        <v>501</v>
+        <v>51</v>
       </c>
       <c r="BD8" t="n">
         <v>51</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>bkJw2HxA</t>
+          <t>CMxKWQD4</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2007,174 +2007,174 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>CROATIA - HNL</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Slaven Belupo</t>
+          <t>Levski Sofia</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Sibenik</t>
+          <t>Beroe</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="H9" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="I9" t="n">
-        <v>4.75</v>
+        <v>11</v>
       </c>
       <c r="J9" t="n">
-        <v>2.37</v>
+        <v>1.83</v>
       </c>
       <c r="K9" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L9" t="n">
-        <v>5</v>
+        <v>9.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O9" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P9" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R9" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S9" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T9" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U9" t="n">
-        <v>1.91</v>
+        <v>2.63</v>
       </c>
       <c r="V9" t="n">
-        <v>1.8</v>
+        <v>1.44</v>
       </c>
       <c r="W9" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="X9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z9" t="n">
         <v>7.5</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>13</v>
       </c>
       <c r="AA9" t="n">
         <v>15</v>
       </c>
       <c r="AB9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE9" t="n">
         <v>29</v>
       </c>
-      <c r="AC9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>17</v>
-      </c>
       <c r="AF9" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI9" t="n">
         <v>51</v>
       </c>
-      <c r="AG9" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI9" t="n">
+      <c r="AJ9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>151</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>101</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>101</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP9" t="n">
         <v>23</v>
       </c>
-      <c r="AJ9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>21</v>
-      </c>
       <c r="AQ9" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AR9" t="n">
         <v>51</v>
       </c>
       <c r="AS9" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU9" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AV9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX9" t="n">
         <v>51</v>
       </c>
-      <c r="AW9" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AY9" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="AZ9" t="n">
-        <v>34</v>
+        <v>301</v>
       </c>
       <c r="BA9" t="n">
-        <v>101</v>
+        <v>351</v>
       </c>
       <c r="BB9" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BC9" t="n">
-        <v>251</v>
+        <v>51</v>
       </c>
       <c r="BD9" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>dximVNgc</t>
+          <t>bkJw2HxA</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,179 +2184,179 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MALAYSIA - SUPER LEAGUE</t>
+          <t>CROATIA - HNL</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Penang</t>
+          <t>Slaven Belupo</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Sabah</t>
+          <t>Sibenik</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.15</v>
+        <v>1.67</v>
       </c>
       <c r="H10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N10" t="n">
+        <v>9</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P10" t="n">
         <v>3.25</v>
       </c>
-      <c r="I10" t="n">
+      <c r="Q10" t="n">
         <v>2.05</v>
       </c>
-      <c r="J10" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N10" t="n">
-        <v>10</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P10" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.6</v>
-      </c>
       <c r="R10" t="n">
-        <v>2.07</v>
+        <v>1.75</v>
       </c>
       <c r="S10" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="T10" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U10" t="n">
-        <v>1.62</v>
+        <v>1.91</v>
       </c>
       <c r="V10" t="n">
-        <v>2.21</v>
+        <v>1.8</v>
       </c>
       <c r="W10" t="n">
-        <v>10.5</v>
+        <v>6.5</v>
       </c>
       <c r="X10" t="n">
-        <v>16</v>
+        <v>7.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="AA10" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AB10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP10" t="n">
         <v>21</v>
       </c>
-      <c r="AC10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>30</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>150</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>16</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AQ10" t="n">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="AR10" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="AS10" t="n">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="AT10" t="n">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="AU10" t="n">
-        <v>6.2</v>
+        <v>8.5</v>
       </c>
       <c r="AV10" t="n">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="AW10" t="n">
-        <v>51</v>
+        <v>6.5</v>
       </c>
       <c r="AX10" t="n">
-        <v>4.25</v>
+        <v>29</v>
       </c>
       <c r="AY10" t="n">
-        <v>10.5</v>
+        <v>34</v>
       </c>
       <c r="AZ10" t="n">
-        <v>15.5</v>
+        <v>101</v>
       </c>
       <c r="BA10" t="n">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="BB10" t="n">
-        <v>55</v>
+        <v>301</v>
       </c>
       <c r="BC10" t="n">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="BD10" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>42feT1O9</t>
+          <t>AL4P3nvB</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,179 +2366,179 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>MALAYSIA - SUPER LEAGUE</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Kedah</t>
+          <t>FC Koln</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>PDRM FC</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="H11" t="n">
-        <v>3.65</v>
+        <v>4.2</v>
       </c>
       <c r="I11" t="n">
-        <v>4.05</v>
+        <v>4.75</v>
       </c>
       <c r="J11" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="K11" t="n">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="L11" t="n">
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N11" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="O11" t="n">
-        <v>1.24</v>
+        <v>1.11</v>
       </c>
       <c r="P11" t="n">
-        <v>3.85</v>
+        <v>6.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.62</v>
+        <v>1.4</v>
       </c>
       <c r="R11" t="n">
-        <v>2.02</v>
+        <v>2.88</v>
       </c>
       <c r="S11" t="n">
-        <v>1.32</v>
+        <v>1.22</v>
       </c>
       <c r="T11" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="U11" t="n">
-        <v>1.78</v>
+        <v>1.44</v>
       </c>
       <c r="V11" t="n">
-        <v>1.98</v>
+        <v>2.63</v>
       </c>
       <c r="W11" t="n">
+        <v>12</v>
+      </c>
+      <c r="X11" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU11" t="n">
         <v>7</v>
       </c>
-      <c r="X11" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="Y11" t="n">
+      <c r="AV11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW11" t="n">
         <v>7</v>
       </c>
-      <c r="Z11" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>250</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>20</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>27</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>27</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>50</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>175</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>51</v>
-      </c>
       <c r="AX11" t="n">
-        <v>6.1</v>
+        <v>21</v>
       </c>
       <c r="AY11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ11" t="n">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="BA11" t="n">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="BB11" t="n">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="BC11" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BD11" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>QHr4RugM</t>
+          <t>2iNWcH7k</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,179 +2548,179 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>MALAYSIA - SUPER LEAGUE</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Kelantan DNFC</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Sri Pahang</t>
+          <t>Regensburg</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>4.9</v>
+        <v>1.73</v>
       </c>
       <c r="H12" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I12" t="n">
-        <v>1.55</v>
+        <v>4.33</v>
       </c>
       <c r="J12" t="n">
-        <v>4.9</v>
+        <v>2.3</v>
       </c>
       <c r="K12" t="n">
         <v>2.3</v>
       </c>
       <c r="L12" t="n">
-        <v>2.05</v>
+        <v>4.5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="O12" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="P12" t="n">
-        <v>4.51</v>
+        <v>4</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="R12" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="S12" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="T12" t="n">
         <v>3.25</v>
       </c>
       <c r="U12" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="V12" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W12" t="n">
-        <v>13.5</v>
+        <v>8</v>
       </c>
       <c r="X12" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="Y12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA12" t="n">
         <v>13</v>
       </c>
-      <c r="Z12" t="n">
-        <v>70</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>35</v>
-      </c>
       <c r="AB12" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AC12" t="n">
         <v>13</v>
       </c>
       <c r="AD12" t="n">
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AF12" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AG12" t="n">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="AH12" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AI12" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="AJ12" t="n">
-        <v>6.8</v>
+        <v>15</v>
       </c>
       <c r="AK12" t="n">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="AL12" t="n">
-        <v>9.75</v>
+        <v>34</v>
       </c>
       <c r="AM12" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AN12" t="n">
-        <v>6.9</v>
+        <v>3.75</v>
       </c>
       <c r="AO12" t="n">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="AP12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ12" t="n">
         <v>29</v>
       </c>
-      <c r="AQ12" t="n">
-        <v>150</v>
-      </c>
       <c r="AR12" t="n">
-        <v>175</v>
+        <v>41</v>
       </c>
       <c r="AS12" t="n">
-        <v>350</v>
+        <v>101</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="AU12" t="n">
-        <v>7.1</v>
+        <v>8</v>
       </c>
       <c r="AV12" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AW12" t="n">
-        <v>51</v>
+        <v>6.5</v>
       </c>
       <c r="AX12" t="n">
-        <v>3.5</v>
+        <v>23</v>
       </c>
       <c r="AY12" t="n">
-        <v>7.3</v>
+        <v>29</v>
       </c>
       <c r="AZ12" t="n">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="BA12" t="n">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="BB12" t="n">
-        <v>45</v>
+        <v>151</v>
       </c>
       <c r="BC12" t="n">
-        <v>175</v>
+        <v>81</v>
       </c>
       <c r="BD12" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2oOvgLGE</t>
+          <t>dximVNgc</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,179 +2730,179 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>MALAYSIA - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Piast Gliwice</t>
+          <t>Penang</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Lechia Gdansk</t>
+          <t>Sabah</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.48</v>
+        <v>3.15</v>
       </c>
       <c r="H13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N13" t="n">
+        <v>10</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P13" t="n">
         <v>4.33</v>
       </c>
-      <c r="I13" t="n">
-        <v>6</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L13" t="n">
-        <v>6</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N13" t="n">
-        <v>13</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3.75</v>
-      </c>
       <c r="Q13" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="R13" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="S13" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="T13" t="n">
         <v>3.25</v>
       </c>
       <c r="U13" t="n">
-        <v>1.95</v>
+        <v>1.62</v>
       </c>
       <c r="V13" t="n">
-        <v>1.8</v>
+        <v>2.21</v>
       </c>
       <c r="W13" t="n">
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="X13" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="Z13" t="n">
+        <v>35</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AI13" t="n">
         <v>10</v>
       </c>
-      <c r="AA13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF13" t="n">
+      <c r="AJ13" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>16</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>75</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>90</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>40</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>37</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>55</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>150</v>
+      </c>
+      <c r="BC13" t="n">
         <v>51</v>
       </c>
-      <c r="AG13" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV13" t="n">
+      <c r="BD13" t="n">
         <v>51</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>251</v>
-      </c>
-      <c r="BD13" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>pnFeHfN0</t>
+          <t>42feT1O9</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,179 +2912,179 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>MALAYSIA - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Chrobry Glogow</t>
+          <t>Kedah</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Kotwica Kolobrzeg</t>
+          <t>PDRM FC</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="H14" t="n">
-        <v>3.2</v>
+        <v>3.65</v>
       </c>
       <c r="I14" t="n">
-        <v>3.1</v>
+        <v>4.05</v>
       </c>
       <c r="J14" t="n">
-        <v>2.88</v>
+        <v>2.22</v>
       </c>
       <c r="K14" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="M14" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O14" t="n">
-        <v>1.4</v>
+        <v>1.24</v>
       </c>
       <c r="P14" t="n">
-        <v>2.75</v>
+        <v>3.85</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.25</v>
+        <v>1.62</v>
       </c>
       <c r="R14" t="n">
-        <v>1.62</v>
+        <v>2.02</v>
       </c>
       <c r="S14" t="n">
-        <v>1.44</v>
+        <v>1.32</v>
       </c>
       <c r="T14" t="n">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="U14" t="n">
-        <v>1.91</v>
+        <v>1.78</v>
       </c>
       <c r="V14" t="n">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="W14" t="n">
         <v>7</v>
       </c>
       <c r="X14" t="n">
-        <v>10</v>
+        <v>7.6</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="Z14" t="n">
-        <v>21</v>
+        <v>11.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>19</v>
+        <v>10.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>34</v>
+        <v>17.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.5</v>
+        <v>12.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AE14" t="n">
-        <v>17</v>
+        <v>11.25</v>
       </c>
       <c r="AF14" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>20</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>27</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>27</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>50</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>22</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>110</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>120</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC14" t="n">
         <v>51</v>
       </c>
-      <c r="AG14" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV14" t="n">
+      <c r="BD14" t="n">
         <v>51</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>81</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>201</v>
-      </c>
-      <c r="BD14" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>U5ehv3Vb</t>
+          <t>QHr4RugM</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,62 +3094,62 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>MALAYSIA - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Al Qadisiya</t>
+          <t>Kelantan DNFC</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Damac</t>
+          <t>Sri Pahang</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.57</v>
+        <v>4.9</v>
       </c>
       <c r="H15" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="I15" t="n">
-        <v>5.25</v>
+        <v>1.55</v>
       </c>
       <c r="J15" t="n">
-        <v>2.1</v>
+        <v>4.9</v>
       </c>
       <c r="K15" t="n">
         <v>2.3</v>
       </c>
       <c r="L15" t="n">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="M15" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N15" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="O15" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="P15" t="n">
-        <v>4</v>
+        <v>4.51</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="R15" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="S15" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="T15" t="n">
         <v>3.25</v>
@@ -3158,115 +3158,115 @@
         <v>1.83</v>
       </c>
       <c r="V15" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W15" t="n">
-        <v>7.5</v>
+        <v>13.5</v>
       </c>
       <c r="X15" t="n">
-        <v>7.5</v>
+        <v>26</v>
       </c>
       <c r="Y15" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="Z15" t="n">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="AA15" t="n">
+        <v>35</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC15" t="n">
         <v>13</v>
       </c>
-      <c r="AB15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC15" t="n">
+      <c r="AD15" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AE15" t="n">
         <v>12</v>
       </c>
-      <c r="AD15" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE15" t="n">
+      <c r="AF15" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AM15" t="n">
         <v>17</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AN15" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>28</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>150</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>175</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>350</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>22</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>45</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>175</v>
+      </c>
+      <c r="BC15" t="n">
         <v>51</v>
       </c>
-      <c r="AG15" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK15" t="n">
+      <c r="BD15" t="n">
         <v>51</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>7</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>101</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>400</v>
-      </c>
-      <c r="BD15" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>WATRNsoI</t>
+          <t>2oOvgLGE</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,95 +3276,95 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>12:05</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Al Kholood</t>
+          <t>Piast Gliwice</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Lechia Gdansk</t>
         </is>
       </c>
       <c r="G16" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I16" t="n">
+        <v>6</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L16" t="n">
+        <v>6</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N16" t="n">
+        <v>13</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W16" t="n">
+        <v>7</v>
+      </c>
+      <c r="X16" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y16" t="n">
         <v>8.5</v>
       </c>
-      <c r="H16" t="n">
-        <v>5</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="J16" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N16" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P16" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R16" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T16" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W16" t="n">
-        <v>23</v>
-      </c>
-      <c r="X16" t="n">
-        <v>41</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>23</v>
-      </c>
       <c r="Z16" t="n">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="AB16" t="n">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="AC16" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AD16" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AE16" t="n">
         <v>19</v>
@@ -3373,73 +3373,73 @@
         <v>51</v>
       </c>
       <c r="AG16" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="AH16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU16" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>9</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>9</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>126</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>126</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>450</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>9</v>
       </c>
       <c r="AV16" t="n">
         <v>51</v>
       </c>
       <c r="AW16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>126</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC16" t="n">
         <v>81</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>17</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>15</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>34</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>101</v>
       </c>
       <c r="BD16" t="n">
         <v>81</v>
@@ -3448,7 +3448,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>lnKaZbQH</t>
+          <t>pnFeHfN0</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3458,179 +3458,179 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>IMT Novi Beograd</t>
+          <t>Chrobry Glogow</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tekstilac Odzaci</t>
+          <t>Kotwica Kolobrzeg</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.33</v>
+        <v>2.1</v>
       </c>
       <c r="H17" t="n">
-        <v>4.55</v>
+        <v>3.2</v>
       </c>
       <c r="I17" t="n">
-        <v>9.25</v>
+        <v>3.1</v>
       </c>
       <c r="J17" t="n">
-        <v>1.82</v>
+        <v>2.88</v>
       </c>
       <c r="K17" t="n">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="L17" t="n">
-        <v>8.25</v>
+        <v>4</v>
       </c>
       <c r="M17" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="O17" t="n">
-        <v>1.28</v>
+        <v>1.4</v>
       </c>
       <c r="P17" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.83</v>
+        <v>2.25</v>
       </c>
       <c r="R17" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U17" t="n">
         <v>1.91</v>
       </c>
-      <c r="S17" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2.22</v>
-      </c>
       <c r="V17" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="W17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X17" t="n">
-        <v>5.7</v>
+        <v>10</v>
       </c>
       <c r="Y17" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>7.9</v>
+        <v>21</v>
       </c>
       <c r="AA17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ17" t="n">
         <v>12</v>
       </c>
-      <c r="AB17" t="n">
-        <v>35</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>150</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>30</v>
-      </c>
       <c r="AK17" t="n">
-        <v>300</v>
+        <v>34</v>
       </c>
       <c r="AL17" t="n">
-        <v>150</v>
+        <v>29</v>
       </c>
       <c r="AM17" t="n">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="AN17" t="n">
-        <v>3</v>
+        <v>4.33</v>
       </c>
       <c r="AO17" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AP17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX17" t="n">
         <v>19</v>
       </c>
-      <c r="AQ17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>55</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>300</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>110</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AY17" t="n">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="AZ17" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="BA17" t="n">
-        <v>350</v>
+        <v>81</v>
       </c>
       <c r="BB17" t="n">
-        <v>450</v>
+        <v>201</v>
       </c>
       <c r="BC17" t="n">
-        <v>500</v>
+        <v>81</v>
       </c>
       <c r="BD17" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Y1UhtUYP</t>
+          <t>U5ehv3Vb</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3640,170 +3640,170 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Rukh Lviv</t>
+          <t>Al Qadisiya</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Ch. Odesa</t>
+          <t>Damac</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.65</v>
+        <v>1.52</v>
       </c>
       <c r="H18" t="n">
-        <v>3.35</v>
+        <v>4.2</v>
       </c>
       <c r="I18" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J18" t="n">
-        <v>2.27</v>
+        <v>2.05</v>
       </c>
       <c r="K18" t="n">
-        <v>1.98</v>
+        <v>2.3</v>
       </c>
       <c r="L18" t="n">
-        <v>5.8</v>
+        <v>5</v>
       </c>
       <c r="M18" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>7.33</v>
+        <v>9</v>
       </c>
       <c r="O18" t="n">
-        <v>1.47</v>
+        <v>1.22</v>
       </c>
       <c r="P18" t="n">
-        <v>2.35</v>
+        <v>4</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.32</v>
+        <v>1.67</v>
       </c>
       <c r="R18" t="n">
-        <v>1.47</v>
+        <v>2.1</v>
       </c>
       <c r="S18" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="T18" t="n">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U18" t="n">
-        <v>2.27</v>
+        <v>1.8</v>
       </c>
       <c r="V18" t="n">
-        <v>1.5</v>
+        <v>1.91</v>
       </c>
       <c r="W18" t="n">
-        <v>4.8</v>
+        <v>7.5</v>
       </c>
       <c r="X18" t="n">
-        <v>6.2</v>
+        <v>8</v>
       </c>
       <c r="Y18" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AA18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE18" t="n">
         <v>17</v>
       </c>
-      <c r="AB18" t="n">
-        <v>45</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>24</v>
-      </c>
       <c r="AF18" t="n">
-        <v>175</v>
+        <v>51</v>
       </c>
       <c r="AG18" t="n">
-        <v>67</v>
+        <v>600</v>
       </c>
       <c r="AH18" t="n">
-        <v>10.75</v>
+        <v>15</v>
       </c>
       <c r="AI18" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ18" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AK18" t="n">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="AL18" t="n">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AM18" t="n">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="AN18" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="AO18" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AP18" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AQ18" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="AR18" t="n">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="AS18" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB18" t="n">
         <v>450</v>
       </c>
-      <c r="AT18" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>120</v>
-      </c>
-      <c r="AW18" t="n">
+      <c r="BC18" t="n">
         <v>81</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>35</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>50</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>250</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>350</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>700</v>
       </c>
       <c r="BD18" t="n">
         <v>81</v>
@@ -3812,182 +3812,910 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>WATRNsoI</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>25/10/2024</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>12:05</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Al Kholood</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Al Nassr</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="J19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N19" t="n">
+        <v>11</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T19" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W19" t="n">
+        <v>26</v>
+      </c>
+      <c r="X19" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>81</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>126</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>400</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>34</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>lnKaZbQH</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>25/10/2024</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>SERBIA - SUPER LIGA</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>IMT Novi Beograd</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Tekstilac Odzaci</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="H20" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>12</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="L20" t="n">
+        <v>9</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N20" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="T20" t="n">
+        <v>3</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W20" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="X20" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>37</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>450</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>175</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>14</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>45</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>110</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>70</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>65</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>350</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>500</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>500</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>zqfQKaBO</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>25/10/2024</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>SERBIA - SUPER LIGA</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Radnicki 1923</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Jedinstvo U.</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H21" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I21" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="L21" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T21" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W21" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="X21" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>120</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>250</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>45</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>90</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>55</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>50</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>450</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>400</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Y1UhtUYP</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>25/10/2024</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>09:30</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Rukh Lviv</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Ch. Odesa</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I22" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="L22" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N22" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W22" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="X22" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>45</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>175</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>67</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>120</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>30</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>90</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>450</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>120</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>35</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>50</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>250</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>350</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>700</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
           <t>hnBPz8dm</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>25/10/2024</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>12:00</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>UKRAINE - PREMIER LEAGUE</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>Polissya Zhytomyr</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>Kolos Kovalivka</t>
         </is>
       </c>
-      <c r="G19" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H19" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="I19" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="G23" t="n">
         <v>1.85</v>
       </c>
-      <c r="L19" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N19" t="n">
+      <c r="H23" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="I23" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L23" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N23" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U23" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="W23" t="n">
         <v>4.4</v>
       </c>
-      <c r="O19" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="U19" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="W19" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="X19" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="Y19" t="n">
+      <c r="X23" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="Y23" t="n">
         <v>9.5</v>
       </c>
-      <c r="Z19" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AA19" t="n">
+      <c r="Z23" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>55</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>200</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>67</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ23" t="n">
         <v>19.5</v>
       </c>
-      <c r="AB19" t="n">
-        <v>55</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>28</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>250</v>
-      </c>
-      <c r="AG19" t="n">
+      <c r="AK23" t="n">
+        <v>150</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>90</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>25</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>40</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>110</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>500</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>120</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>37</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>50</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>300</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>400</v>
+      </c>
+      <c r="BB23" t="n">
         <v>67</v>
       </c>
-      <c r="AH19" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>22</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>150</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>110</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>35</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>100</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>500</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>150</v>
-      </c>
-      <c r="AW19" t="n">
+      <c r="BC23" t="n">
         <v>81</v>
       </c>
-      <c r="AX19" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>40</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>60</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>350</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>500</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>67</v>
-      </c>
-      <c r="BD19" t="n">
+      <c r="BD23" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD23"/>
+  <dimension ref="A1:BD33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -756,7 +756,7 @@
         <v>3.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="K2" t="n">
         <v>2.05</v>
@@ -777,10 +777,10 @@
         <v>3.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R2" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="S2" t="n">
         <v>1.44</v>
@@ -789,10 +789,10 @@
         <v>2.63</v>
       </c>
       <c r="U2" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="V2" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="W2" t="n">
         <v>7</v>
@@ -864,7 +864,7 @@
         <v>151</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="AU2" t="n">
         <v>8</v>
@@ -1120,7 +1120,7 @@
         <v>3.35</v>
       </c>
       <c r="J4" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="K4" t="n">
         <v>2.18</v>
@@ -1138,7 +1138,7 @@
         <v>1.23</v>
       </c>
       <c r="P4" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="Q4" t="n">
         <v>1.72</v>
@@ -1159,10 +1159,10 @@
         <v>2.22</v>
       </c>
       <c r="W4" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="X4" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="Y4" t="n">
         <v>8.5</v>
@@ -1174,7 +1174,7 @@
         <v>15</v>
       </c>
       <c r="AB4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AC4" t="n">
         <v>8</v>
@@ -1183,7 +1183,7 @@
         <v>6.8</v>
       </c>
       <c r="AE4" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AF4" t="n">
         <v>45</v>
@@ -1192,10 +1192,10 @@
         <v>300</v>
       </c>
       <c r="AH4" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AI4" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AJ4" t="n">
         <v>11.25</v>
@@ -1216,7 +1216,7 @@
         <v>10.25</v>
       </c>
       <c r="AP4" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AQ4" t="n">
         <v>37</v>
@@ -1225,7 +1225,7 @@
         <v>60</v>
       </c>
       <c r="AS4" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AT4" t="n">
         <v>2.9</v>
@@ -1240,7 +1240,7 @@
         <v>5.4</v>
       </c>
       <c r="AX4" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AY4" t="n">
         <v>23</v>
@@ -1249,7 +1249,7 @@
         <v>90</v>
       </c>
       <c r="BA4" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="BB4" t="n">
         <v>250</v>
@@ -2024,16 +2024,16 @@
         <v>1.33</v>
       </c>
       <c r="H9" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I9" t="n">
         <v>11</v>
       </c>
       <c r="J9" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="K9" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L9" t="n">
         <v>9.5</v>
@@ -2069,13 +2069,13 @@
         <v>1.44</v>
       </c>
       <c r="W9" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X9" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z9" t="n">
         <v>7.5</v>
@@ -2096,28 +2096,28 @@
         <v>29</v>
       </c>
       <c r="AF9" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AG9" t="n">
         <v>201</v>
       </c>
       <c r="AH9" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AI9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AK9" t="n">
         <v>151</v>
       </c>
       <c r="AL9" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AM9" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AN9" t="n">
         <v>3</v>
@@ -2129,7 +2129,7 @@
         <v>23</v>
       </c>
       <c r="AQ9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AR9" t="n">
         <v>51</v>
@@ -2141,10 +2141,10 @@
         <v>2.63</v>
       </c>
       <c r="AU9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV9" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AW9" t="n">
         <v>10</v>
@@ -2203,13 +2203,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H10" t="n">
         <v>3.5</v>
       </c>
       <c r="I10" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J10" t="n">
         <v>2.3</v>
@@ -2245,10 +2245,10 @@
         <v>2.75</v>
       </c>
       <c r="U10" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W10" t="n">
         <v>6.5</v>
@@ -2260,7 +2260,7 @@
         <v>8.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA10" t="n">
         <v>15</v>
@@ -2284,10 +2284,10 @@
         <v>351</v>
       </c>
       <c r="AH10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ10" t="n">
         <v>17</v>
@@ -2326,7 +2326,7 @@
         <v>8.5</v>
       </c>
       <c r="AV10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW10" t="n">
         <v>6.5</v>
@@ -2356,7 +2356,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AL4P3nvB</t>
+          <t>rXLwfB2c</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,74 +2366,74 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>GERMANY - 2. BUNDESLIGA</t>
+          <t>DENMARK - SUPERLIGA</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>FC Koln</t>
+          <t>Silkeborg</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Aalborg</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.62</v>
+        <v>1.9</v>
       </c>
       <c r="H11" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="J11" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="K11" t="n">
-        <v>2.63</v>
+        <v>2.4</v>
       </c>
       <c r="L11" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M11" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="O11" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="P11" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="R11" t="n">
-        <v>2.88</v>
+        <v>2.4</v>
       </c>
       <c r="S11" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="T11" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U11" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V11" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X11" t="n">
         <v>11</v>
@@ -2442,19 +2442,19 @@
         <v>8.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE11" t="n">
         <v>12</v>
@@ -2466,43 +2466,43 @@
         <v>101</v>
       </c>
       <c r="AH11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI11" t="n">
         <v>21</v>
       </c>
-      <c r="AI11" t="n">
+      <c r="AJ11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ11" t="n">
         <v>29</v>
       </c>
-      <c r="AJ11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>21</v>
-      </c>
       <c r="AR11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AS11" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AT11" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AU11" t="n">
         <v>7</v>
@@ -2511,16 +2511,16 @@
         <v>41</v>
       </c>
       <c r="AW11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY11" t="n">
         <v>21</v>
       </c>
-      <c r="AY11" t="n">
-        <v>23</v>
-      </c>
       <c r="AZ11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA11" t="n">
         <v>67</v>
@@ -2529,16 +2529,16 @@
         <v>101</v>
       </c>
       <c r="BC11" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BD11" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2iNWcH7k</t>
+          <t>dGBe134n</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,179 +2548,179 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>GERMANY - 2. BUNDESLIGA</t>
+          <t>DENMARK - 1ST DIVISION</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>B.93</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Regensburg</t>
+          <t>Roskilde</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.73</v>
+        <v>2.3</v>
       </c>
       <c r="H12" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="I12" t="n">
-        <v>4.33</v>
+        <v>2.88</v>
       </c>
       <c r="J12" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N12" t="n">
+        <v>15</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R12" t="n">
         <v>2.3</v>
       </c>
-      <c r="K12" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L12" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N12" t="n">
+      <c r="S12" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W12" t="n">
+        <v>12</v>
+      </c>
+      <c r="X12" t="n">
         <v>13</v>
       </c>
-      <c r="O12" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P12" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R12" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T12" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V12" t="n">
-        <v>2</v>
-      </c>
-      <c r="W12" t="n">
-        <v>8</v>
-      </c>
-      <c r="X12" t="n">
-        <v>9</v>
-      </c>
       <c r="Y12" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC12" t="n">
         <v>15</v>
       </c>
-      <c r="AA12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>13</v>
-      </c>
       <c r="AD12" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE12" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AF12" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG12" t="n">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="AH12" t="n">
         <v>13</v>
       </c>
       <c r="AI12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM12" t="n">
         <v>23</v>
       </c>
-      <c r="AJ12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>34</v>
-      </c>
       <c r="AN12" t="n">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="AO12" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AP12" t="n">
         <v>19</v>
       </c>
       <c r="AQ12" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AR12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS12" t="n">
         <v>101</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="AU12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW12" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="AX12" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AY12" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AZ12" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="BA12" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BB12" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD12" t="n">
         <v>151</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD12" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>dximVNgc</t>
+          <t>I9OTn4kg</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,179 +2730,179 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>MALAYSIA - SUPER LEAGUE</t>
+          <t>DENMARK - 1ST DIVISION</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Penang</t>
+          <t>Hillerod</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Sabah</t>
+          <t>Horsens</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="H13" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="I13" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="J13" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="K13" t="n">
-        <v>2.18</v>
+        <v>2.37</v>
       </c>
       <c r="L13" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="M13" t="n">
         <v>1.03</v>
       </c>
       <c r="N13" t="n">
+        <v>15</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V13" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W13" t="n">
+        <v>13</v>
+      </c>
+      <c r="X13" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX13" t="n">
         <v>10</v>
       </c>
-      <c r="O13" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P13" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R13" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="T13" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V13" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="W13" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="X13" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>35</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>20</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>30</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>150</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AK13" t="n">
+      <c r="AY13" t="n">
         <v>17</v>
       </c>
-      <c r="AL13" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>16</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>75</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>90</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>40</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AZ13" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="BA13" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="BB13" t="n">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="BC13" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD13" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>42feT1O9</t>
+          <t>AqLLlQKt</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,179 +2912,179 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>MALAYSIA - SUPER LEAGUE</t>
+          <t>DENMARK - 1ST DIVISION</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Kedah</t>
+          <t>Koge</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>PDRM FC</t>
+          <t>Kolding IF</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.7</v>
+        <v>5.25</v>
       </c>
       <c r="H14" t="n">
-        <v>3.65</v>
+        <v>4.33</v>
       </c>
       <c r="I14" t="n">
-        <v>4.05</v>
+        <v>1.53</v>
       </c>
       <c r="J14" t="n">
-        <v>2.22</v>
+        <v>5.5</v>
       </c>
       <c r="K14" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L14" t="n">
-        <v>4.25</v>
+        <v>2.05</v>
       </c>
       <c r="M14" t="n">
         <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O14" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="P14" t="n">
-        <v>3.85</v>
+        <v>4.33</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R14" t="n">
-        <v>2.02</v>
+        <v>2.2</v>
       </c>
       <c r="S14" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="T14" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U14" t="n">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="V14" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="W14" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="X14" t="n">
-        <v>7.6</v>
+        <v>29</v>
       </c>
       <c r="Y14" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="Z14" t="n">
-        <v>11.5</v>
+        <v>51</v>
       </c>
       <c r="AA14" t="n">
-        <v>10.5</v>
+        <v>41</v>
       </c>
       <c r="AB14" t="n">
-        <v>17.5</v>
+        <v>41</v>
       </c>
       <c r="AC14" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AD14" t="n">
-        <v>6.4</v>
+        <v>8.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>11.25</v>
+        <v>17</v>
       </c>
       <c r="AF14" t="n">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="AG14" t="n">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="AH14" t="n">
-        <v>11.75</v>
+        <v>8.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="AJ14" t="n">
-        <v>11.25</v>
+        <v>8.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="AL14" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="AM14" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AN14" t="n">
-        <v>3.7</v>
+        <v>7.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>8.25</v>
+        <v>29</v>
       </c>
       <c r="AP14" t="n">
-        <v>15.5</v>
+        <v>29</v>
       </c>
       <c r="AQ14" t="n">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="AR14" t="n">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="AS14" t="n">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="AT14" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="AU14" t="n">
-        <v>6.9</v>
+        <v>8</v>
       </c>
       <c r="AV14" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AW14" t="n">
-        <v>6.1</v>
+        <v>3.75</v>
       </c>
       <c r="AX14" t="n">
-        <v>22</v>
+        <v>7.5</v>
       </c>
       <c r="AY14" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="AZ14" t="n">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="BA14" t="n">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="BB14" t="n">
-        <v>250</v>
+        <v>101</v>
       </c>
       <c r="BC14" t="n">
-        <v>51</v>
+        <v>351</v>
       </c>
       <c r="BD14" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>QHr4RugM</t>
+          <t>AL4P3nvB</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,179 +3094,179 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>MALAYSIA - SUPER LEAGUE</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Kelantan DNFC</t>
+          <t>FC Koln</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Sri Pahang</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4.9</v>
+        <v>1.57</v>
       </c>
       <c r="H15" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="I15" t="n">
-        <v>1.55</v>
+        <v>5</v>
       </c>
       <c r="J15" t="n">
-        <v>4.9</v>
+        <v>2.05</v>
       </c>
       <c r="K15" t="n">
-        <v>2.3</v>
+        <v>2.63</v>
       </c>
       <c r="L15" t="n">
-        <v>2.05</v>
+        <v>4.5</v>
       </c>
       <c r="M15" t="n">
         <v>1.02</v>
       </c>
       <c r="N15" t="n">
-        <v>10.5</v>
+        <v>21</v>
       </c>
       <c r="O15" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="P15" t="n">
-        <v>4.51</v>
+        <v>6.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="R15" t="n">
-        <v>2.07</v>
+        <v>2.88</v>
       </c>
       <c r="S15" t="n">
-        <v>1.32</v>
+        <v>1.22</v>
       </c>
       <c r="T15" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="U15" t="n">
-        <v>1.83</v>
+        <v>1.44</v>
       </c>
       <c r="V15" t="n">
-        <v>1.91</v>
+        <v>2.63</v>
       </c>
       <c r="W15" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="X15" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="Y15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z15" t="n">
         <v>13</v>
       </c>
-      <c r="Z15" t="n">
-        <v>70</v>
-      </c>
       <c r="AA15" t="n">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="AB15" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="AC15" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AD15" t="n">
-        <v>6.8</v>
+        <v>9</v>
       </c>
       <c r="AE15" t="n">
         <v>12</v>
       </c>
       <c r="AF15" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="AG15" t="n">
-        <v>250</v>
+        <v>81</v>
       </c>
       <c r="AH15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU15" t="n">
         <v>7</v>
       </c>
-      <c r="AI15" t="n">
+      <c r="AV15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW15" t="n">
         <v>7</v>
       </c>
-      <c r="AJ15" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>28</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>150</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>175</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>350</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>3.5</v>
-      </c>
       <c r="AX15" t="n">
-        <v>7.3</v>
+        <v>21</v>
       </c>
       <c r="AY15" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AZ15" t="n">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="BA15" t="n">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="BB15" t="n">
-        <v>175</v>
+        <v>101</v>
       </c>
       <c r="BC15" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="BD15" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2oOvgLGE</t>
+          <t>2iNWcH7k</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,41 +3276,41 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Piast Gliwice</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Lechia Gdansk</t>
+          <t>Regensburg</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.48</v>
+        <v>1.7</v>
       </c>
       <c r="H16" t="n">
-        <v>4.33</v>
+        <v>3.9</v>
       </c>
       <c r="I16" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="J16" t="n">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="K16" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L16" t="n">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="M16" t="n">
         <v>1.04</v>
@@ -3319,16 +3319,16 @@
         <v>13</v>
       </c>
       <c r="O16" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P16" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="R16" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S16" t="n">
         <v>1.33</v>
@@ -3337,73 +3337,73 @@
         <v>3.25</v>
       </c>
       <c r="U16" t="n">
-        <v>1.95</v>
+        <v>1.73</v>
       </c>
       <c r="V16" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X16" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="Y16" t="n">
         <v>8.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AA16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ16" t="n">
         <v>26</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>21</v>
       </c>
       <c r="AR16" t="n">
         <v>41</v>
@@ -3415,28 +3415,28 @@
         <v>3.25</v>
       </c>
       <c r="AU16" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV16" t="n">
         <v>51</v>
       </c>
       <c r="AW16" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AX16" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AY16" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ16" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BA16" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BB16" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="BC16" t="n">
         <v>81</v>
@@ -3448,7 +3448,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>pnFeHfN0</t>
+          <t>f1WLctad</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3458,170 +3458,170 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>GERMANY - 3. LIGA</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Chrobry Glogow</t>
+          <t>Ingolstadt</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Kotwica Kolobrzeg</t>
+          <t>Dortmund II</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="H17" t="n">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="I17" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="J17" t="n">
-        <v>2.88</v>
+        <v>2.37</v>
       </c>
       <c r="K17" t="n">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="L17" t="n">
         <v>4</v>
       </c>
       <c r="M17" t="n">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="N17" t="n">
+        <v>19</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W17" t="n">
+        <v>11</v>
+      </c>
+      <c r="X17" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y17" t="n">
         <v>9</v>
       </c>
-      <c r="O17" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W17" t="n">
-        <v>7</v>
-      </c>
-      <c r="X17" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z17" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AA17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB17" t="n">
         <v>19</v>
       </c>
-      <c r="AB17" t="n">
+      <c r="AC17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF17" t="n">
         <v>34</v>
       </c>
-      <c r="AC17" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE17" t="n">
+      <c r="AG17" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH17" t="n">
         <v>17</v>
       </c>
-      <c r="AF17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AI17" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AJ17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK17" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL17" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM17" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AN17" t="n">
         <v>4.33</v>
       </c>
       <c r="AO17" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AP17" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AQ17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR17" t="n">
         <v>41</v>
       </c>
-      <c r="AR17" t="n">
-        <v>67</v>
-      </c>
       <c r="AS17" t="n">
-        <v>201</v>
+        <v>81</v>
       </c>
       <c r="AT17" t="n">
-        <v>2.63</v>
+        <v>3.75</v>
       </c>
       <c r="AU17" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AV17" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX17" t="n">
         <v>19</v>
       </c>
       <c r="AY17" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AZ17" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA17" t="n">
         <v>67</v>
       </c>
-      <c r="BA17" t="n">
-        <v>81</v>
-      </c>
       <c r="BB17" t="n">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="BC17" t="n">
-        <v>81</v>
+        <v>301</v>
       </c>
       <c r="BD17" t="n">
         <v>81</v>
@@ -3630,7 +3630,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>U5ehv3Vb</t>
+          <t>dximVNgc</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3640,179 +3640,179 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>MALAYSIA - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Al Qadisiya</t>
+          <t>Penang</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Damac</t>
+          <t>Sabah</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.52</v>
+        <v>3.15</v>
       </c>
       <c r="H18" t="n">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="I18" t="n">
-        <v>5.25</v>
+        <v>2.05</v>
       </c>
       <c r="J18" t="n">
-        <v>2.05</v>
+        <v>3.55</v>
       </c>
       <c r="K18" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="L18" t="n">
-        <v>5</v>
+        <v>2.57</v>
       </c>
       <c r="M18" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O18" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P18" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="R18" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="S18" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="T18" t="n">
         <v>3.25</v>
       </c>
       <c r="U18" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="V18" t="n">
-        <v>1.91</v>
+        <v>2.21</v>
       </c>
       <c r="W18" t="n">
-        <v>7.5</v>
+        <v>10.5</v>
       </c>
       <c r="X18" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="Y18" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="Z18" t="n">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="AA18" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AB18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC18" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>8</v>
+        <v>5.9</v>
       </c>
       <c r="AE18" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AK18" t="n">
         <v>17</v>
       </c>
-      <c r="AF18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ18" t="n">
+      <c r="AL18" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AO18" t="n">
         <v>17</v>
       </c>
-      <c r="AK18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>8</v>
-      </c>
       <c r="AP18" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AQ18" t="n">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="AR18" t="n">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="AS18" t="n">
-        <v>126</v>
+        <v>200</v>
       </c>
       <c r="AT18" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="AU18" t="n">
-        <v>8.5</v>
+        <v>6.2</v>
       </c>
       <c r="AV18" t="n">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="AW18" t="n">
-        <v>7</v>
+        <v>4.25</v>
       </c>
       <c r="AX18" t="n">
-        <v>29</v>
+        <v>10.5</v>
       </c>
       <c r="AY18" t="n">
-        <v>34</v>
+        <v>15.5</v>
       </c>
       <c r="AZ18" t="n">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="BA18" t="n">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="BB18" t="n">
-        <v>450</v>
+        <v>150</v>
       </c>
       <c r="BC18" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD18" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>WATRNsoI</t>
+          <t>42feT1O9</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3822,179 +3822,179 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>12:05</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>MALAYSIA - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Al Kholood</t>
+          <t>Kedah</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>PDRM FC</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>8.5</v>
+        <v>1.7</v>
       </c>
       <c r="H19" t="n">
-        <v>5</v>
+        <v>3.65</v>
       </c>
       <c r="I19" t="n">
-        <v>1.33</v>
+        <v>4.05</v>
       </c>
       <c r="J19" t="n">
-        <v>6.5</v>
+        <v>2.22</v>
       </c>
       <c r="K19" t="n">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L19" t="n">
-        <v>1.73</v>
+        <v>4.25</v>
       </c>
       <c r="M19" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O19" t="n">
-        <v>1.14</v>
+        <v>1.24</v>
       </c>
       <c r="P19" t="n">
-        <v>5</v>
+        <v>3.85</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="R19" t="n">
-        <v>2.5</v>
+        <v>2.02</v>
       </c>
       <c r="S19" t="n">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="T19" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U19" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="V19" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="W19" t="n">
+        <v>7</v>
+      </c>
+      <c r="X19" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>27</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>27</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AQ19" t="n">
         <v>26</v>
       </c>
-      <c r="X19" t="n">
-        <v>41</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>81</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>9</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>9</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>126</v>
-      </c>
       <c r="AR19" t="n">
-        <v>126</v>
+        <v>50</v>
       </c>
       <c r="AS19" t="n">
-        <v>400</v>
+        <v>175</v>
       </c>
       <c r="AT19" t="n">
-        <v>3.75</v>
+        <v>3.05</v>
       </c>
       <c r="AU19" t="n">
-        <v>8.5</v>
+        <v>6.9</v>
       </c>
       <c r="AV19" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="AW19" t="n">
-        <v>3.5</v>
+        <v>6.1</v>
       </c>
       <c r="AX19" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="AY19" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="AZ19" t="n">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="BA19" t="n">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="BB19" t="n">
-        <v>101</v>
+        <v>250</v>
       </c>
       <c r="BC19" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD19" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>lnKaZbQH</t>
+          <t>QHr4RugM</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4004,167 +4004,167 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>MALAYSIA - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>IMT Novi Beograd</t>
+          <t>Kelantan DNFC</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tekstilac Odzaci</t>
+          <t>Sri Pahang</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.25</v>
+        <v>4.9</v>
       </c>
       <c r="H20" t="n">
-        <v>5.1</v>
+        <v>3.85</v>
       </c>
       <c r="I20" t="n">
-        <v>12</v>
+        <v>1.55</v>
       </c>
       <c r="J20" t="n">
-        <v>1.7</v>
+        <v>4.9</v>
       </c>
       <c r="K20" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="L20" t="n">
-        <v>9</v>
+        <v>2.05</v>
       </c>
       <c r="M20" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N20" t="n">
-        <v>8.25</v>
+        <v>10.5</v>
       </c>
       <c r="O20" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="P20" t="n">
-        <v>3.85</v>
+        <v>4.51</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="R20" t="n">
         <v>2.07</v>
       </c>
       <c r="S20" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="T20" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U20" t="n">
-        <v>2.25</v>
+        <v>1.83</v>
       </c>
       <c r="V20" t="n">
-        <v>1.57</v>
+        <v>1.91</v>
       </c>
       <c r="W20" t="n">
-        <v>6.4</v>
+        <v>13.5</v>
       </c>
       <c r="X20" t="n">
-        <v>5.6</v>
+        <v>26</v>
       </c>
       <c r="Y20" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Z20" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>35</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH20" t="n">
         <v>7</v>
       </c>
-      <c r="AA20" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>35</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>27</v>
-      </c>
-      <c r="AF20" t="n">
+      <c r="AI20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>28</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ20" t="n">
         <v>150</v>
       </c>
-      <c r="AG20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>37</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>450</v>
-      </c>
-      <c r="AL20" t="n">
+      <c r="AR20" t="n">
         <v>175</v>
       </c>
-      <c r="AM20" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>14</v>
-      </c>
-      <c r="AR20" t="n">
+      <c r="AS20" t="n">
+        <v>350</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>22</v>
+      </c>
+      <c r="BA20" t="n">
         <v>45</v>
       </c>
-      <c r="AS20" t="n">
-        <v>300</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>110</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>70</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>65</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>350</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>500</v>
-      </c>
       <c r="BB20" t="n">
-        <v>500</v>
+        <v>175</v>
       </c>
       <c r="BC20" t="n">
         <v>51</v>
@@ -4176,7 +4176,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>zqfQKaBO</t>
+          <t>0ji5D4v2</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4186,167 +4186,167 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Radnicki 1923</t>
+          <t>Maghreb Fez</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Jedinstvo U.</t>
+          <t>Raja Casablanca</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.3</v>
+        <v>5</v>
       </c>
       <c r="H21" t="n">
-        <v>4.9</v>
+        <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>9.25</v>
+        <v>1.73</v>
       </c>
       <c r="J21" t="n">
-        <v>1.75</v>
+        <v>5.5</v>
       </c>
       <c r="K21" t="n">
-        <v>2.45</v>
+        <v>1.92</v>
       </c>
       <c r="L21" t="n">
-        <v>7.8</v>
+        <v>2.5</v>
       </c>
       <c r="M21" t="n">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="N21" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="O21" t="n">
-        <v>1.21</v>
+        <v>1.5</v>
       </c>
       <c r="P21" t="n">
-        <v>3.9</v>
+        <v>2.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="R21" t="n">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="S21" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="T21" t="n">
-        <v>3.05</v>
+        <v>2.25</v>
       </c>
       <c r="U21" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="V21" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="W21" t="n">
-        <v>6.9</v>
+        <v>10</v>
       </c>
       <c r="X21" t="n">
-        <v>6.1</v>
+        <v>23</v>
       </c>
       <c r="Y21" t="n">
-        <v>8.75</v>
+        <v>19</v>
       </c>
       <c r="Z21" t="n">
-        <v>7.8</v>
+        <v>51</v>
       </c>
       <c r="AA21" t="n">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="AB21" t="n">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="AC21" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>9.75</v>
+        <v>6.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF21" t="n">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="AG21" t="n">
-        <v>1000</v>
+        <v>101</v>
       </c>
       <c r="AH21" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="AI21" t="n">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="AJ21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AO21" t="n">
         <v>29</v>
       </c>
-      <c r="AK21" t="n">
-        <v>250</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>5.7</v>
-      </c>
       <c r="AP21" t="n">
-        <v>16.5</v>
+        <v>41</v>
       </c>
       <c r="AQ21" t="n">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="AR21" t="n">
-        <v>45</v>
+        <v>151</v>
       </c>
       <c r="AS21" t="n">
-        <v>250</v>
+        <v>51</v>
       </c>
       <c r="AT21" t="n">
-        <v>3.05</v>
+        <v>2.25</v>
       </c>
       <c r="AU21" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV21" t="n">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AW21" t="n">
-        <v>9.75</v>
+        <v>3.6</v>
       </c>
       <c r="AX21" t="n">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="AY21" t="n">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="AZ21" t="n">
-        <v>450</v>
+        <v>34</v>
       </c>
       <c r="BA21" t="n">
-        <v>400</v>
+        <v>67</v>
       </c>
       <c r="BB21" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="BC21" t="n">
         <v>51</v>
@@ -4358,7 +4358,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Y1UhtUYP</t>
+          <t>CUQsbGnU</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4368,179 +4368,179 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>NORWAY - OBOS-LIGAEN</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Rukh Lviv</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Ch. Odesa</t>
+          <t>Valerenga</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.65</v>
+        <v>2.63</v>
       </c>
       <c r="H22" t="n">
-        <v>3.35</v>
+        <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>5.5</v>
+        <v>2.3</v>
       </c>
       <c r="J22" t="n">
-        <v>2.27</v>
+        <v>3</v>
       </c>
       <c r="K22" t="n">
-        <v>1.98</v>
+        <v>2.6</v>
       </c>
       <c r="L22" t="n">
-        <v>5.8</v>
+        <v>2.75</v>
       </c>
       <c r="M22" t="n">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="N22" t="n">
-        <v>7.33</v>
+        <v>21</v>
       </c>
       <c r="O22" t="n">
-        <v>1.47</v>
+        <v>1.11</v>
       </c>
       <c r="P22" t="n">
-        <v>2.35</v>
+        <v>6.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.32</v>
+        <v>1.4</v>
       </c>
       <c r="R22" t="n">
-        <v>1.47</v>
+        <v>2.88</v>
       </c>
       <c r="S22" t="n">
-        <v>1.5</v>
+        <v>1.22</v>
       </c>
       <c r="T22" t="n">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="U22" t="n">
-        <v>2.27</v>
+        <v>1.36</v>
       </c>
       <c r="V22" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="W22" t="n">
-        <v>4.8</v>
+        <v>17</v>
       </c>
       <c r="X22" t="n">
-        <v>6.2</v>
+        <v>19</v>
       </c>
       <c r="Y22" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z22" t="n">
-        <v>11.5</v>
+        <v>29</v>
       </c>
       <c r="AA22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB22" t="n">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="AC22" t="n">
-        <v>6.7</v>
+        <v>23</v>
       </c>
       <c r="AD22" t="n">
-        <v>6.9</v>
+        <v>8.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="AF22" t="n">
-        <v>175</v>
+        <v>26</v>
       </c>
       <c r="AG22" t="n">
         <v>67</v>
       </c>
       <c r="AH22" t="n">
-        <v>10.75</v>
+        <v>15</v>
       </c>
       <c r="AI22" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="AJ22" t="n">
-        <v>19.5</v>
+        <v>10</v>
       </c>
       <c r="AK22" t="n">
-        <v>120</v>
+        <v>23</v>
       </c>
       <c r="AL22" t="n">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="AM22" t="n">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="AN22" t="n">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="AO22" t="n">
-        <v>8.25</v>
+        <v>13</v>
       </c>
       <c r="AP22" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AQ22" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="AR22" t="n">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="AS22" t="n">
-        <v>450</v>
+        <v>81</v>
       </c>
       <c r="AT22" t="n">
-        <v>2.22</v>
+        <v>4</v>
       </c>
       <c r="AU22" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="AV22" t="n">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="AW22" t="n">
-        <v>6.7</v>
+        <v>5</v>
       </c>
       <c r="AX22" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="AY22" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="AZ22" t="n">
-        <v>250</v>
+        <v>34</v>
       </c>
       <c r="BA22" t="n">
-        <v>350</v>
+        <v>41</v>
       </c>
       <c r="BB22" t="n">
-        <v>700</v>
+        <v>81</v>
       </c>
       <c r="BC22" t="n">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="BD22" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>hnBPz8dm</t>
+          <t>2oOvgLGE</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4550,172 +4550,1992 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Polissya Zhytomyr</t>
+          <t>Piast Gliwice</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Kolos Kovalivka</t>
+          <t>Lechia Gdansk</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="H23" t="n">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="I23" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="J23" t="n">
-        <v>2.52</v>
+        <v>2.1</v>
       </c>
       <c r="K23" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="L23" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="M23" t="n">
-        <v>1.15</v>
+        <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>4.15</v>
+        <v>13</v>
       </c>
       <c r="O23" t="n">
-        <v>1.62</v>
+        <v>1.25</v>
       </c>
       <c r="P23" t="n">
-        <v>2.02</v>
+        <v>3.75</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.77</v>
+        <v>1.75</v>
       </c>
       <c r="R23" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S23" t="n">
         <v>1.33</v>
       </c>
-      <c r="S23" t="n">
-        <v>1.62</v>
-      </c>
       <c r="T23" t="n">
-        <v>2.05</v>
+        <v>3.25</v>
       </c>
       <c r="U23" t="n">
-        <v>2.37</v>
+        <v>1.91</v>
       </c>
       <c r="V23" t="n">
-        <v>1.45</v>
+        <v>1.91</v>
       </c>
       <c r="W23" t="n">
-        <v>4.4</v>
+        <v>7</v>
       </c>
       <c r="X23" t="n">
-        <v>6.9</v>
+        <v>7.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>15.5</v>
+        <v>11</v>
       </c>
       <c r="AA23" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="AB23" t="n">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="AC23" t="n">
-        <v>4.4</v>
+        <v>12</v>
       </c>
       <c r="AD23" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE23" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AF23" t="n">
-        <v>200</v>
+        <v>51</v>
       </c>
       <c r="AG23" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK23" t="n">
         <v>67</v>
       </c>
-      <c r="AH23" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>150</v>
-      </c>
       <c r="AL23" t="n">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="AM23" t="n">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="AN23" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>9.75</v>
+        <v>7.5</v>
       </c>
       <c r="AP23" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AQ23" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="AR23" t="n">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="AS23" t="n">
-        <v>500</v>
+        <v>126</v>
       </c>
       <c r="AT23" t="n">
-        <v>2.02</v>
+        <v>3.25</v>
       </c>
       <c r="AU23" t="n">
         <v>8.5</v>
       </c>
       <c r="AV23" t="n">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="AW23" t="n">
-        <v>6.6</v>
+        <v>7.5</v>
       </c>
       <c r="AX23" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="AY23" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="AZ23" t="n">
-        <v>300</v>
+        <v>101</v>
       </c>
       <c r="BA23" t="n">
-        <v>400</v>
+        <v>126</v>
       </c>
       <c r="BB23" t="n">
-        <v>67</v>
+        <v>251</v>
       </c>
       <c r="BC23" t="n">
         <v>81</v>
       </c>
       <c r="BD23" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>pnFeHfN0</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>25/10/2024</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>POLAND - DIVISION 1</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Chrobry Glogow</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Kotwica Kolobrzeg</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2</v>
+      </c>
+      <c r="L24" t="n">
+        <v>4</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U24" t="n">
+        <v>2</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W24" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X24" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>xK4wDick</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>25/10/2024</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Pacos Ferreira</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Vizela</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L25" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N25" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W25" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X25" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>U5ehv3Vb</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>25/10/2024</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>11:35</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Al Qadisiya</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Damac</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="H26" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I26" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L26" t="n">
+        <v>5</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N26" t="n">
+        <v>9</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T26" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W26" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X26" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>450</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>WATRNsoI</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>25/10/2024</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>12:05</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Al Kholood</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Al Nassr</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="J27" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N27" t="n">
+        <v>11</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="R27" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T27" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W27" t="n">
+        <v>26</v>
+      </c>
+      <c r="X27" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>81</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>126</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>450</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>34</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>lnKaZbQH</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>25/10/2024</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>SERBIA - SUPER LIGA</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>IMT Novi Beograd</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Tekstilac Odzaci</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="H28" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>12</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="L28" t="n">
+        <v>9</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N28" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="T28" t="n">
+        <v>3</v>
+      </c>
+      <c r="U28" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W28" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="X28" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>37</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>450</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>175</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>14</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>45</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>110</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>70</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>65</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>350</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>500</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>500</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>zqfQKaBO</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>25/10/2024</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>SERBIA - SUPER LIGA</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Radnicki 1923</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Jedinstvo U.</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H29" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I29" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="L29" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N29" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R29" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T29" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="U29" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W29" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="X29" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>120</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>250</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>45</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>90</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>55</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>50</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>450</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>400</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>O6TEZfLO</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>25/10/2024</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>TURKEY - SUPER LIG</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Adana Demirspor</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Sivasspor</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L30" t="n">
+        <v>3</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N30" t="n">
+        <v>13</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R30" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T30" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V30" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W30" t="n">
+        <v>11</v>
+      </c>
+      <c r="X30" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>zwTt1TS1</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>25/10/2024</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Karagumruk</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Adanaspor AS</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H31" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I31" t="n">
+        <v>8</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L31" t="n">
+        <v>7</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N31" t="n">
+        <v>13</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R31" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T31" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W31" t="n">
+        <v>7</v>
+      </c>
+      <c r="X31" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>151</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Y1UhtUYP</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>25/10/2024</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>09:30</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Rukh Lviv</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Ch. Odesa</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H32" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I32" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="L32" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N32" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T32" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U32" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W32" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="X32" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>45</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>175</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>67</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>120</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>30</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>90</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>450</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>120</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>35</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>50</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>250</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>350</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>700</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>hnBPz8dm</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>25/10/2024</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Polissya Zhytomyr</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Kolos Kovalivka</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I33" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="J33" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="L33" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N33" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="T33" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U33" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="W33" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="X33" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>55</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>200</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>67</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>150</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>25</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>37</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>100</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>500</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>120</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>40</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>50</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>300</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>450</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD33" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD33"/>
+  <dimension ref="A1:BD35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,10 +765,10 @@
         <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.36</v>
@@ -777,10 +777,10 @@
         <v>3.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R2" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="S2" t="n">
         <v>1.44</v>
@@ -789,10 +789,10 @@
         <v>2.63</v>
       </c>
       <c r="U2" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="V2" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="W2" t="n">
         <v>7</v>
@@ -801,7 +801,7 @@
         <v>10</v>
       </c>
       <c r="Y2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z2" t="n">
         <v>21</v>
@@ -834,7 +834,7 @@
         <v>17</v>
       </c>
       <c r="AJ2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK2" t="n">
         <v>41</v>
@@ -846,7 +846,7 @@
         <v>41</v>
       </c>
       <c r="AN2" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO2" t="n">
         <v>12</v>
@@ -1111,115 +1111,115 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
         <v>3.45</v>
       </c>
       <c r="I4" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="J4" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="K4" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="L4" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="O4" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P4" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="R4" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="S4" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="T4" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="U4" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="V4" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="W4" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="X4" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="Z4" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AA4" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AB4" t="n">
         <v>22</v>
       </c>
       <c r="AC4" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AE4" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AG4" t="n">
         <v>300</v>
       </c>
       <c r="AH4" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AI4" t="n">
         <v>19.5</v>
       </c>
       <c r="AJ4" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AK4" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AL4" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AM4" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="AO4" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AP4" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AQ4" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AR4" t="n">
         <v>60</v>
@@ -1228,31 +1228,31 @@
         <v>200</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="AU4" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AV4" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AW4" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AX4" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AY4" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AZ4" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BA4" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="BB4" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC4" t="n">
         <v>81</v>
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.91</v>
+        <v>2.07</v>
       </c>
       <c r="H5" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="J5" t="n">
-        <v>2.47</v>
+        <v>2.6</v>
       </c>
       <c r="K5" t="n">
         <v>2.25</v>
       </c>
       <c r="L5" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="M5" t="n">
         <v>1.04</v>
@@ -1320,13 +1320,13 @@
         <v>1.22</v>
       </c>
       <c r="P5" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="R5" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="S5" t="n">
         <v>1.34</v>
@@ -1338,31 +1338,31 @@
         <v>1.6</v>
       </c>
       <c r="V5" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="W5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X5" t="n">
-        <v>10.25</v>
+        <v>11.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AA5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AC5" t="n">
         <v>8.25</v>
       </c>
       <c r="AD5" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AE5" t="n">
         <v>12.5</v>
@@ -1374,34 +1374,34 @@
         <v>300</v>
       </c>
       <c r="AH5" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AJ5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK5" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AL5" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AM5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AN5" t="n">
-        <v>4</v>
+        <v>4.15</v>
       </c>
       <c r="AO5" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="AP5" t="n">
         <v>16.5</v>
       </c>
       <c r="AQ5" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AR5" t="n">
         <v>60</v>
@@ -1413,25 +1413,25 @@
         <v>3</v>
       </c>
       <c r="AU5" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AV5" t="n">
         <v>50</v>
       </c>
       <c r="AW5" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="AX5" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AY5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ5" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="BA5" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="BB5" t="n">
         <v>250</v>
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="H6" t="n">
-        <v>4.8</v>
+        <v>4.75</v>
       </c>
       <c r="I6" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="J6" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="K6" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="L6" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="M6" t="n">
         <v>1.04</v>
@@ -1499,7 +1499,7 @@
         <v>8.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P6" t="n">
         <v>3.9</v>
@@ -1517,16 +1517,16 @@
         <v>3.1</v>
       </c>
       <c r="U6" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="V6" t="n">
         <v>1.75</v>
       </c>
       <c r="W6" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X6" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="Y6" t="n">
         <v>8.5</v>
@@ -1538,13 +1538,13 @@
         <v>11.25</v>
       </c>
       <c r="AB6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AC6" t="n">
         <v>8.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AE6" t="n">
         <v>21</v>
@@ -1559,16 +1559,16 @@
         <v>19.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AJ6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK6" t="n">
         <v>175</v>
       </c>
       <c r="AL6" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AM6" t="n">
         <v>75</v>
@@ -1577,13 +1577,13 @@
         <v>3.2</v>
       </c>
       <c r="AO6" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AP6" t="n">
         <v>16</v>
       </c>
       <c r="AQ6" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AR6" t="n">
         <v>45</v>
@@ -1595,19 +1595,19 @@
         <v>3.1</v>
       </c>
       <c r="AU6" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AV6" t="n">
         <v>80</v>
       </c>
       <c r="AW6" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AX6" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AY6" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AZ6" t="n">
         <v>300</v>
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H9" t="n">
         <v>4.33</v>
@@ -2039,22 +2039,22 @@
         <v>9.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O9" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P9" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R9" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S9" t="n">
         <v>1.44</v>
@@ -2203,22 +2203,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.65</v>
+        <v>1.54</v>
       </c>
       <c r="H10" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I10" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="J10" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="K10" t="n">
         <v>2.2</v>
       </c>
       <c r="L10" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M10" t="n">
         <v>1.07</v>
@@ -2227,16 +2227,16 @@
         <v>9</v>
       </c>
       <c r="O10" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P10" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q10" t="n">
         <v>2.05</v>
       </c>
       <c r="R10" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S10" t="n">
         <v>1.4</v>
@@ -2251,16 +2251,16 @@
         <v>1.73</v>
       </c>
       <c r="W10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X10" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y10" t="n">
         <v>8.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA10" t="n">
         <v>15</v>
@@ -2272,13 +2272,13 @@
         <v>9</v>
       </c>
       <c r="AD10" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG10" t="n">
         <v>351</v>
@@ -2287,31 +2287,31 @@
         <v>13</v>
       </c>
       <c r="AI10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL10" t="n">
         <v>41</v>
       </c>
       <c r="AM10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP10" t="n">
         <v>21</v>
       </c>
       <c r="AQ10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR10" t="n">
         <v>51</v>
@@ -2323,25 +2323,25 @@
         <v>2.75</v>
       </c>
       <c r="AU10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV10" t="n">
         <v>67</v>
       </c>
       <c r="AW10" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX10" t="n">
         <v>29</v>
       </c>
       <c r="AY10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ10" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA10" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB10" t="n">
         <v>301</v>
@@ -2385,7 +2385,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="H11" t="n">
         <v>4</v>
@@ -2403,10 +2403,10 @@
         <v>3.75</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O11" t="n">
         <v>1.14</v>
@@ -2415,10 +2415,10 @@
         <v>5.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R11" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S11" t="n">
         <v>1.29</v>
@@ -2567,19 +2567,19 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H12" t="n">
         <v>3.5</v>
       </c>
       <c r="I12" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J12" t="n">
-        <v>2.87</v>
+        <v>2.75</v>
       </c>
       <c r="K12" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="L12" t="n">
         <v>3.25</v>
@@ -2615,7 +2615,7 @@
         <v>2.5</v>
       </c>
       <c r="W12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X12" t="n">
         <v>13</v>
@@ -2624,7 +2624,7 @@
         <v>9.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA12" t="n">
         <v>17</v>
@@ -2699,7 +2699,7 @@
         <v>15</v>
       </c>
       <c r="AY12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ12" t="n">
         <v>41</v>
@@ -2749,22 +2749,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="H13" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="I13" t="n">
-        <v>1.95</v>
+        <v>1.73</v>
       </c>
       <c r="J13" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="K13" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="L13" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="M13" t="n">
         <v>1.03</v>
@@ -2791,79 +2791,79 @@
         <v>3.4</v>
       </c>
       <c r="U13" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V13" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z13" t="n">
         <v>41</v>
       </c>
       <c r="AA13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB13" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC13" t="n">
         <v>15</v>
       </c>
       <c r="AD13" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF13" t="n">
         <v>41</v>
       </c>
       <c r="AG13" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH13" t="n">
         <v>9.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AJ13" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK13" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AL13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM13" t="n">
         <v>21</v>
       </c>
       <c r="AN13" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP13" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ13" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR13" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS13" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT13" t="n">
         <v>3.4</v>
@@ -2875,16 +2875,16 @@
         <v>41</v>
       </c>
       <c r="AW13" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AX13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY13" t="n">
         <v>17</v>
       </c>
       <c r="AZ13" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="BA13" t="n">
         <v>41</v>
@@ -3116,7 +3116,7 @@
         <v>1.57</v>
       </c>
       <c r="H15" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I15" t="n">
         <v>5</v>
@@ -3128,7 +3128,7 @@
         <v>2.63</v>
       </c>
       <c r="L15" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M15" t="n">
         <v>1.02</v>
@@ -3167,7 +3167,7 @@
         <v>11</v>
       </c>
       <c r="Y15" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z15" t="n">
         <v>13</v>
@@ -3215,7 +3215,7 @@
         <v>4</v>
       </c>
       <c r="AO15" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AP15" t="n">
         <v>13</v>
@@ -3242,7 +3242,7 @@
         <v>7</v>
       </c>
       <c r="AX15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY15" t="n">
         <v>23</v>
@@ -3295,22 +3295,22 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H16" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I16" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J16" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="K16" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L16" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M16" t="n">
         <v>1.04</v>
@@ -3376,10 +3376,10 @@
         <v>201</v>
       </c>
       <c r="AH16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI16" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ16" t="n">
         <v>15</v>
@@ -3388,10 +3388,10 @@
         <v>51</v>
       </c>
       <c r="AL16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN16" t="n">
         <v>3.75</v>
@@ -3409,7 +3409,7 @@
         <v>41</v>
       </c>
       <c r="AS16" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT16" t="n">
         <v>3.25</v>
@@ -3424,7 +3424,7 @@
         <v>6.5</v>
       </c>
       <c r="AX16" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY16" t="n">
         <v>29</v>
@@ -3433,10 +3433,10 @@
         <v>81</v>
       </c>
       <c r="BA16" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB16" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC16" t="n">
         <v>81</v>
@@ -3486,7 +3486,7 @@
         <v>3.7</v>
       </c>
       <c r="J17" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="K17" t="n">
         <v>2.5</v>
@@ -3519,16 +3519,16 @@
         <v>3.75</v>
       </c>
       <c r="U17" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V17" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y17" t="n">
         <v>9</v>
@@ -3579,7 +3579,7 @@
         <v>4.33</v>
       </c>
       <c r="AO17" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP17" t="n">
         <v>15</v>
@@ -3615,7 +3615,7 @@
         <v>51</v>
       </c>
       <c r="BA17" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB17" t="n">
         <v>101</v>
@@ -4217,7 +4217,7 @@
         <v>5.5</v>
       </c>
       <c r="K21" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="L21" t="n">
         <v>2.5</v>
@@ -4387,16 +4387,16 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="H22" t="n">
         <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="J22" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K22" t="n">
         <v>2.6</v>
@@ -4405,10 +4405,10 @@
         <v>2.75</v>
       </c>
       <c r="M22" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O22" t="n">
         <v>1.11</v>
@@ -4438,7 +4438,7 @@
         <v>17</v>
       </c>
       <c r="X22" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y22" t="n">
         <v>11</v>
@@ -4450,13 +4450,13 @@
         <v>19</v>
       </c>
       <c r="AB22" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC22" t="n">
         <v>23</v>
       </c>
       <c r="AD22" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE22" t="n">
         <v>11</v>
@@ -4483,7 +4483,7 @@
         <v>15</v>
       </c>
       <c r="AM22" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN22" t="n">
         <v>5.5</v>
@@ -4516,7 +4516,7 @@
         <v>5</v>
       </c>
       <c r="AX22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY22" t="n">
         <v>15</v>
@@ -4528,7 +4528,7 @@
         <v>41</v>
       </c>
       <c r="BB22" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BC22" t="n">
         <v>201</v>
@@ -4569,13 +4569,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="H23" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I23" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J23" t="n">
         <v>2.1</v>
@@ -4584,7 +4584,7 @@
         <v>2.3</v>
       </c>
       <c r="L23" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M23" t="n">
         <v>1.04</v>
@@ -4599,16 +4599,16 @@
         <v>3.75</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="R23" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="S23" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T23" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U23" t="n">
         <v>1.91</v>
@@ -4629,7 +4629,7 @@
         <v>11</v>
       </c>
       <c r="AA23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB23" t="n">
         <v>26</v>
@@ -4659,7 +4659,7 @@
         <v>17</v>
       </c>
       <c r="AK23" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL23" t="n">
         <v>41</v>
@@ -4668,10 +4668,10 @@
         <v>41</v>
       </c>
       <c r="AN23" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO23" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AP23" t="n">
         <v>19</v>
@@ -4686,7 +4686,7 @@
         <v>126</v>
       </c>
       <c r="AT23" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU23" t="n">
         <v>8.5</v>
@@ -4695,7 +4695,7 @@
         <v>51</v>
       </c>
       <c r="AW23" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AX23" t="n">
         <v>29</v>
@@ -4775,19 +4775,19 @@
         <v>8</v>
       </c>
       <c r="O24" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P24" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R24" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S24" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T24" t="n">
         <v>2.5</v>
@@ -4904,7 +4904,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>xK4wDick</t>
+          <t>ER2eHJ1s</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4914,86 +4914,86 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Pacos Ferreira</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Vizela</t>
+          <t>Nacional</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="H25" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="I25" t="n">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="J25" t="n">
-        <v>3.6</v>
+        <v>2.88</v>
       </c>
       <c r="K25" t="n">
         <v>2.05</v>
       </c>
       <c r="L25" t="n">
-        <v>3.2</v>
+        <v>4.33</v>
       </c>
       <c r="M25" t="n">
         <v>1.07</v>
       </c>
       <c r="N25" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O25" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P25" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="R25" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="S25" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="T25" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U25" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="V25" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="W25" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="X25" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="Y25" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AA25" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AB25" t="n">
         <v>34</v>
@@ -5002,91 +5002,91 @@
         <v>8.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF25" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG25" t="n">
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="AH25" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AJ25" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AK25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP25" t="n">
         <v>23</v>
       </c>
-      <c r="AL25" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>26</v>
-      </c>
       <c r="AQ25" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR25" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS25" t="n">
         <v>201</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="AU25" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV25" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW25" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="AX25" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AY25" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ25" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA25" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BB25" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC25" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BD25" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>U5ehv3Vb</t>
+          <t>xK4wDick</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5096,167 +5096,167 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Al Qadisiya</t>
+          <t>Pacos Ferreira</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Damac</t>
+          <t>Vizela</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.52</v>
+        <v>2.88</v>
       </c>
       <c r="H26" t="n">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="I26" t="n">
-        <v>5.25</v>
+        <v>2.35</v>
       </c>
       <c r="J26" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K26" t="n">
         <v>2.05</v>
       </c>
-      <c r="K26" t="n">
-        <v>2.3</v>
-      </c>
       <c r="L26" t="n">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="M26" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N26" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O26" t="n">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="P26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.67</v>
+        <v>2.1</v>
       </c>
       <c r="R26" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="S26" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="T26" t="n">
-        <v>3.25</v>
+        <v>2.62</v>
       </c>
       <c r="U26" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V26" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W26" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="X26" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="Y26" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC26" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z26" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>13</v>
-      </c>
       <c r="AD26" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF26" t="n">
         <v>51</v>
       </c>
       <c r="AG26" t="n">
-        <v>600</v>
+        <v>301</v>
       </c>
       <c r="AH26" t="n">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="AI26" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="AJ26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO26" t="n">
         <v>17</v>
       </c>
-      <c r="AK26" t="n">
+      <c r="AP26" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ26" t="n">
         <v>51</v>
       </c>
-      <c r="AL26" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO26" t="n">
+      <c r="AR26" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU26" t="n">
         <v>8</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR26" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT26" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>8.5</v>
       </c>
       <c r="AV26" t="n">
         <v>51</v>
       </c>
       <c r="AW26" t="n">
-        <v>7</v>
+        <v>4.33</v>
       </c>
       <c r="AX26" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="AY26" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AZ26" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="BA26" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="BB26" t="n">
-        <v>450</v>
+        <v>201</v>
       </c>
       <c r="BC26" t="n">
         <v>81</v>
@@ -5268,7 +5268,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>WATRNsoI</t>
+          <t>U5ehv3Vb</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5278,7 +5278,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>12:05</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -5288,55 +5288,55 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Al Kholood</t>
+          <t>Al Qadisiya</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Damac</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>8.5</v>
+        <v>1.52</v>
       </c>
       <c r="H27" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I27" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L27" t="n">
         <v>5</v>
       </c>
-      <c r="I27" t="n">
+      <c r="M27" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N27" t="n">
+        <v>9</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R27" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S27" t="n">
         <v>1.33</v>
       </c>
-      <c r="J27" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="K27" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L27" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N27" t="n">
-        <v>11</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P27" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="R27" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S27" t="n">
-        <v>1.25</v>
-      </c>
       <c r="T27" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U27" t="n">
         <v>1.8</v>
@@ -5345,76 +5345,76 @@
         <v>1.91</v>
       </c>
       <c r="W27" t="n">
-        <v>26</v>
+        <v>7.5</v>
       </c>
       <c r="X27" t="n">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="Y27" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB27" t="n">
         <v>23</v>
       </c>
-      <c r="Z27" t="n">
-        <v>81</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>51</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>51</v>
-      </c>
       <c r="AC27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE27" t="n">
         <v>17</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>19</v>
       </c>
       <c r="AF27" t="n">
         <v>51</v>
       </c>
       <c r="AG27" t="n">
-        <v>151</v>
+        <v>600</v>
       </c>
       <c r="AH27" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AI27" t="n">
-        <v>7.5</v>
+        <v>29</v>
       </c>
       <c r="AJ27" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AK27" t="n">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="AL27" t="n">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="AM27" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AN27" t="n">
-        <v>9</v>
+        <v>3.6</v>
       </c>
       <c r="AO27" t="n">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="AP27" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="AQ27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS27" t="n">
         <v>126</v>
       </c>
-      <c r="AR27" t="n">
-        <v>126</v>
-      </c>
-      <c r="AS27" t="n">
-        <v>450</v>
-      </c>
       <c r="AT27" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="AU27" t="n">
         <v>8.5</v>
@@ -5423,22 +5423,22 @@
         <v>51</v>
       </c>
       <c r="AW27" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="AX27" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="AY27" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AZ27" t="n">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="BA27" t="n">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="BB27" t="n">
-        <v>101</v>
+        <v>450</v>
       </c>
       <c r="BC27" t="n">
         <v>81</v>
@@ -5450,7 +5450,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>lnKaZbQH</t>
+          <t>WATRNsoI</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5460,179 +5460,179 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>12:05</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>IMT Novi Beograd</t>
+          <t>Al Kholood</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Tekstilac Odzaci</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="G28" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="J28" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N28" t="n">
+        <v>11</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S28" t="n">
         <v>1.25</v>
       </c>
-      <c r="H28" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>12</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="K28" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="L28" t="n">
+      <c r="T28" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W28" t="n">
+        <v>26</v>
+      </c>
+      <c r="X28" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>81</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH28" t="n">
         <v>9</v>
       </c>
-      <c r="M28" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N28" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P28" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R28" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="S28" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="T28" t="n">
-        <v>3</v>
-      </c>
-      <c r="U28" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V28" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W28" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="X28" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="Y28" t="n">
+      <c r="AI28" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AJ28" t="n">
         <v>9</v>
       </c>
-      <c r="Z28" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>35</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>27</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>150</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>37</v>
-      </c>
       <c r="AK28" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>126</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS28" t="n">
         <v>450</v>
       </c>
-      <c r="AL28" t="n">
-        <v>175</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ28" t="n">
-        <v>14</v>
-      </c>
-      <c r="AR28" t="n">
-        <v>45</v>
-      </c>
-      <c r="AS28" t="n">
-        <v>300</v>
-      </c>
       <c r="AT28" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="AU28" t="n">
-        <v>9.75</v>
+        <v>8.5</v>
       </c>
       <c r="AV28" t="n">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="AW28" t="n">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="AX28" t="n">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="AY28" t="n">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="AZ28" t="n">
-        <v>350</v>
+        <v>15</v>
       </c>
       <c r="BA28" t="n">
-        <v>500</v>
+        <v>34</v>
       </c>
       <c r="BB28" t="n">
-        <v>500</v>
+        <v>101</v>
       </c>
       <c r="BC28" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD28" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>zqfQKaBO</t>
+          <t>dhcptP0n</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5642,179 +5642,179 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Radnicki 1923</t>
+          <t>Al Ahli SC</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Jedinstvo U.</t>
+          <t>Al Okhdood</t>
         </is>
       </c>
       <c r="G29" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H29" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I29" t="n">
+        <v>7</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L29" t="n">
+        <v>6</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N29" t="n">
+        <v>10</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R29" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S29" t="n">
         <v>1.3</v>
       </c>
-      <c r="H29" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="I29" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="K29" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="L29" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N29" t="n">
+      <c r="T29" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W29" t="n">
+        <v>8</v>
+      </c>
+      <c r="X29" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y29" t="n">
         <v>8.5</v>
       </c>
-      <c r="O29" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P29" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R29" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T29" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="U29" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W29" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="X29" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>8.75</v>
-      </c>
       <c r="Z29" t="n">
-        <v>7.8</v>
+        <v>10</v>
       </c>
       <c r="AA29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB29" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AC29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD29" t="n">
         <v>8.5</v>
       </c>
-      <c r="AD29" t="n">
-        <v>9.75</v>
-      </c>
       <c r="AE29" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AF29" t="n">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="AG29" t="n">
-        <v>1000</v>
+        <v>151</v>
       </c>
       <c r="AH29" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI29" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="AJ29" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AK29" t="n">
-        <v>250</v>
+        <v>81</v>
       </c>
       <c r="AL29" t="n">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="AM29" t="n">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="AN29" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="AO29" t="n">
-        <v>5.7</v>
+        <v>7</v>
       </c>
       <c r="AP29" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AQ29" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AR29" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AS29" t="n">
-        <v>250</v>
+        <v>101</v>
       </c>
       <c r="AT29" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="AU29" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV29" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="AW29" t="n">
-        <v>9.75</v>
+        <v>8</v>
       </c>
       <c r="AX29" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="AY29" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="AZ29" t="n">
-        <v>450</v>
+        <v>101</v>
       </c>
       <c r="BA29" t="n">
-        <v>400</v>
+        <v>126</v>
       </c>
       <c r="BB29" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="BC29" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD29" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>O6TEZfLO</t>
+          <t>lnKaZbQH</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -5824,179 +5824,179 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>IMT Novi Beograd</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Tekstilac Odzaci</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.75</v>
+        <v>1.25</v>
       </c>
       <c r="H30" t="n">
-        <v>3.4</v>
+        <v>5.1</v>
       </c>
       <c r="I30" t="n">
+        <v>12</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="K30" t="n">
         <v>2.45</v>
       </c>
-      <c r="J30" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K30" t="n">
-        <v>2.25</v>
-      </c>
       <c r="L30" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M30" t="n">
         <v>1.04</v>
       </c>
       <c r="N30" t="n">
-        <v>13</v>
+        <v>8.25</v>
       </c>
       <c r="O30" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P30" t="n">
-        <v>4.33</v>
+        <v>3.85</v>
       </c>
       <c r="Q30" t="n">
         <v>1.7</v>
       </c>
       <c r="R30" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="S30" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="T30" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U30" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V30" t="n">
         <v>1.57</v>
       </c>
-      <c r="V30" t="n">
-        <v>2.25</v>
-      </c>
       <c r="W30" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="X30" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>37</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>450</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>175</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>14</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>45</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>110</v>
+      </c>
+      <c r="AW30" t="n">
         <v>11</v>
       </c>
-      <c r="X30" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP30" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ30" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR30" t="n">
+      <c r="AX30" t="n">
+        <v>70</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>65</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>350</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>500</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>500</v>
+      </c>
+      <c r="BC30" t="n">
         <v>51</v>
       </c>
-      <c r="AS30" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT30" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU30" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV30" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW30" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX30" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY30" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ30" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA30" t="n">
+      <c r="BD30" t="n">
         <v>51</v>
-      </c>
-      <c r="BB30" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC30" t="n">
-        <v>251</v>
-      </c>
-      <c r="BD30" t="n">
-        <v>301</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>zwTt1TS1</t>
+          <t>zqfQKaBO</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -6006,179 +6006,179 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Karagumruk</t>
+          <t>Radnicki 1923</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Adanaspor AS</t>
+          <t>Jedinstvo U.</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="H31" t="n">
-        <v>4.33</v>
+        <v>4.8</v>
       </c>
       <c r="I31" t="n">
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="J31" t="n">
-        <v>1.91</v>
+        <v>1.78</v>
       </c>
       <c r="K31" t="n">
         <v>2.4</v>
       </c>
       <c r="L31" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M31" t="n">
         <v>1.04</v>
       </c>
       <c r="N31" t="n">
-        <v>13</v>
+        <v>8.25</v>
       </c>
       <c r="O31" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P31" t="n">
-        <v>4.33</v>
+        <v>3.8</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R31" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="S31" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="T31" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U31" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="V31" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="W31" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="X31" t="n">
-        <v>7</v>
+        <v>6.1</v>
       </c>
       <c r="Y31" t="n">
         <v>8.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AA31" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AB31" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AC31" t="n">
-        <v>12</v>
+        <v>8.25</v>
       </c>
       <c r="AD31" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AF31" t="n">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="AG31" t="n">
-        <v>301</v>
+        <v>1000</v>
       </c>
       <c r="AH31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI31" t="n">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="AJ31" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AK31" t="n">
-        <v>81</v>
+        <v>250</v>
       </c>
       <c r="AL31" t="n">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="AM31" t="n">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="AN31" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="AO31" t="n">
-        <v>6.5</v>
+        <v>5.9</v>
       </c>
       <c r="AP31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ31" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AR31" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AS31" t="n">
-        <v>126</v>
+        <v>250</v>
       </c>
       <c r="AT31" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU31" t="n">
         <v>9</v>
       </c>
       <c r="AV31" t="n">
+        <v>90</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>50</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>50</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>400</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>400</v>
+      </c>
+      <c r="BB31" t="n">
         <v>51</v>
       </c>
-      <c r="AW31" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AX31" t="n">
-        <v>41</v>
-      </c>
-      <c r="AY31" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ31" t="n">
-        <v>151</v>
-      </c>
-      <c r="BA31" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB31" t="n">
-        <v>301</v>
-      </c>
       <c r="BC31" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD31" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Y1UhtUYP</t>
+          <t>O6TEZfLO</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -6188,354 +6188,718 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Rukh Lviv</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Ch. Odesa</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.65</v>
+        <v>3</v>
       </c>
       <c r="H32" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I32" t="n">
-        <v>5.5</v>
+        <v>2.25</v>
       </c>
       <c r="J32" t="n">
-        <v>2.27</v>
+        <v>3.4</v>
       </c>
       <c r="K32" t="n">
-        <v>1.98</v>
+        <v>2.25</v>
       </c>
       <c r="L32" t="n">
-        <v>5.8</v>
+        <v>2.88</v>
       </c>
       <c r="M32" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N32" t="n">
-        <v>7.33</v>
+        <v>13</v>
       </c>
       <c r="O32" t="n">
-        <v>1.47</v>
+        <v>1.2</v>
       </c>
       <c r="P32" t="n">
-        <v>2.35</v>
+        <v>4.33</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.32</v>
+        <v>1.67</v>
       </c>
       <c r="R32" t="n">
-        <v>1.47</v>
+        <v>2.1</v>
       </c>
       <c r="S32" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="T32" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V32" t="n">
         <v>2.25</v>
       </c>
-      <c r="U32" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="V32" t="n">
-        <v>1.5</v>
-      </c>
       <c r="W32" t="n">
-        <v>4.8</v>
+        <v>12</v>
       </c>
       <c r="X32" t="n">
-        <v>6.2</v>
+        <v>17</v>
       </c>
       <c r="Y32" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z32" t="n">
-        <v>11.5</v>
+        <v>29</v>
       </c>
       <c r="AA32" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL32" t="n">
         <v>17</v>
       </c>
-      <c r="AB32" t="n">
-        <v>45</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>175</v>
-      </c>
-      <c r="AG32" t="n">
+      <c r="AM32" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR32" t="n">
         <v>67</v>
       </c>
-      <c r="AH32" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>120</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>80</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AP32" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ32" t="n">
-        <v>30</v>
-      </c>
-      <c r="AR32" t="n">
-        <v>90</v>
-      </c>
       <c r="AS32" t="n">
-        <v>450</v>
+        <v>126</v>
       </c>
       <c r="AT32" t="n">
-        <v>2.22</v>
+        <v>3.25</v>
       </c>
       <c r="AU32" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AV32" t="n">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="AW32" t="n">
-        <v>6.7</v>
+        <v>4.5</v>
       </c>
       <c r="AX32" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="AY32" t="n">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="AZ32" t="n">
-        <v>250</v>
+        <v>41</v>
       </c>
       <c r="BA32" t="n">
-        <v>350</v>
+        <v>51</v>
       </c>
       <c r="BB32" t="n">
-        <v>700</v>
+        <v>126</v>
       </c>
       <c r="BC32" t="n">
-        <v>81</v>
+        <v>251</v>
       </c>
       <c r="BD32" t="n">
-        <v>81</v>
+        <v>301</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>zwTt1TS1</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>25/10/2024</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Karagumruk</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Adanaspor AS</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="H33" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I33" t="n">
+        <v>9</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K33" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L33" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N33" t="n">
+        <v>13</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R33" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="T33" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W33" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X33" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>151</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Y1UhtUYP</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>25/10/2024</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>09:30</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Rukh Lviv</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Ch. Odesa</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H34" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I34" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J34" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="L34" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N34" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T34" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U34" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W34" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="X34" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>45</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>175</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>67</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>120</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>30</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>90</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>450</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>120</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>35</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>50</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>250</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>350</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>700</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
           <t>hnBPz8dm</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t>25/10/2024</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>12:00</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>UKRAINE - PREMIER LEAGUE</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>Polissya Zhytomyr</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>Kolos Kovalivka</t>
         </is>
       </c>
-      <c r="G33" t="n">
+      <c r="G35" t="n">
         <v>1.82</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H35" t="n">
         <v>2.8</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I35" t="n">
         <v>5.6</v>
       </c>
-      <c r="J33" t="n">
+      <c r="J35" t="n">
         <v>2.47</v>
       </c>
-      <c r="K33" t="n">
+      <c r="K35" t="n">
         <v>1.82</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L35" t="n">
         <v>6.1</v>
       </c>
-      <c r="M33" t="n">
+      <c r="M35" t="n">
         <v>1.15</v>
       </c>
-      <c r="N33" t="n">
+      <c r="N35" t="n">
         <v>4.2</v>
       </c>
-      <c r="O33" t="n">
+      <c r="O35" t="n">
         <v>1.62</v>
       </c>
-      <c r="P33" t="n">
+      <c r="P35" t="n">
         <v>2.05</v>
       </c>
-      <c r="Q33" t="n">
+      <c r="Q35" t="n">
         <v>2.75</v>
       </c>
-      <c r="R33" t="n">
+      <c r="R35" t="n">
         <v>1.34</v>
       </c>
-      <c r="S33" t="n">
+      <c r="S35" t="n">
         <v>1.6</v>
       </c>
-      <c r="T33" t="n">
+      <c r="T35" t="n">
         <v>2.05</v>
       </c>
-      <c r="U33" t="n">
+      <c r="U35" t="n">
         <v>2.37</v>
       </c>
-      <c r="V33" t="n">
+      <c r="V35" t="n">
         <v>1.45</v>
       </c>
-      <c r="W33" t="n">
+      <c r="W35" t="n">
         <v>4.4</v>
       </c>
-      <c r="X33" t="n">
+      <c r="X35" t="n">
         <v>6.8</v>
       </c>
-      <c r="Y33" t="n">
+      <c r="Y35" t="n">
         <v>9.5</v>
       </c>
-      <c r="Z33" t="n">
+      <c r="Z35" t="n">
         <v>15</v>
       </c>
-      <c r="AA33" t="n">
+      <c r="AA35" t="n">
         <v>21</v>
       </c>
-      <c r="AB33" t="n">
+      <c r="AB35" t="n">
         <v>55</v>
       </c>
-      <c r="AC33" t="n">
+      <c r="AC35" t="n">
         <v>4.45</v>
       </c>
-      <c r="AD33" t="n">
+      <c r="AD35" t="n">
         <v>6.1</v>
       </c>
-      <c r="AE33" t="n">
+      <c r="AE35" t="n">
         <v>25</v>
       </c>
-      <c r="AF33" t="n">
+      <c r="AF35" t="n">
         <v>200</v>
       </c>
-      <c r="AG33" t="n">
+      <c r="AG35" t="n">
         <v>67</v>
       </c>
-      <c r="AH33" t="n">
+      <c r="AH35" t="n">
         <v>9.5</v>
       </c>
-      <c r="AI33" t="n">
+      <c r="AI35" t="n">
         <v>32</v>
       </c>
-      <c r="AJ33" t="n">
+      <c r="AJ35" t="n">
         <v>21</v>
       </c>
-      <c r="AK33" t="n">
+      <c r="AK35" t="n">
         <v>150</v>
       </c>
-      <c r="AL33" t="n">
+      <c r="AL35" t="n">
         <v>100</v>
       </c>
-      <c r="AM33" t="n">
+      <c r="AM35" t="n">
         <v>120</v>
       </c>
-      <c r="AN33" t="n">
+      <c r="AN35" t="n">
         <v>3.3</v>
       </c>
-      <c r="AO33" t="n">
+      <c r="AO35" t="n">
         <v>9.5</v>
       </c>
-      <c r="AP33" t="n">
+      <c r="AP35" t="n">
         <v>25</v>
       </c>
-      <c r="AQ33" t="n">
+      <c r="AQ35" t="n">
         <v>37</v>
       </c>
-      <c r="AR33" t="n">
+      <c r="AR35" t="n">
         <v>100</v>
       </c>
-      <c r="AS33" t="n">
+      <c r="AS35" t="n">
         <v>500</v>
       </c>
-      <c r="AT33" t="n">
+      <c r="AT35" t="n">
         <v>2.02</v>
       </c>
-      <c r="AU33" t="n">
+      <c r="AU35" t="n">
         <v>8.75</v>
       </c>
-      <c r="AV33" t="n">
+      <c r="AV35" t="n">
         <v>120</v>
       </c>
-      <c r="AW33" t="n">
+      <c r="AW35" t="n">
         <v>6.8</v>
       </c>
-      <c r="AX33" t="n">
+      <c r="AX35" t="n">
         <v>40</v>
       </c>
-      <c r="AY33" t="n">
+      <c r="AY35" t="n">
         <v>50</v>
       </c>
-      <c r="AZ33" t="n">
+      <c r="AZ35" t="n">
         <v>300</v>
       </c>
-      <c r="BA33" t="n">
+      <c r="BA35" t="n">
         <v>450</v>
       </c>
-      <c r="BB33" t="n">
+      <c r="BB35" t="n">
         <v>67</v>
       </c>
-      <c r="BC33" t="n">
+      <c r="BC35" t="n">
         <v>81</v>
       </c>
-      <c r="BD33" t="n">
+      <c r="BD35" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD73"/>
+  <dimension ref="A1:BD74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -777,10 +777,10 @@
         <v>3.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="R2" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="S2" t="n">
         <v>1.4</v>
@@ -929,97 +929,97 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.42</v>
+        <v>1.53</v>
       </c>
       <c r="H3" t="n">
-        <v>4.33</v>
+        <v>3.9</v>
       </c>
       <c r="I3" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="J3" t="n">
-        <v>1.87</v>
+        <v>2.05</v>
       </c>
       <c r="K3" t="n">
-        <v>2.37</v>
+        <v>2.3</v>
       </c>
       <c r="L3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O3" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P3" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.84</v>
+        <v>1.92</v>
       </c>
       <c r="R3" t="n">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
       <c r="S3" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="T3" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U3" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="V3" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="W3" t="n">
         <v>6.5</v>
       </c>
       <c r="X3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y3" t="n">
         <v>8.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB3" t="n">
         <v>29</v>
       </c>
       <c r="AC3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE3" t="n">
         <v>19</v>
       </c>
       <c r="AF3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG3" t="n">
         <v>351</v>
       </c>
       <c r="AH3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK3" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="AL3" t="n">
         <v>51</v>
@@ -1028,16 +1028,16 @@
         <v>51</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AO3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AP3" t="n">
         <v>19</v>
       </c>
       <c r="AQ3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR3" t="n">
         <v>41</v>
@@ -1046,34 +1046,34 @@
         <v>151</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU3" t="n">
         <v>9</v>
       </c>
       <c r="AV3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW3" t="n">
         <v>151</v>
       </c>
       <c r="AX3" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AY3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ3" t="n">
         <v>41</v>
       </c>
       <c r="BA3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB3" t="n">
         <v>151</v>
       </c>
       <c r="BC3" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD3" t="n">
         <v>151</v>
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="H4" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="J4" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K4" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L4" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M4" t="n">
         <v>1.03</v>
@@ -1147,7 +1147,7 @@
         <v>2.38</v>
       </c>
       <c r="S4" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T4" t="n">
         <v>3.5</v>
@@ -1159,19 +1159,19 @@
         <v>2.5</v>
       </c>
       <c r="W4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X4" t="n">
         <v>13</v>
       </c>
       <c r="Y4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB4" t="n">
         <v>21</v>
@@ -1183,7 +1183,7 @@
         <v>7.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF4" t="n">
         <v>34</v>
@@ -1192,16 +1192,16 @@
         <v>101</v>
       </c>
       <c r="AH4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ4" t="n">
         <v>11</v>
       </c>
       <c r="AK4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL4" t="n">
         <v>21</v>
@@ -1210,19 +1210,19 @@
         <v>23</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP4" t="n">
         <v>17</v>
       </c>
       <c r="AQ4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS4" t="n">
         <v>101</v>
@@ -1237,19 +1237,19 @@
         <v>41</v>
       </c>
       <c r="AW4" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AX4" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AY4" t="n">
         <v>15</v>
       </c>
       <c r="AZ4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BA4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB4" t="n">
         <v>51</v>
@@ -1475,16 +1475,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H6" t="n">
         <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J6" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K6" t="n">
         <v>2.05</v>
@@ -1499,10 +1499,10 @@
         <v>8</v>
       </c>
       <c r="O6" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P6" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q6" t="n">
         <v>2.2</v>
@@ -1517,10 +1517,10 @@
         <v>2.5</v>
       </c>
       <c r="U6" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="V6" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="W6" t="n">
         <v>8</v>
@@ -1529,7 +1529,7 @@
         <v>12</v>
       </c>
       <c r="Y6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z6" t="n">
         <v>26</v>
@@ -1595,7 +1595,7 @@
         <v>2.5</v>
       </c>
       <c r="AU6" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV6" t="n">
         <v>51</v>
@@ -1610,7 +1610,7 @@
         <v>17</v>
       </c>
       <c r="AZ6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA6" t="n">
         <v>51</v>
@@ -1681,16 +1681,16 @@
         <v>10</v>
       </c>
       <c r="O7" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P7" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R7" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S7" t="n">
         <v>1.4</v>
@@ -1839,7 +1839,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H8" t="n">
         <v>3.2</v>
@@ -1851,10 +1851,10 @@
         <v>3.6</v>
       </c>
       <c r="K8" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L8" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M8" t="n">
         <v>1.08</v>
@@ -1869,25 +1869,25 @@
         <v>3</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="R8" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S8" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T8" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U8" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V8" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W8" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X8" t="n">
         <v>13</v>
@@ -1902,10 +1902,10 @@
         <v>26</v>
       </c>
       <c r="AB8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC8" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD8" t="n">
         <v>6</v>
@@ -1917,7 +1917,7 @@
         <v>51</v>
       </c>
       <c r="AG8" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH8" t="n">
         <v>7.5</v>
@@ -1944,7 +1944,7 @@
         <v>17</v>
       </c>
       <c r="AP8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ8" t="n">
         <v>51</v>
@@ -1953,22 +1953,22 @@
         <v>81</v>
       </c>
       <c r="AS8" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU8" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW8" t="n">
         <v>126</v>
       </c>
       <c r="AX8" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AY8" t="n">
         <v>15</v>
@@ -1980,7 +1980,7 @@
         <v>51</v>
       </c>
       <c r="BB8" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BC8" t="n">
         <v>201</v>
@@ -2021,13 +2021,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="H9" t="n">
         <v>3.2</v>
       </c>
       <c r="I9" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="J9" t="n">
         <v>5.5</v>
@@ -2069,7 +2069,7 @@
         <v>1.57</v>
       </c>
       <c r="W9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X9" t="n">
         <v>21</v>
@@ -2111,7 +2111,7 @@
         <v>9.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL9" t="n">
         <v>21</v>
@@ -2150,7 +2150,7 @@
         <v>126</v>
       </c>
       <c r="AX9" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AY9" t="n">
         <v>11</v>
@@ -2973,13 +2973,13 @@
         <v>3.25</v>
       </c>
       <c r="U14" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="V14" t="n">
         <v>2.05</v>
       </c>
       <c r="W14" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X14" t="n">
         <v>9</v>
@@ -3003,7 +3003,7 @@
         <v>7.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF14" t="n">
         <v>41</v>
@@ -3066,10 +3066,10 @@
         <v>23</v>
       </c>
       <c r="AZ14" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA14" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB14" t="n">
         <v>81</v>
@@ -5115,22 +5115,22 @@
         </is>
       </c>
       <c r="G26" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H26" t="n">
         <v>3.5</v>
       </c>
-      <c r="H26" t="n">
-        <v>3.4</v>
-      </c>
       <c r="I26" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="J26" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K26" t="n">
         <v>2.2</v>
       </c>
       <c r="L26" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M26" t="n">
         <v>1.06</v>
@@ -5157,19 +5157,19 @@
         <v>2.75</v>
       </c>
       <c r="U26" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V26" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W26" t="n">
         <v>11</v>
       </c>
       <c r="X26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z26" t="n">
         <v>41</v>
@@ -5193,19 +5193,19 @@
         <v>51</v>
       </c>
       <c r="AG26" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH26" t="n">
         <v>7.5</v>
       </c>
       <c r="AI26" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AJ26" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK26" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL26" t="n">
         <v>17</v>
@@ -5217,10 +5217,10 @@
         <v>5.5</v>
       </c>
       <c r="AO26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP26" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ26" t="n">
         <v>67</v>
@@ -5253,7 +5253,7 @@
         <v>21</v>
       </c>
       <c r="BA26" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BB26" t="n">
         <v>51</v>
@@ -6935,19 +6935,19 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="H36" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I36" t="n">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="J36" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K36" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L36" t="n">
         <v>6</v>
@@ -6965,10 +6965,10 @@
         <v>3.4</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R36" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S36" t="n">
         <v>1.4</v>
@@ -6980,10 +6980,10 @@
         <v>2</v>
       </c>
       <c r="V36" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="W36" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X36" t="n">
         <v>7</v>
@@ -7001,7 +7001,7 @@
         <v>29</v>
       </c>
       <c r="AC36" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD36" t="n">
         <v>7.5</v>
@@ -7016,7 +7016,7 @@
         <v>401</v>
       </c>
       <c r="AH36" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI36" t="n">
         <v>29</v>
@@ -7028,13 +7028,13 @@
         <v>67</v>
       </c>
       <c r="AL36" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM36" t="n">
         <v>51</v>
       </c>
       <c r="AN36" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO36" t="n">
         <v>8</v>
@@ -7043,7 +7043,7 @@
         <v>21</v>
       </c>
       <c r="AQ36" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR36" t="n">
         <v>51</v>
@@ -7064,7 +7064,7 @@
         <v>81</v>
       </c>
       <c r="AX36" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AY36" t="n">
         <v>34</v>
@@ -7117,13 +7117,13 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="H37" t="n">
         <v>4.5</v>
       </c>
       <c r="I37" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J37" t="n">
         <v>2.05</v>
@@ -7135,22 +7135,22 @@
         <v>7.5</v>
       </c>
       <c r="M37" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N37" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O37" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P37" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R37" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S37" t="n">
         <v>1.44</v>
@@ -7159,10 +7159,10 @@
         <v>2.63</v>
       </c>
       <c r="U37" t="n">
-        <v>2.25</v>
+        <v>2.37</v>
       </c>
       <c r="V37" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="W37" t="n">
         <v>5.5</v>
@@ -7174,7 +7174,7 @@
         <v>9</v>
       </c>
       <c r="Z37" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA37" t="n">
         <v>15</v>
@@ -7198,7 +7198,7 @@
         <v>501</v>
       </c>
       <c r="AH37" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI37" t="n">
         <v>34</v>
@@ -7222,7 +7222,7 @@
         <v>7.5</v>
       </c>
       <c r="AP37" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ37" t="n">
         <v>23</v>
@@ -7299,13 +7299,13 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H38" t="n">
         <v>3.1</v>
       </c>
       <c r="I38" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J38" t="n">
         <v>3.1</v>
@@ -7317,10 +7317,10 @@
         <v>3.6</v>
       </c>
       <c r="M38" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N38" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O38" t="n">
         <v>1.33</v>
@@ -7329,10 +7329,10 @@
         <v>3.25</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R38" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S38" t="n">
         <v>1.44</v>
@@ -7341,10 +7341,10 @@
         <v>2.63</v>
       </c>
       <c r="U38" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="V38" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="W38" t="n">
         <v>8</v>
@@ -7380,19 +7380,19 @@
         <v>251</v>
       </c>
       <c r="AH38" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI38" t="n">
         <v>15</v>
       </c>
       <c r="AJ38" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK38" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL38" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM38" t="n">
         <v>34</v>
@@ -7428,7 +7428,7 @@
         <v>81</v>
       </c>
       <c r="AX38" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AY38" t="n">
         <v>17</v>
@@ -7523,7 +7523,7 @@
         <v>3</v>
       </c>
       <c r="U39" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="V39" t="n">
         <v>2.05</v>
@@ -8573,16 +8573,16 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="H45" t="n">
         <v>3.1</v>
       </c>
       <c r="I45" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J45" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K45" t="n">
         <v>2</v>
@@ -8591,10 +8591,10 @@
         <v>7</v>
       </c>
       <c r="M45" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N45" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O45" t="n">
         <v>1.5</v>
@@ -8603,10 +8603,10 @@
         <v>2.5</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R45" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S45" t="n">
         <v>1.57</v>
@@ -8615,10 +8615,10 @@
         <v>2.25</v>
       </c>
       <c r="U45" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V45" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W45" t="n">
         <v>4.75</v>
@@ -8645,7 +8645,7 @@
         <v>7</v>
       </c>
       <c r="AE45" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF45" t="n">
         <v>101</v>
@@ -8657,7 +8657,7 @@
         <v>12</v>
       </c>
       <c r="AI45" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ45" t="n">
         <v>23</v>
@@ -8666,22 +8666,22 @@
         <v>81</v>
       </c>
       <c r="AL45" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM45" t="n">
         <v>67</v>
       </c>
-      <c r="AM45" t="n">
-        <v>81</v>
-      </c>
       <c r="AN45" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AO45" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP45" t="n">
         <v>26</v>
       </c>
       <c r="AQ45" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR45" t="n">
         <v>67</v>
@@ -8696,7 +8696,7 @@
         <v>11</v>
       </c>
       <c r="AV45" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AW45" t="n">
         <v>51</v>
@@ -8708,10 +8708,10 @@
         <v>41</v>
       </c>
       <c r="AZ45" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA45" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BB45" t="n">
         <v>251</v>
@@ -10182,7 +10182,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2oOvgLGE</t>
+          <t>S0Lx5had</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -10192,158 +10192,158 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Piast Gliwice</t>
+          <t>Nacional Asuncion</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Lechia Gdansk</t>
+          <t>General Caballero JLM</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="H54" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I54" t="n">
         <v>4.1</v>
       </c>
-      <c r="I54" t="n">
-        <v>5.25</v>
-      </c>
       <c r="J54" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K54" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L54" t="n">
+        <v>5</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N54" t="n">
+        <v>9</v>
+      </c>
+      <c r="O54" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P54" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R54" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S54" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T54" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U54" t="n">
         <v>2.1</v>
       </c>
-      <c r="K54" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L54" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M54" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N54" t="n">
-        <v>13</v>
-      </c>
-      <c r="O54" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P54" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R54" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="S54" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T54" t="n">
-        <v>3</v>
-      </c>
-      <c r="U54" t="n">
-        <v>1.91</v>
-      </c>
       <c r="V54" t="n">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="W54" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X54" t="n">
         <v>7.5</v>
       </c>
       <c r="Y54" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z54" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AA54" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AB54" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT54" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU54" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV54" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW54" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX54" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY54" t="n">
         <v>26</v>
-      </c>
-      <c r="AC54" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD54" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE54" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF54" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG54" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH54" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI54" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ54" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK54" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL54" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM54" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN54" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO54" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP54" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ54" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR54" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS54" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT54" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU54" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV54" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW54" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX54" t="n">
-        <v>7</v>
-      </c>
-      <c r="AY54" t="n">
-        <v>29</v>
       </c>
       <c r="AZ54" t="n">
         <v>34</v>
@@ -10355,16 +10355,16 @@
         <v>126</v>
       </c>
       <c r="BC54" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BD54" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ABRniaoR</t>
+          <t>2oOvgLGE</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -10374,7 +10374,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -10384,55 +10384,55 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Pogon Szczecin</t>
+          <t>Piast Gliwice</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Puszcza</t>
+          <t>Lechia Gdansk</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.38</v>
+        <v>1.57</v>
       </c>
       <c r="H55" t="n">
-        <v>4.75</v>
+        <v>4.1</v>
       </c>
       <c r="I55" t="n">
-        <v>7.5</v>
+        <v>5.25</v>
       </c>
       <c r="J55" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K55" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L55" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N55" t="n">
+        <v>13</v>
+      </c>
+      <c r="O55" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P55" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q55" t="n">
         <v>1.83</v>
       </c>
-      <c r="K55" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L55" t="n">
-        <v>7</v>
-      </c>
-      <c r="M55" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N55" t="n">
-        <v>15</v>
-      </c>
-      <c r="O55" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P55" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>1.62</v>
-      </c>
       <c r="R55" t="n">
-        <v>2.25</v>
+        <v>2.03</v>
       </c>
       <c r="S55" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="T55" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="U55" t="n">
         <v>1.91</v>
@@ -10441,76 +10441,76 @@
         <v>1.91</v>
       </c>
       <c r="W55" t="n">
+        <v>7</v>
+      </c>
+      <c r="X55" t="n">
         <v>7.5</v>
-      </c>
-      <c r="X55" t="n">
-        <v>7</v>
       </c>
       <c r="Y55" t="n">
         <v>8.5</v>
       </c>
       <c r="Z55" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AA55" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AB55" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ55" t="n">
         <v>23</v>
       </c>
-      <c r="AC55" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD55" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE55" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF55" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG55" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH55" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI55" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ55" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK55" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL55" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM55" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN55" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO55" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP55" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ55" t="n">
-        <v>19</v>
-      </c>
       <c r="AR55" t="n">
         <v>41</v>
       </c>
       <c r="AS55" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT55" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="AU55" t="n">
         <v>8.5</v>
@@ -10519,22 +10519,22 @@
         <v>51</v>
       </c>
       <c r="AW55" t="n">
-        <v>501</v>
+        <v>81</v>
       </c>
       <c r="AX55" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AY55" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ55" t="n">
         <v>34</v>
       </c>
-      <c r="AZ55" t="n">
-        <v>41</v>
-      </c>
       <c r="BA55" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB55" t="n">
         <v>126</v>
-      </c>
-      <c r="BB55" t="n">
-        <v>151</v>
       </c>
       <c r="BC55" t="n">
         <v>251</v>
@@ -10546,7 +10546,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>pnFeHfN0</t>
+          <t>ABRniaoR</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -10556,167 +10556,167 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Chrobry Glogow</t>
+          <t>Pogon Szczecin</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Kotwica Kolobrzeg</t>
+          <t>Puszcza</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.2</v>
+        <v>1.38</v>
       </c>
       <c r="H56" t="n">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="I56" t="n">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="J56" t="n">
-        <v>3</v>
+        <v>1.83</v>
       </c>
       <c r="K56" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L56" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M56" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N56" t="n">
+        <v>15</v>
+      </c>
+      <c r="O56" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R56" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S56" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T56" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U56" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V56" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W56" t="n">
         <v>7.5</v>
       </c>
-      <c r="O56" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P56" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R56" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S56" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T56" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U56" t="n">
-        <v>2</v>
-      </c>
-      <c r="V56" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W56" t="n">
+      <c r="X56" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO56" t="n">
         <v>6.5</v>
       </c>
-      <c r="X56" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y56" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z56" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA56" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB56" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC56" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD56" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE56" t="n">
+      <c r="AP56" t="n">
         <v>17</v>
       </c>
-      <c r="AF56" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG56" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH56" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI56" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ56" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK56" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL56" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM56" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN56" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO56" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP56" t="n">
-        <v>26</v>
-      </c>
       <c r="AQ56" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="AR56" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AS56" t="n">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="AT56" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU56" t="n">
         <v>8.5</v>
       </c>
       <c r="AV56" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW56" t="n">
-        <v>81</v>
+        <v>501</v>
       </c>
       <c r="AX56" t="n">
-        <v>5</v>
+        <v>8.5</v>
       </c>
       <c r="AY56" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AZ56" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="BA56" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="BB56" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BC56" t="n">
         <v>251</v>
@@ -10728,7 +10728,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>OWQnJGhl</t>
+          <t>pnFeHfN0</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -10738,7 +10738,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -10748,37 +10748,37 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Ruch Chorzow</t>
+          <t>Chrobry Glogow</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Warta Poznan</t>
+          <t>Kotwica Kolobrzeg</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="H57" t="n">
         <v>3.1</v>
       </c>
       <c r="I57" t="n">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="J57" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="K57" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L57" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M57" t="n">
         <v>1.08</v>
       </c>
       <c r="N57" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O57" t="n">
         <v>1.4</v>
@@ -10787,10 +10787,10 @@
         <v>2.75</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R57" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S57" t="n">
         <v>1.5</v>
@@ -10799,25 +10799,25 @@
         <v>2.5</v>
       </c>
       <c r="U57" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V57" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W57" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X57" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="Y57" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z57" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AA57" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AB57" t="n">
         <v>34</v>
@@ -10826,7 +10826,7 @@
         <v>7.5</v>
       </c>
       <c r="AD57" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE57" t="n">
         <v>17</v>
@@ -10835,40 +10835,40 @@
         <v>67</v>
       </c>
       <c r="AG57" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH57" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ57" t="n">
         <v>12</v>
       </c>
-      <c r="AI57" t="n">
+      <c r="AK57" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP57" t="n">
         <v>26</v>
       </c>
-      <c r="AJ57" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK57" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL57" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM57" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN57" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO57" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP57" t="n">
-        <v>23</v>
-      </c>
       <c r="AQ57" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR57" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS57" t="n">
         <v>201</v>
@@ -10877,7 +10877,7 @@
         <v>2.5</v>
       </c>
       <c r="AU57" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV57" t="n">
         <v>67</v>
@@ -10886,22 +10886,22 @@
         <v>81</v>
       </c>
       <c r="AX57" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="AY57" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ57" t="n">
         <v>29</v>
       </c>
-      <c r="AZ57" t="n">
-        <v>41</v>
-      </c>
       <c r="BA57" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB57" t="n">
         <v>101</v>
       </c>
-      <c r="BB57" t="n">
-        <v>151</v>
-      </c>
       <c r="BC57" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="BD57" t="n">
         <v>81</v>
@@ -10910,7 +10910,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ER2eHJ1s</t>
+          <t>OWQnJGhl</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -10920,92 +10920,92 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Ruch Chorzow</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>Warta Poznan</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="H58" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I58" t="n">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="J58" t="n">
-        <v>2.88</v>
+        <v>2.4</v>
       </c>
       <c r="K58" t="n">
         <v>2.1</v>
       </c>
       <c r="L58" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M58" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N58" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O58" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P58" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q58" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R58" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S58" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T58" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U58" t="n">
         <v>2.1</v>
       </c>
-      <c r="R58" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S58" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T58" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U58" t="n">
-        <v>1.95</v>
-      </c>
       <c r="V58" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="W58" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X58" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="Y58" t="n">
         <v>9</v>
       </c>
       <c r="Z58" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AA58" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB58" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC58" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AD58" t="n">
         <v>6.5</v>
@@ -11014,85 +11014,85 @@
         <v>17</v>
       </c>
       <c r="AF58" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG58" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH58" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AI58" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AJ58" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AK58" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AL58" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AM58" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN58" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AO58" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="AP58" t="n">
         <v>23</v>
       </c>
       <c r="AQ58" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR58" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS58" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT58" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU58" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV58" t="n">
         <v>67</v>
       </c>
-      <c r="AS58" t="n">
+      <c r="AW58" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX58" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY58" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ58" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA58" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB58" t="n">
         <v>151</v>
       </c>
-      <c r="AT58" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU58" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV58" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW58" t="n">
-        <v>126</v>
-      </c>
-      <c r="AX58" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY58" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ58" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA58" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB58" t="n">
+      <c r="BC58" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD58" t="n">
         <v>81</v>
-      </c>
-      <c r="BC58" t="n">
-        <v>201</v>
-      </c>
-      <c r="BD58" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>viJc2jy8</t>
+          <t>ER2eHJ1s</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -11102,7 +11102,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -11112,160 +11112,160 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Santa Clara</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Gil Vicente</t>
+          <t>Nacional</t>
         </is>
       </c>
       <c r="G59" t="n">
         <v>2.15</v>
       </c>
       <c r="H59" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I59" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K59" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L59" t="n">
+        <v>4</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N59" t="n">
+        <v>10</v>
+      </c>
+      <c r="O59" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P59" t="n">
         <v>3</v>
       </c>
-      <c r="I59" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J59" t="n">
-        <v>3</v>
-      </c>
-      <c r="K59" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="L59" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M59" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N59" t="n">
-        <v>6</v>
-      </c>
-      <c r="O59" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P59" t="n">
-        <v>2.25</v>
-      </c>
       <c r="Q59" t="n">
-        <v>2.88</v>
+        <v>2.1</v>
       </c>
       <c r="R59" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="S59" t="n">
-        <v>1.62</v>
+        <v>1.44</v>
       </c>
       <c r="T59" t="n">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="U59" t="n">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="V59" t="n">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="W59" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="X59" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Y59" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z59" t="n">
         <v>19</v>
       </c>
       <c r="AA59" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AB59" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AC59" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AD59" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE59" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AF59" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AG59" t="n">
-        <v>501</v>
+        <v>351</v>
       </c>
       <c r="AH59" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AI59" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ59" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AK59" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL59" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AM59" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN59" t="n">
         <v>4</v>
       </c>
       <c r="AO59" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP59" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AQ59" t="n">
         <v>41</v>
       </c>
       <c r="AR59" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS59" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="AT59" t="n">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="AU59" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AV59" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AW59" t="n">
         <v>126</v>
       </c>
       <c r="AX59" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AY59" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AZ59" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="BA59" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB59" t="n">
         <v>81</v>
       </c>
-      <c r="BB59" t="n">
-        <v>151</v>
-      </c>
       <c r="BC59" t="n">
-        <v>451</v>
+        <v>201</v>
       </c>
       <c r="BD59" t="n">
         <v>126</v>
@@ -11274,7 +11274,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>xK4wDick</t>
+          <t>viJc2jy8</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -11284,179 +11284,179 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Pacos Ferreira</t>
+          <t>Santa Clara</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Vizela</t>
+          <t>Gil Vicente</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="H60" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I60" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="J60" t="n">
-        <v>3.5</v>
+        <v>2.88</v>
       </c>
       <c r="K60" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="L60" t="n">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="M60" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="N60" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="O60" t="n">
-        <v>1.36</v>
+        <v>1.57</v>
       </c>
       <c r="P60" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.15</v>
+        <v>2.88</v>
       </c>
       <c r="R60" t="n">
-        <v>1.67</v>
+        <v>1.4</v>
       </c>
       <c r="S60" t="n">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="T60" t="n">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="U60" t="n">
-        <v>1.83</v>
+        <v>2.38</v>
       </c>
       <c r="V60" t="n">
-        <v>1.83</v>
+        <v>1.53</v>
       </c>
       <c r="W60" t="n">
+        <v>5</v>
+      </c>
+      <c r="X60" t="n">
         <v>8</v>
       </c>
-      <c r="X60" t="n">
-        <v>13</v>
-      </c>
       <c r="Y60" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z60" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AA60" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB60" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC60" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="AD60" t="n">
         <v>6</v>
       </c>
       <c r="AE60" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AF60" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="AG60" t="n">
-        <v>301</v>
+        <v>501</v>
       </c>
       <c r="AH60" t="n">
         <v>8</v>
       </c>
       <c r="AI60" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO60" t="n">
         <v>12</v>
       </c>
-      <c r="AJ60" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK60" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL60" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM60" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN60" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO60" t="n">
-        <v>15</v>
-      </c>
       <c r="AP60" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ60" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR60" t="n">
         <v>81</v>
       </c>
       <c r="AS60" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AT60" t="n">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="AU60" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AV60" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AW60" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="AX60" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="AY60" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AZ60" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="BA60" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BB60" t="n">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="BC60" t="n">
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="BD60" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>viNYXqck</t>
+          <t>xK4wDick</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -11466,47 +11466,47 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>CFR Cluj</t>
+          <t>Pacos Ferreira</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Sepsi Sf. Gheorghe</t>
+          <t>Vizela</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="H61" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I61" t="n">
-        <v>3.7</v>
+        <v>2.5</v>
       </c>
       <c r="J61" t="n">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="K61" t="n">
         <v>2.05</v>
       </c>
       <c r="L61" t="n">
-        <v>4.33</v>
+        <v>3.25</v>
       </c>
       <c r="M61" t="n">
         <v>1.07</v>
       </c>
       <c r="N61" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O61" t="n">
         <v>1.36</v>
@@ -11515,10 +11515,10 @@
         <v>3</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R61" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S61" t="n">
         <v>1.44</v>
@@ -11527,76 +11527,76 @@
         <v>2.63</v>
       </c>
       <c r="U61" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V61" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W61" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="X61" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Y61" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z61" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AA61" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AB61" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC61" t="n">
         <v>8.5</v>
       </c>
       <c r="AD61" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE61" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF61" t="n">
         <v>51</v>
       </c>
       <c r="AG61" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH61" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ61" t="n">
         <v>10</v>
       </c>
-      <c r="AI61" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ61" t="n">
-        <v>13</v>
-      </c>
       <c r="AK61" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AL61" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM61" t="n">
         <v>34</v>
       </c>
-      <c r="AM61" t="n">
-        <v>41</v>
-      </c>
       <c r="AN61" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="AO61" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AP61" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ61" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR61" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS61" t="n">
         <v>201</v>
@@ -11605,40 +11605,40 @@
         <v>2.63</v>
       </c>
       <c r="AU61" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV61" t="n">
         <v>51</v>
       </c>
       <c r="AW61" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AX61" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="AY61" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AZ61" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA61" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB61" t="n">
         <v>67</v>
       </c>
-      <c r="BB61" t="n">
-        <v>101</v>
-      </c>
       <c r="BC61" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BD61" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>U5ehv3Vb</t>
+          <t>viNYXqck</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -11648,95 +11648,95 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Al Qadisiya</t>
+          <t>CFR Cluj</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Damac</t>
+          <t>Sepsi Sf. Gheorghe</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.52</v>
+        <v>2</v>
       </c>
       <c r="H62" t="n">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="I62" t="n">
-        <v>5.25</v>
+        <v>3.7</v>
       </c>
       <c r="J62" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K62" t="n">
         <v>2.05</v>
       </c>
-      <c r="K62" t="n">
-        <v>2.3</v>
-      </c>
       <c r="L62" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="M62" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N62" t="n">
         <v>9</v>
       </c>
       <c r="O62" t="n">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="P62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.67</v>
+        <v>2.2</v>
       </c>
       <c r="R62" t="n">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="S62" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="T62" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="U62" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V62" t="n">
         <v>1.8</v>
       </c>
-      <c r="V62" t="n">
-        <v>1.91</v>
-      </c>
       <c r="W62" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="X62" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y62" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC62" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z62" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA62" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB62" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC62" t="n">
-        <v>13</v>
-      </c>
       <c r="AD62" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AE62" t="n">
         <v>17</v>
@@ -11745,46 +11745,46 @@
         <v>51</v>
       </c>
       <c r="AG62" t="n">
-        <v>600</v>
+        <v>351</v>
       </c>
       <c r="AH62" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AI62" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AJ62" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AK62" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL62" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM62" t="n">
         <v>41</v>
       </c>
       <c r="AN62" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="AO62" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AP62" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AQ62" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AR62" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AS62" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="AT62" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="AU62" t="n">
         <v>8.5</v>
@@ -11793,34 +11793,34 @@
         <v>51</v>
       </c>
       <c r="AW62" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AX62" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="AY62" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ62" t="n">
         <v>29</v>
       </c>
-      <c r="AZ62" t="n">
-        <v>34</v>
-      </c>
       <c r="BA62" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB62" t="n">
         <v>101</v>
       </c>
       <c r="BC62" t="n">
-        <v>450</v>
+        <v>251</v>
       </c>
       <c r="BD62" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>WATRNsoI</t>
+          <t>U5ehv3Vb</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -11830,7 +11830,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>12:05</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -11840,55 +11840,55 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Al Kholood</t>
+          <t>Al Qadisiya</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Damac</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>8.5</v>
+        <v>1.52</v>
       </c>
       <c r="H63" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I63" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K63" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L63" t="n">
         <v>5</v>
       </c>
-      <c r="I63" t="n">
+      <c r="M63" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N63" t="n">
+        <v>9</v>
+      </c>
+      <c r="O63" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R63" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S63" t="n">
         <v>1.33</v>
       </c>
-      <c r="J63" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="K63" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L63" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="M63" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N63" t="n">
-        <v>11</v>
-      </c>
-      <c r="O63" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P63" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="R63" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S63" t="n">
-        <v>1.25</v>
-      </c>
       <c r="T63" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U63" t="n">
         <v>1.8</v>
@@ -11897,76 +11897,76 @@
         <v>1.91</v>
       </c>
       <c r="W63" t="n">
-        <v>26</v>
+        <v>7.5</v>
       </c>
       <c r="X63" t="n">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="Y63" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB63" t="n">
         <v>23</v>
       </c>
-      <c r="Z63" t="n">
-        <v>81</v>
-      </c>
-      <c r="AA63" t="n">
-        <v>51</v>
-      </c>
-      <c r="AB63" t="n">
-        <v>51</v>
-      </c>
       <c r="AC63" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE63" t="n">
         <v>17</v>
       </c>
-      <c r="AD63" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE63" t="n">
-        <v>19</v>
-      </c>
       <c r="AF63" t="n">
         <v>51</v>
       </c>
       <c r="AG63" t="n">
-        <v>151</v>
+        <v>600</v>
       </c>
       <c r="AH63" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AI63" t="n">
-        <v>7.5</v>
+        <v>29</v>
       </c>
       <c r="AJ63" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AK63" t="n">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="AL63" t="n">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="AM63" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AN63" t="n">
-        <v>9</v>
+        <v>3.6</v>
       </c>
       <c r="AO63" t="n">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="AP63" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="AQ63" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS63" t="n">
         <v>126</v>
       </c>
-      <c r="AR63" t="n">
-        <v>126</v>
-      </c>
-      <c r="AS63" t="n">
-        <v>450</v>
-      </c>
       <c r="AT63" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="AU63" t="n">
         <v>8.5</v>
@@ -11978,22 +11978,22 @@
         <v>81</v>
       </c>
       <c r="AX63" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="AY63" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="AZ63" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="BA63" t="n">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="BB63" t="n">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="BC63" t="n">
-        <v>101</v>
+        <v>450</v>
       </c>
       <c r="BD63" t="n">
         <v>81</v>
@@ -12002,7 +12002,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>dhcptP0n</t>
+          <t>WATRNsoI</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -12012,7 +12012,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>12:05</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -12022,55 +12022,55 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Al Ahli SC</t>
+          <t>Al Kholood</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Al Okhdood</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.48</v>
+        <v>8.5</v>
       </c>
       <c r="H64" t="n">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="I64" t="n">
-        <v>6.25</v>
+        <v>1.33</v>
       </c>
       <c r="J64" t="n">
-        <v>1.95</v>
+        <v>6.5</v>
       </c>
       <c r="K64" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="L64" t="n">
-        <v>5.5</v>
+        <v>1.73</v>
       </c>
       <c r="M64" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N64" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O64" t="n">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="P64" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.65</v>
+        <v>1.47</v>
       </c>
       <c r="R64" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="S64" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="T64" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="U64" t="n">
         <v>1.8</v>
@@ -12079,31 +12079,31 @@
         <v>1.91</v>
       </c>
       <c r="W64" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="X64" t="n">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="Y64" t="n">
-        <v>8.5</v>
+        <v>23</v>
       </c>
       <c r="Z64" t="n">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="AA64" t="n">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="AB64" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="AC64" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AD64" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AE64" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF64" t="n">
         <v>51</v>
@@ -12112,43 +12112,43 @@
         <v>151</v>
       </c>
       <c r="AH64" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="AI64" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO64" t="n">
         <v>34</v>
       </c>
-      <c r="AJ64" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK64" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL64" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM64" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN64" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO64" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AP64" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AQ64" t="n">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="AR64" t="n">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="AS64" t="n">
-        <v>101</v>
+        <v>450</v>
       </c>
       <c r="AT64" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="AU64" t="n">
         <v>8.5</v>
@@ -12160,22 +12160,22 @@
         <v>81</v>
       </c>
       <c r="AX64" t="n">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="AY64" t="n">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="AZ64" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA64" t="n">
+        <v>15</v>
+      </c>
+      <c r="BB64" t="n">
         <v>34</v>
       </c>
-      <c r="BA64" t="n">
+      <c r="BC64" t="n">
         <v>101</v>
-      </c>
-      <c r="BB64" t="n">
-        <v>101</v>
-      </c>
-      <c r="BC64" t="n">
-        <v>151</v>
       </c>
       <c r="BD64" t="n">
         <v>81</v>
@@ -12184,7 +12184,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>lnKaZbQH</t>
+          <t>dhcptP0n</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -12194,179 +12194,179 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>IMT Novi Beograd</t>
+          <t>Al Ahli SC</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Tekstilac Odzaci</t>
+          <t>Al Okhdood</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.25</v>
+        <v>1.48</v>
       </c>
       <c r="H65" t="n">
-        <v>5.1</v>
+        <v>4.1</v>
       </c>
       <c r="I65" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K65" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L65" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N65" t="n">
+        <v>10</v>
+      </c>
+      <c r="O65" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R65" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S65" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T65" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U65" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V65" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W65" t="n">
+        <v>8</v>
+      </c>
+      <c r="X65" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA65" t="n">
         <v>12</v>
       </c>
-      <c r="J65" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="K65" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="L65" t="n">
-        <v>9</v>
-      </c>
-      <c r="M65" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N65" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="O65" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P65" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R65" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="S65" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="T65" t="n">
-        <v>3</v>
-      </c>
-      <c r="U65" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V65" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W65" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="X65" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="Y65" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z65" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA65" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AB65" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="AC65" t="n">
-        <v>8.25</v>
+        <v>13</v>
       </c>
       <c r="AD65" t="n">
-        <v>10.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE65" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="AF65" t="n">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="AG65" t="n">
-        <v>1000</v>
+        <v>151</v>
       </c>
       <c r="AH65" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="AI65" t="n">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="AJ65" t="n">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AK65" t="n">
-        <v>450</v>
+        <v>67</v>
       </c>
       <c r="AL65" t="n">
-        <v>175</v>
+        <v>41</v>
       </c>
       <c r="AM65" t="n">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="AN65" t="n">
-        <v>2.95</v>
+        <v>3.6</v>
       </c>
       <c r="AO65" t="n">
-        <v>5.4</v>
+        <v>7.5</v>
       </c>
       <c r="AP65" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ65" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AR65" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AS65" t="n">
-        <v>300</v>
+        <v>101</v>
       </c>
       <c r="AT65" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="AU65" t="n">
-        <v>9.75</v>
+        <v>8.5</v>
       </c>
       <c r="AV65" t="n">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="AW65" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AX65" t="n">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="AY65" t="n">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="AZ65" t="n">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="BA65" t="n">
-        <v>350</v>
+        <v>101</v>
       </c>
       <c r="BB65" t="n">
-        <v>500</v>
+        <v>101</v>
       </c>
       <c r="BC65" t="n">
-        <v>500</v>
+        <v>151</v>
       </c>
       <c r="BD65" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>zqfQKaBO</t>
+          <t>lnKaZbQH</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -12386,49 +12386,49 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Radnicki 1923</t>
+          <t>IMT Novi Beograd</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Jedinstvo U.</t>
+          <t>Tekstilac Odzaci</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="H66" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="I66" t="n">
-        <v>8.75</v>
+        <v>12</v>
       </c>
       <c r="J66" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="K66" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="L66" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="M66" t="n">
         <v>1.04</v>
       </c>
       <c r="N66" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="O66" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P66" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="R66" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="S66" t="n">
         <v>1.34</v>
@@ -12437,109 +12437,109 @@
         <v>3</v>
       </c>
       <c r="U66" t="n">
-        <v>2.02</v>
+        <v>2.25</v>
       </c>
       <c r="V66" t="n">
-        <v>1.72</v>
+        <v>1.57</v>
       </c>
       <c r="W66" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="X66" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z66" t="n">
         <v>7</v>
       </c>
-      <c r="X66" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="Y66" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z66" t="n">
-        <v>8</v>
-      </c>
       <c r="AA66" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AB66" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH66" t="n">
         <v>28</v>
       </c>
-      <c r="AC66" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD66" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE66" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF66" t="n">
-        <v>110</v>
-      </c>
-      <c r="AG66" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH66" t="n">
-        <v>22</v>
-      </c>
       <c r="AI66" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AJ66" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="AK66" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="AL66" t="n">
-        <v>110</v>
+        <v>175</v>
       </c>
       <c r="AM66" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AN66" t="n">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="AO66" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="AP66" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AQ66" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AR66" t="n">
         <v>45</v>
       </c>
       <c r="AS66" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AT66" t="n">
         <v>3</v>
       </c>
       <c r="AU66" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="AV66" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AW66" t="n">
         <v>51</v>
       </c>
       <c r="AX66" t="n">
-        <v>9.25</v>
+        <v>11</v>
       </c>
       <c r="AY66" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AZ66" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="BA66" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="BB66" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="BC66" t="n">
-        <v>51</v>
+        <v>500</v>
       </c>
       <c r="BD66" t="n">
         <v>51</v>
@@ -12548,7 +12548,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>reMfU7iL</t>
+          <t>zqfQKaBO</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -12558,170 +12558,170 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Aarau</t>
+          <t>Radnicki 1923</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Stade Nyonnais</t>
+          <t>Jedinstvo U.</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.57</v>
+        <v>1.32</v>
       </c>
       <c r="H67" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="I67" t="n">
-        <v>4.85</v>
+        <v>8.75</v>
       </c>
       <c r="J67" t="n">
-        <v>2.07</v>
+        <v>1.78</v>
       </c>
       <c r="K67" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="L67" t="n">
-        <v>4.7</v>
+        <v>7.5</v>
       </c>
       <c r="M67" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N67" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="O67" t="n">
-        <v>1.15</v>
+        <v>1.21</v>
       </c>
       <c r="P67" t="n">
-        <v>4.8</v>
+        <v>3.9</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.47</v>
+        <v>1.65</v>
       </c>
       <c r="R67" t="n">
-        <v>2.52</v>
+        <v>2.15</v>
       </c>
       <c r="S67" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="T67" t="n">
-        <v>3.35</v>
+        <v>3</v>
       </c>
       <c r="U67" t="n">
-        <v>1.53</v>
+        <v>2.02</v>
       </c>
       <c r="V67" t="n">
-        <v>2.35</v>
+        <v>1.72</v>
       </c>
       <c r="W67" t="n">
-        <v>10.25</v>
+        <v>7</v>
       </c>
       <c r="X67" t="n">
-        <v>9.5</v>
+        <v>6.3</v>
       </c>
       <c r="Y67" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z67" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AA67" t="n">
         <v>11</v>
       </c>
       <c r="AB67" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="AC67" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD67" t="n">
         <v>9.5</v>
       </c>
-      <c r="AD67" t="n">
-        <v>8.75</v>
-      </c>
       <c r="AE67" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="AF67" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="AG67" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="AH67" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AI67" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="AJ67" t="n">
-        <v>15.5</v>
+        <v>27</v>
       </c>
       <c r="AK67" t="n">
+        <v>250</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>110</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>16</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>45</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU67" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV67" t="n">
         <v>90</v>
       </c>
-      <c r="AL67" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM67" t="n">
-        <v>32</v>
-      </c>
-      <c r="AN67" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO67" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP67" t="n">
-        <v>14</v>
-      </c>
-      <c r="AQ67" t="n">
-        <v>22</v>
-      </c>
-      <c r="AR67" t="n">
-        <v>40</v>
-      </c>
-      <c r="AS67" t="n">
-        <v>150</v>
-      </c>
-      <c r="AT67" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AU67" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AV67" t="n">
-        <v>45</v>
-      </c>
       <c r="AW67" t="n">
         <v>51</v>
       </c>
       <c r="AX67" t="n">
-        <v>6.9</v>
+        <v>9.25</v>
       </c>
       <c r="AY67" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="AZ67" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="BA67" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="BB67" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="BC67" t="n">
-        <v>250</v>
+        <v>51</v>
       </c>
       <c r="BD67" t="n">
         <v>51</v>
@@ -12730,7 +12730,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>8x6ZMPqe</t>
+          <t>reMfU7iL</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -12750,157 +12750,157 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Etoile-Carouge</t>
+          <t>Aarau</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Lausanne Ouchy</t>
+          <t>Stade Nyonnais</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.93</v>
+        <v>1.57</v>
       </c>
       <c r="H68" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="I68" t="n">
-        <v>3.55</v>
+        <v>4.85</v>
       </c>
       <c r="J68" t="n">
-        <v>2.47</v>
+        <v>2.07</v>
       </c>
       <c r="K68" t="n">
-        <v>2.22</v>
+        <v>2.42</v>
       </c>
       <c r="L68" t="n">
-        <v>3.9</v>
+        <v>4.7</v>
       </c>
       <c r="M68" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N68" t="n">
-        <v>8.25</v>
+        <v>9.5</v>
       </c>
       <c r="O68" t="n">
-        <v>1.22</v>
+        <v>1.15</v>
       </c>
       <c r="P68" t="n">
-        <v>3.9</v>
+        <v>4.8</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.65</v>
+        <v>1.47</v>
       </c>
       <c r="R68" t="n">
-        <v>2.15</v>
+        <v>2.52</v>
       </c>
       <c r="S68" t="n">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="T68" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="U68" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V68" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="W68" t="n">
-        <v>9</v>
+        <v>10.25</v>
       </c>
       <c r="X68" t="n">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="Y68" t="n">
         <v>8.25</v>
       </c>
       <c r="Z68" t="n">
-        <v>17.5</v>
+        <v>13</v>
       </c>
       <c r="AA68" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>200</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI68" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>90</v>
+      </c>
+      <c r="AL68" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM68" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO68" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP68" t="n">
         <v>14</v>
       </c>
-      <c r="AB68" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC68" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AD68" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AE68" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AF68" t="n">
+      <c r="AQ68" t="n">
+        <v>22</v>
+      </c>
+      <c r="AR68" t="n">
+        <v>40</v>
+      </c>
+      <c r="AS68" t="n">
+        <v>150</v>
+      </c>
+      <c r="AT68" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AU68" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AV68" t="n">
         <v>45</v>
       </c>
-      <c r="AG68" t="n">
-        <v>300</v>
-      </c>
-      <c r="AH68" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI68" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ68" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK68" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL68" t="n">
-        <v>28</v>
-      </c>
-      <c r="AM68" t="n">
-        <v>30</v>
-      </c>
-      <c r="AN68" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO68" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AP68" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AQ68" t="n">
-        <v>32</v>
-      </c>
-      <c r="AR68" t="n">
-        <v>55</v>
-      </c>
-      <c r="AS68" t="n">
-        <v>175</v>
-      </c>
-      <c r="AT68" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU68" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AV68" t="n">
-        <v>50</v>
-      </c>
       <c r="AW68" t="n">
         <v>51</v>
       </c>
       <c r="AX68" t="n">
-        <v>5.6</v>
+        <v>6.9</v>
       </c>
       <c r="AY68" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AZ68" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BA68" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="BB68" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="BC68" t="n">
         <v>250</v>
@@ -12912,7 +12912,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>O6TEZfLO</t>
+          <t>8x6ZMPqe</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -12922,65 +12922,65 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Etoile-Carouge</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Lausanne Ouchy</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.75</v>
+        <v>1.93</v>
       </c>
       <c r="H69" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I69" t="n">
-        <v>2.45</v>
+        <v>3.55</v>
       </c>
       <c r="J69" t="n">
-        <v>3.25</v>
+        <v>2.47</v>
       </c>
       <c r="K69" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="L69" t="n">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="M69" t="n">
         <v>1.04</v>
       </c>
       <c r="N69" t="n">
-        <v>13</v>
+        <v>8.25</v>
       </c>
       <c r="O69" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P69" t="n">
-        <v>4.33</v>
+        <v>3.9</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R69" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S69" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="T69" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U69" t="n">
         <v>1.57</v>
@@ -12989,112 +12989,112 @@
         <v>2.25</v>
       </c>
       <c r="W69" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="X69" t="n">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="Y69" t="n">
-        <v>11</v>
+        <v>8.25</v>
       </c>
       <c r="Z69" t="n">
-        <v>29</v>
+        <v>17.5</v>
       </c>
       <c r="AA69" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB69" t="n">
         <v>21</v>
       </c>
-      <c r="AB69" t="n">
-        <v>26</v>
-      </c>
       <c r="AC69" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH69" t="n">
         <v>13</v>
       </c>
-      <c r="AD69" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE69" t="n">
+      <c r="AI69" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ69" t="n">
         <v>12</v>
       </c>
-      <c r="AF69" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG69" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH69" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI69" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ69" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AK69" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL69" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM69" t="n">
+        <v>30</v>
+      </c>
+      <c r="AN69" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO69" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AP69" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AQ69" t="n">
+        <v>32</v>
+      </c>
+      <c r="AR69" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS69" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT69" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU69" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AV69" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW69" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX69" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AY69" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ69" t="n">
         <v>23</v>
       </c>
-      <c r="AL69" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM69" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN69" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO69" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP69" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ69" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR69" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS69" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT69" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU69" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV69" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW69" t="n">
-        <v>251</v>
-      </c>
-      <c r="AX69" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AY69" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ69" t="n">
-        <v>21</v>
-      </c>
       <c r="BA69" t="n">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="BB69" t="n">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="BC69" t="n">
-        <v>126</v>
+        <v>250</v>
       </c>
       <c r="BD69" t="n">
-        <v>301</v>
+        <v>51</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>zwTt1TS1</t>
+          <t>O6TEZfLO</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -13109,174 +13109,174 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Karagumruk</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Adanaspor AS</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.3</v>
+        <v>2.75</v>
       </c>
       <c r="H70" t="n">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="I70" t="n">
-        <v>9.5</v>
+        <v>2.45</v>
       </c>
       <c r="J70" t="n">
-        <v>1.73</v>
+        <v>3.25</v>
       </c>
       <c r="K70" t="n">
-        <v>2.63</v>
+        <v>2.3</v>
       </c>
       <c r="L70" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M70" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N70" t="n">
+        <v>13</v>
+      </c>
+      <c r="O70" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R70" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S70" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T70" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U70" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V70" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W70" t="n">
+        <v>11</v>
+      </c>
+      <c r="X70" t="n">
         <v>15</v>
       </c>
-      <c r="O70" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P70" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q70" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R70" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S70" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T70" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U70" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V70" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W70" t="n">
-        <v>8</v>
-      </c>
-      <c r="X70" t="n">
-        <v>7</v>
-      </c>
       <c r="Y70" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z70" t="n">
-        <v>8.5</v>
+        <v>29</v>
       </c>
       <c r="AA70" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AB70" t="n">
         <v>26</v>
       </c>
       <c r="AC70" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH70" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI70" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ70" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK70" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL70" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM70" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN70" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO70" t="n">
         <v>15</v>
       </c>
-      <c r="AD70" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE70" t="n">
+      <c r="AP70" t="n">
         <v>21</v>
       </c>
-      <c r="AF70" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG70" t="n">
+      <c r="AQ70" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR70" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS70" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT70" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU70" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV70" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW70" t="n">
+        <v>251</v>
+      </c>
+      <c r="AX70" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AY70" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ70" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA70" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB70" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC70" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD70" t="n">
         <v>301</v>
-      </c>
-      <c r="AH70" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI70" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ70" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK70" t="n">
-        <v>101</v>
-      </c>
-      <c r="AL70" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM70" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN70" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO70" t="n">
-        <v>6</v>
-      </c>
-      <c r="AP70" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ70" t="n">
-        <v>15</v>
-      </c>
-      <c r="AR70" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS70" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT70" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU70" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV70" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW70" t="n">
-        <v>126</v>
-      </c>
-      <c r="AX70" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AY70" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ70" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA70" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB70" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC70" t="n">
-        <v>301</v>
-      </c>
-      <c r="BD70" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Y1UhtUYP</t>
+          <t>zwTt1TS1</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -13286,179 +13286,179 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>TURKEY - 1. LIG</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Rukh Lviv</t>
+          <t>Karagumruk</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Ch. Odesa</t>
+          <t>Adanaspor AS</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.65</v>
+        <v>1.3</v>
       </c>
       <c r="H71" t="n">
-        <v>3.35</v>
+        <v>5</v>
       </c>
       <c r="I71" t="n">
-        <v>5.5</v>
+        <v>9.5</v>
       </c>
       <c r="J71" t="n">
-        <v>2.27</v>
+        <v>1.73</v>
       </c>
       <c r="K71" t="n">
-        <v>1.98</v>
+        <v>2.63</v>
       </c>
       <c r="L71" t="n">
-        <v>5.8</v>
+        <v>8</v>
       </c>
       <c r="M71" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N71" t="n">
-        <v>7.33</v>
+        <v>15</v>
       </c>
       <c r="O71" t="n">
-        <v>1.47</v>
+        <v>1.18</v>
       </c>
       <c r="P71" t="n">
-        <v>2.35</v>
+        <v>4.5</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.32</v>
+        <v>1.6</v>
       </c>
       <c r="R71" t="n">
-        <v>1.47</v>
+        <v>2.3</v>
       </c>
       <c r="S71" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="T71" t="n">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U71" t="n">
-        <v>2.27</v>
+        <v>1.91</v>
       </c>
       <c r="V71" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="W71" t="n">
-        <v>4.8</v>
+        <v>8</v>
       </c>
       <c r="X71" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="Y71" t="n">
         <v>9</v>
       </c>
       <c r="Z71" t="n">
-        <v>11.5</v>
+        <v>8.5</v>
       </c>
       <c r="AA71" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI71" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ71" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK71" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL71" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM71" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN71" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO71" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP71" t="n">
         <v>17</v>
       </c>
-      <c r="AB71" t="n">
-        <v>45</v>
-      </c>
-      <c r="AC71" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AD71" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AE71" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF71" t="n">
-        <v>175</v>
-      </c>
-      <c r="AG71" t="n">
-        <v>67</v>
-      </c>
-      <c r="AH71" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AI71" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ71" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AK71" t="n">
-        <v>120</v>
-      </c>
-      <c r="AL71" t="n">
-        <v>80</v>
-      </c>
-      <c r="AM71" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN71" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AO71" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AP71" t="n">
-        <v>23</v>
-      </c>
       <c r="AQ71" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AR71" t="n">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="AS71" t="n">
-        <v>450</v>
+        <v>101</v>
       </c>
       <c r="AT71" t="n">
-        <v>2.22</v>
+        <v>3.5</v>
       </c>
       <c r="AU71" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV71" t="n">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="AW71" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="AX71" t="n">
-        <v>6.7</v>
+        <v>9.5</v>
       </c>
       <c r="AY71" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="AZ71" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="BA71" t="n">
-        <v>250</v>
+        <v>151</v>
       </c>
       <c r="BB71" t="n">
-        <v>350</v>
+        <v>151</v>
       </c>
       <c r="BC71" t="n">
-        <v>700</v>
+        <v>301</v>
       </c>
       <c r="BD71" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>hnBPz8dm</t>
+          <t>Y1UhtUYP</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -13468,7 +13468,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -13478,136 +13478,136 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Polissya Zhytomyr</t>
+          <t>Rukh Lviv</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Kolos Kovalivka</t>
+          <t>Ch. Odesa</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.82</v>
+        <v>1.65</v>
       </c>
       <c r="H72" t="n">
-        <v>2.8</v>
+        <v>3.35</v>
       </c>
       <c r="I72" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="J72" t="n">
-        <v>2.47</v>
+        <v>2.27</v>
       </c>
       <c r="K72" t="n">
-        <v>1.82</v>
+        <v>1.98</v>
       </c>
       <c r="L72" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="M72" t="n">
-        <v>1.15</v>
+        <v>1.08</v>
       </c>
       <c r="N72" t="n">
-        <v>4.2</v>
+        <v>7.33</v>
       </c>
       <c r="O72" t="n">
-        <v>1.62</v>
+        <v>1.47</v>
       </c>
       <c r="P72" t="n">
-        <v>2.05</v>
+        <v>2.35</v>
       </c>
       <c r="Q72" t="n">
-        <v>2.75</v>
+        <v>2.32</v>
       </c>
       <c r="R72" t="n">
-        <v>1.34</v>
+        <v>1.47</v>
       </c>
       <c r="S72" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="T72" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="U72" t="n">
-        <v>2.37</v>
+        <v>2.27</v>
       </c>
       <c r="V72" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="W72" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="X72" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="Y72" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z72" t="n">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="AA72" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AB72" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AC72" t="n">
-        <v>4.45</v>
+        <v>6.7</v>
       </c>
       <c r="AD72" t="n">
-        <v>6.1</v>
+        <v>6.9</v>
       </c>
       <c r="AE72" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF72" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AG72" t="n">
         <v>67</v>
       </c>
       <c r="AH72" t="n">
-        <v>9.5</v>
+        <v>10.75</v>
       </c>
       <c r="AI72" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ72" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AK72" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AL72" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM72" t="n">
         <v>100</v>
       </c>
-      <c r="AM72" t="n">
-        <v>120</v>
-      </c>
       <c r="AN72" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AO72" t="n">
-        <v>9.5</v>
+        <v>8.25</v>
       </c>
       <c r="AP72" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AQ72" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="AR72" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AS72" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AT72" t="n">
-        <v>2.02</v>
+        <v>2.22</v>
       </c>
       <c r="AU72" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AV72" t="n">
         <v>120</v>
@@ -13616,22 +13616,22 @@
         <v>81</v>
       </c>
       <c r="AX72" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AY72" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AZ72" t="n">
         <v>50</v>
       </c>
       <c r="BA72" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BB72" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="BC72" t="n">
-        <v>67</v>
+        <v>700</v>
       </c>
       <c r="BD72" t="n">
         <v>81</v>
@@ -13640,7 +13640,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>GjyWUcDj</t>
+          <t>hnBPz8dm</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -13650,172 +13650,354 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>WALES - CYMRU PREMIER</t>
+          <t>UKRAINE - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Polissya Zhytomyr</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>Kolos Kovalivka</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="H73" t="n">
-        <v>3.35</v>
+        <v>2.8</v>
       </c>
       <c r="I73" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="J73" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K73" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="L73" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N73" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O73" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P73" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R73" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S73" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="T73" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U73" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="V73" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="W73" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="X73" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>55</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>200</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>67</v>
+      </c>
+      <c r="AH73" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI73" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ73" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK73" t="n">
+        <v>150</v>
+      </c>
+      <c r="AL73" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM73" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN73" t="n">
         <v>3.3</v>
       </c>
-      <c r="J73" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K73" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="L73" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M73" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N73" t="n">
-        <v>8</v>
-      </c>
-      <c r="O73" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P73" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q73" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R73" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="S73" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="T73" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="U73" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="V73" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="W73" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="X73" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="Y73" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z73" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA73" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB73" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC73" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD73" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AE73" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF73" t="n">
-        <v>45</v>
-      </c>
-      <c r="AG73" t="n">
-        <v>300</v>
-      </c>
-      <c r="AH73" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AI73" t="n">
-        <v>20</v>
-      </c>
-      <c r="AJ73" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AK73" t="n">
-        <v>45</v>
-      </c>
-      <c r="AL73" t="n">
-        <v>27</v>
-      </c>
-      <c r="AM73" t="n">
-        <v>28</v>
-      </c>
-      <c r="AN73" t="n">
-        <v>4.1</v>
-      </c>
       <c r="AO73" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="AP73" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AQ73" t="n">
         <v>37</v>
       </c>
       <c r="AR73" t="n">
+        <v>100</v>
+      </c>
+      <c r="AS73" t="n">
+        <v>500</v>
+      </c>
+      <c r="AT73" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AU73" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AV73" t="n">
+        <v>120</v>
+      </c>
+      <c r="AW73" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX73" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AY73" t="n">
+        <v>40</v>
+      </c>
+      <c r="AZ73" t="n">
+        <v>50</v>
+      </c>
+      <c r="BA73" t="n">
+        <v>300</v>
+      </c>
+      <c r="BB73" t="n">
+        <v>450</v>
+      </c>
+      <c r="BC73" t="n">
+        <v>67</v>
+      </c>
+      <c r="BD73" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>GjyWUcDj</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>25/10/2024</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>15:45</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>WALES - CYMRU PREMIER</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Cardiff Metropolitan</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Newtown</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>2</v>
+      </c>
+      <c r="H74" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I74" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J74" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K74" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="L74" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N74" t="n">
+        <v>8</v>
+      </c>
+      <c r="O74" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P74" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R74" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S74" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="T74" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U74" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="V74" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="W74" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="X74" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AI74" t="n">
+        <v>20</v>
+      </c>
+      <c r="AJ74" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AK74" t="n">
+        <v>45</v>
+      </c>
+      <c r="AL74" t="n">
+        <v>27</v>
+      </c>
+      <c r="AM74" t="n">
+        <v>28</v>
+      </c>
+      <c r="AN74" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AO74" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AP74" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ74" t="n">
+        <v>37</v>
+      </c>
+      <c r="AR74" t="n">
         <v>60</v>
       </c>
-      <c r="AS73" t="n">
+      <c r="AS74" t="n">
         <v>175</v>
       </c>
-      <c r="AT73" t="n">
+      <c r="AT74" t="n">
         <v>2.95</v>
       </c>
-      <c r="AU73" t="n">
+      <c r="AU74" t="n">
         <v>6.6</v>
       </c>
-      <c r="AV73" t="n">
+      <c r="AV74" t="n">
         <v>50</v>
       </c>
-      <c r="AW73" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX73" t="n">
+      <c r="AW74" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX74" t="n">
         <v>5.5</v>
       </c>
-      <c r="AY73" t="n">
+      <c r="AY74" t="n">
         <v>18</v>
       </c>
-      <c r="AZ73" t="n">
+      <c r="AZ74" t="n">
         <v>21</v>
       </c>
-      <c r="BA73" t="n">
+      <c r="BA74" t="n">
         <v>80</v>
       </c>
-      <c r="BB73" t="n">
+      <c r="BB74" t="n">
         <v>100</v>
       </c>
-      <c r="BC73" t="n">
+      <c r="BC74" t="n">
         <v>250</v>
       </c>
-      <c r="BD73" t="n">
+      <c r="BD74" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-25.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H2" t="n">
         <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J2" t="n">
         <v>3.5</v>
@@ -777,10 +777,10 @@
         <v>3.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.03</v>
+        <v>2.01</v>
       </c>
       <c r="R2" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="S2" t="n">
         <v>1.4</v>
@@ -798,7 +798,7 @@
         <v>10</v>
       </c>
       <c r="X2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y2" t="n">
         <v>12</v>
@@ -825,10 +825,10 @@
         <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI2" t="n">
         <v>13</v>
@@ -846,10 +846,10 @@
         <v>34</v>
       </c>
       <c r="AN2" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP2" t="n">
         <v>23</v>
@@ -4933,22 +4933,22 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="H25" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I25" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="J25" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="K25" t="n">
         <v>2.2</v>
       </c>
       <c r="L25" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="M25" t="n">
         <v>1.06</v>
@@ -4975,16 +4975,16 @@
         <v>2.75</v>
       </c>
       <c r="U25" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V25" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W25" t="n">
         <v>13</v>
       </c>
       <c r="X25" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y25" t="n">
         <v>17</v>
@@ -5002,7 +5002,7 @@
         <v>9.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE25" t="n">
         <v>17</v>
@@ -5017,13 +5017,13 @@
         <v>6.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AJ25" t="n">
         <v>8.5</v>
       </c>
       <c r="AK25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL25" t="n">
         <v>15</v>
@@ -5035,13 +5035,13 @@
         <v>6.5</v>
       </c>
       <c r="AO25" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP25" t="n">
         <v>34</v>
       </c>
       <c r="AQ25" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AR25" t="n">
         <v>126</v>
@@ -5065,7 +5065,7 @@
         <v>3.6</v>
       </c>
       <c r="AY25" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AZ25" t="n">
         <v>21</v>
@@ -11303,7 +11303,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H60" t="n">
         <v>3</v>
@@ -11312,19 +11312,19 @@
         <v>4</v>
       </c>
       <c r="J60" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K60" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L60" t="n">
         <v>5</v>
       </c>
       <c r="M60" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N60" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O60" t="n">
         <v>1.57</v>
@@ -11363,19 +11363,19 @@
         <v>19</v>
       </c>
       <c r="AA60" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB60" t="n">
         <v>41</v>
       </c>
       <c r="AC60" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AD60" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE60" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF60" t="n">
         <v>101</v>
@@ -11384,16 +11384,16 @@
         <v>501</v>
       </c>
       <c r="AH60" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI60" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ60" t="n">
         <v>15</v>
       </c>
       <c r="AK60" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL60" t="n">
         <v>41</v>
@@ -11405,7 +11405,7 @@
         <v>3.75</v>
       </c>
       <c r="AO60" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP60" t="n">
         <v>29</v>
@@ -11417,7 +11417,7 @@
         <v>81</v>
       </c>
       <c r="AS60" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT60" t="n">
         <v>2.2</v>
@@ -11432,7 +11432,7 @@
         <v>126</v>
       </c>
       <c r="AX60" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AY60" t="n">
         <v>26</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-25.xlsx
@@ -10211,13 +10211,13 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="H54" t="n">
         <v>3.6</v>
       </c>
       <c r="I54" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="J54" t="n">
         <v>2.5</v>
@@ -10241,10 +10241,10 @@
         <v>2.75</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R54" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S54" t="n">
         <v>1.5</v>
@@ -10268,7 +10268,7 @@
         <v>9</v>
       </c>
       <c r="Z54" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA54" t="n">
         <v>17</v>
@@ -10277,13 +10277,13 @@
         <v>34</v>
       </c>
       <c r="AC54" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD54" t="n">
         <v>7</v>
       </c>
       <c r="AE54" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF54" t="n">
         <v>67</v>
@@ -10292,7 +10292,7 @@
         <v>1250</v>
       </c>
       <c r="AH54" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI54" t="n">
         <v>21</v>
@@ -10310,7 +10310,7 @@
         <v>41</v>
       </c>
       <c r="AN54" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO54" t="n">
         <v>10</v>
@@ -10340,13 +10340,13 @@
         <v>51</v>
       </c>
       <c r="AX54" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AY54" t="n">
         <v>26</v>
       </c>
       <c r="AZ54" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA54" t="n">
         <v>101</v>
@@ -10355,7 +10355,7 @@
         <v>126</v>
       </c>
       <c r="BC54" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD54" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD74"/>
+  <dimension ref="A1:BD76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8362,7 +8362,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>0ji5D4v2</t>
+          <t>EN8jc4Kc</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -8372,170 +8372,170 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Maghreb Fez</t>
+          <t>Cancun</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Raja Casablanca</t>
+          <t>Atl. Morelia</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>5</v>
+        <v>1.72</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>3.45</v>
       </c>
       <c r="I44" t="n">
-        <v>1.73</v>
+        <v>4.5</v>
       </c>
       <c r="J44" t="n">
-        <v>5.5</v>
+        <v>2.25</v>
       </c>
       <c r="K44" t="n">
-        <v>1.92</v>
+        <v>2.15</v>
       </c>
       <c r="L44" t="n">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="M44" t="n">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="N44" t="n">
-        <v>6.5</v>
+        <v>7.8</v>
       </c>
       <c r="O44" t="n">
-        <v>1.5</v>
+        <v>1.32</v>
       </c>
       <c r="P44" t="n">
-        <v>2.5</v>
+        <v>2.85</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.5</v>
+        <v>1.93</v>
       </c>
       <c r="R44" t="n">
-        <v>1.47</v>
+        <v>1.7</v>
       </c>
       <c r="S44" t="n">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="T44" t="n">
-        <v>2.25</v>
+        <v>2.52</v>
       </c>
       <c r="U44" t="n">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="V44" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="W44" t="n">
-        <v>10</v>
+        <v>6.4</v>
       </c>
       <c r="X44" t="n">
-        <v>23</v>
+        <v>7.8</v>
       </c>
       <c r="Y44" t="n">
-        <v>19</v>
+        <v>8.25</v>
       </c>
       <c r="Z44" t="n">
-        <v>51</v>
+        <v>13.5</v>
       </c>
       <c r="AA44" t="n">
-        <v>51</v>
+        <v>14.5</v>
       </c>
       <c r="AB44" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AC44" t="n">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="AD44" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AE44" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="AF44" t="n">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AG44" t="n">
-        <v>101</v>
+        <v>800</v>
       </c>
       <c r="AH44" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AI44" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="AJ44" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="AK44" t="n">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="AL44" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="AM44" t="n">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="AN44" t="n">
-        <v>6.5</v>
+        <v>3.55</v>
       </c>
       <c r="AO44" t="n">
-        <v>29</v>
+        <v>8.25</v>
       </c>
       <c r="AP44" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="AQ44" t="n">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="AR44" t="n">
-        <v>151</v>
+        <v>55</v>
       </c>
       <c r="AS44" t="n">
-        <v>51</v>
+        <v>200</v>
       </c>
       <c r="AT44" t="n">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="AU44" t="n">
-        <v>9.5</v>
+        <v>7.4</v>
       </c>
       <c r="AV44" t="n">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="AW44" t="n">
         <v>51</v>
       </c>
       <c r="AX44" t="n">
-        <v>3.6</v>
+        <v>6.2</v>
       </c>
       <c r="AY44" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="AZ44" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="BA44" t="n">
-        <v>34</v>
+        <v>150</v>
       </c>
       <c r="BB44" t="n">
-        <v>67</v>
+        <v>200</v>
       </c>
       <c r="BC44" t="n">
-        <v>251</v>
+        <v>400</v>
       </c>
       <c r="BD44" t="n">
         <v>51</v>
@@ -8544,7 +8544,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Sdqiy8W8</t>
+          <t>0ji5D4v2</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -8554,7 +8554,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -8564,37 +8564,37 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Moghreb Tetouan</t>
+          <t>Maghreb Fez</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Chabab Mohammedia</t>
+          <t>Raja Casablanca</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.6</v>
+        <v>5</v>
       </c>
       <c r="H45" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I45" t="n">
-        <v>6.25</v>
+        <v>1.73</v>
       </c>
       <c r="J45" t="n">
-        <v>2.38</v>
+        <v>5.5</v>
       </c>
       <c r="K45" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="L45" t="n">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="M45" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N45" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O45" t="n">
         <v>1.5</v>
@@ -8603,10 +8603,10 @@
         <v>2.5</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R45" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="S45" t="n">
         <v>1.57</v>
@@ -8615,85 +8615,85 @@
         <v>2.25</v>
       </c>
       <c r="U45" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V45" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="W45" t="n">
-        <v>4.75</v>
+        <v>10</v>
       </c>
       <c r="X45" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="Y45" t="n">
-        <v>9.5</v>
+        <v>19</v>
       </c>
       <c r="Z45" t="n">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="AA45" t="n">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="AB45" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC45" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AD45" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE45" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF45" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG45" t="n">
         <v>101</v>
       </c>
       <c r="AH45" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AI45" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AO45" t="n">
         <v>29</v>
       </c>
-      <c r="AJ45" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK45" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL45" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM45" t="n">
-        <v>67</v>
-      </c>
-      <c r="AN45" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO45" t="n">
-        <v>9</v>
-      </c>
       <c r="AP45" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AQ45" t="n">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="AR45" t="n">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="AS45" t="n">
-        <v>301</v>
+        <v>51</v>
       </c>
       <c r="AT45" t="n">
         <v>2.25</v>
       </c>
       <c r="AU45" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AV45" t="n">
         <v>81</v>
@@ -8702,22 +8702,22 @@
         <v>51</v>
       </c>
       <c r="AX45" t="n">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="AY45" t="n">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="AZ45" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="BA45" t="n">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="BB45" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC45" t="n">
         <v>251</v>
-      </c>
-      <c r="BC45" t="n">
-        <v>51</v>
       </c>
       <c r="BD45" t="n">
         <v>51</v>
@@ -8726,7 +8726,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>vTURZ8et</t>
+          <t>Sdqiy8W8</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -8736,179 +8736,179 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Den Haag</t>
+          <t>Moghreb Tetouan</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>Chabab Mohammedia</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.85</v>
+        <v>1.6</v>
       </c>
       <c r="H46" t="n">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="I46" t="n">
-        <v>3.7</v>
+        <v>6.25</v>
       </c>
       <c r="J46" t="n">
         <v>2.38</v>
       </c>
       <c r="K46" t="n">
+        <v>2</v>
+      </c>
+      <c r="L46" t="n">
+        <v>7</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N46" t="n">
+        <v>6</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P46" t="n">
         <v>2.5</v>
       </c>
-      <c r="L46" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M46" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N46" t="n">
-        <v>21</v>
-      </c>
-      <c r="O46" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P46" t="n">
+      <c r="Q46" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T46" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U46" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W46" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="X46" t="n">
         <v>6</v>
       </c>
-      <c r="Q46" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R46" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="S46" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T46" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U46" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V46" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="W46" t="n">
+      <c r="Y46" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH46" t="n">
         <v>12</v>
       </c>
-      <c r="X46" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y46" t="n">
+      <c r="AI46" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO46" t="n">
         <v>9</v>
       </c>
-      <c r="Z46" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE46" t="n">
+      <c r="AP46" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU46" t="n">
         <v>11</v>
       </c>
-      <c r="AF46" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG46" t="n">
+      <c r="AV46" t="n">
         <v>81</v>
       </c>
-      <c r="AH46" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ46" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK46" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL46" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM46" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN46" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO46" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP46" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ46" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR46" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS46" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT46" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU46" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV46" t="n">
-        <v>41</v>
-      </c>
       <c r="AW46" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX46" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AY46" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ46" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA46" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB46" t="n">
         <v>251</v>
       </c>
-      <c r="AX46" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY46" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ46" t="n">
-        <v>21</v>
-      </c>
-      <c r="BA46" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB46" t="n">
-        <v>51</v>
-      </c>
       <c r="BC46" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BD46" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>zeOzYnQh</t>
+          <t>vTURZ8et</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -8928,160 +8928,160 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Dordrecht</t>
+          <t>Den Haag</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Jong Utrecht</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.45</v>
+        <v>1.85</v>
       </c>
       <c r="H47" t="n">
-        <v>4.75</v>
+        <v>3.9</v>
       </c>
       <c r="I47" t="n">
-        <v>5.75</v>
+        <v>3.7</v>
       </c>
       <c r="J47" t="n">
-        <v>1.95</v>
+        <v>2.38</v>
       </c>
       <c r="K47" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L47" t="n">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M47" t="n">
         <v>1.02</v>
       </c>
       <c r="N47" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O47" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="P47" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="R47" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="S47" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T47" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U47" t="n">
-        <v>1.73</v>
+        <v>1.44</v>
       </c>
       <c r="V47" t="n">
-        <v>2</v>
+        <v>2.63</v>
       </c>
       <c r="W47" t="n">
+        <v>12</v>
+      </c>
+      <c r="X47" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y47" t="n">
         <v>9</v>
       </c>
-      <c r="X47" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y47" t="n">
+      <c r="Z47" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD47" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z47" t="n">
+      <c r="AE47" t="n">
         <v>11</v>
       </c>
-      <c r="AA47" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB47" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC47" t="n">
+      <c r="AF47" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>81</v>
+      </c>
+      <c r="AH47" t="n">
         <v>17</v>
       </c>
-      <c r="AD47" t="n">
+      <c r="AI47" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO47" t="n">
         <v>9.5</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH47" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI47" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ47" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK47" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL47" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM47" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN47" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO47" t="n">
-        <v>7</v>
       </c>
       <c r="AP47" t="n">
         <v>15</v>
       </c>
       <c r="AQ47" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AR47" t="n">
         <v>41</v>
       </c>
       <c r="AS47" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV47" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW47" t="n">
+        <v>251</v>
+      </c>
+      <c r="AX47" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY47" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ47" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA47" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB47" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC47" t="n">
         <v>101</v>
-      </c>
-      <c r="AT47" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU47" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV47" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW47" t="n">
-        <v>351</v>
-      </c>
-      <c r="AX47" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY47" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ47" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA47" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB47" t="n">
-        <v>101</v>
-      </c>
-      <c r="BC47" t="n">
-        <v>151</v>
       </c>
       <c r="BD47" t="n">
         <v>151</v>
@@ -9090,7 +9090,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>27FiU4PH</t>
+          <t>zeOzYnQh</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -9110,28 +9110,28 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>FC Volendam</t>
+          <t>Dordrecht</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Eindhoven FC</t>
+          <t>Jong Utrecht</t>
         </is>
       </c>
       <c r="G48" t="n">
         <v>1.45</v>
       </c>
       <c r="H48" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I48" t="n">
-        <v>6.25</v>
+        <v>5.75</v>
       </c>
       <c r="J48" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="K48" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="L48" t="n">
         <v>5.5</v>
@@ -9143,70 +9143,70 @@
         <v>19</v>
       </c>
       <c r="O48" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="P48" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="R48" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="S48" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="T48" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U48" t="n">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="V48" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="W48" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="X48" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="Y48" t="n">
         <v>8.5</v>
       </c>
       <c r="Z48" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA48" t="n">
         <v>11</v>
       </c>
       <c r="AB48" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC48" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AD48" t="n">
         <v>9.5</v>
       </c>
       <c r="AE48" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF48" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG48" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="AH48" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AI48" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ48" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK48" t="n">
         <v>67</v>
@@ -9218,7 +9218,7 @@
         <v>41</v>
       </c>
       <c r="AN48" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO48" t="n">
         <v>7</v>
@@ -9230,19 +9230,19 @@
         <v>19</v>
       </c>
       <c r="AR48" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AS48" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AT48" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AU48" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV48" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW48" t="n">
         <v>351</v>
@@ -9251,16 +9251,16 @@
         <v>8</v>
       </c>
       <c r="AY48" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ48" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA48" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB48" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC48" t="n">
         <v>151</v>
@@ -9272,7 +9272,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>lblAnnun</t>
+          <t>27FiU4PH</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -9292,136 +9292,136 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Oss</t>
+          <t>FC Volendam</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Jong AZ</t>
+          <t>Eindhoven FC</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.3</v>
+        <v>1.45</v>
       </c>
       <c r="H49" t="n">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="I49" t="n">
-        <v>2.9</v>
+        <v>6.25</v>
       </c>
       <c r="J49" t="n">
-        <v>2.88</v>
+        <v>1.91</v>
       </c>
       <c r="K49" t="n">
-        <v>2.4</v>
+        <v>2.63</v>
       </c>
       <c r="L49" t="n">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="M49" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N49" t="n">
+        <v>19</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P49" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R49" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T49" t="n">
+        <v>4</v>
+      </c>
+      <c r="U49" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V49" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W49" t="n">
+        <v>11</v>
+      </c>
+      <c r="X49" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE49" t="n">
         <v>15</v>
       </c>
-      <c r="O49" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P49" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R49" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S49" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T49" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U49" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V49" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W49" t="n">
-        <v>12</v>
-      </c>
-      <c r="X49" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y49" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z49" t="n">
+      <c r="AF49" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH49" t="n">
         <v>23</v>
       </c>
-      <c r="AA49" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD49" t="n">
+      <c r="AI49" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO49" t="n">
         <v>7</v>
       </c>
-      <c r="AE49" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF49" t="n">
+      <c r="AP49" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR49" t="n">
         <v>34</v>
       </c>
-      <c r="AG49" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH49" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI49" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ49" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK49" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL49" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM49" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN49" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO49" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP49" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ49" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR49" t="n">
-        <v>51</v>
-      </c>
       <c r="AS49" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT49" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="AU49" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV49" t="n">
         <v>41</v>
@@ -9430,22 +9430,22 @@
         <v>351</v>
       </c>
       <c r="AX49" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AY49" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AZ49" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="BA49" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="BB49" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BC49" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BD49" t="n">
         <v>151</v>
@@ -9454,7 +9454,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>AXIaSrfU</t>
+          <t>lblAnnun</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -9474,160 +9474,160 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Roda</t>
+          <t>Oss</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Jong Ajax</t>
+          <t>Jong AZ</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.42</v>
+        <v>2.3</v>
       </c>
       <c r="H50" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I50" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J50" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K50" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L50" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N50" t="n">
+        <v>15</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R50" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T50" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U50" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W50" t="n">
+        <v>12</v>
+      </c>
+      <c r="X50" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN50" t="n">
         <v>4.75</v>
       </c>
-      <c r="I50" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="K50" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="L50" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N50" t="n">
-        <v>21</v>
-      </c>
-      <c r="O50" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P50" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R50" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="S50" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="T50" t="n">
-        <v>4</v>
-      </c>
-      <c r="U50" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V50" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W50" t="n">
-        <v>11</v>
-      </c>
-      <c r="X50" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y50" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z50" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA50" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB50" t="n">
+      <c r="AO50" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV50" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW50" t="n">
+        <v>351</v>
+      </c>
+      <c r="AX50" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY50" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ50" t="n">
         <v>19</v>
       </c>
-      <c r="AC50" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD50" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE50" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF50" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG50" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH50" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI50" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ50" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK50" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL50" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM50" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN50" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO50" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP50" t="n">
-        <v>13</v>
-      </c>
-      <c r="AQ50" t="n">
-        <v>17</v>
-      </c>
-      <c r="AR50" t="n">
-        <v>34</v>
-      </c>
-      <c r="AS50" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT50" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU50" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV50" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW50" t="n">
-        <v>301</v>
-      </c>
-      <c r="AX50" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY50" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ50" t="n">
-        <v>26</v>
-      </c>
       <c r="BA50" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="BB50" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BC50" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="BD50" t="n">
         <v>151</v>
@@ -9636,7 +9636,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SOHIr4vB</t>
+          <t>AXIaSrfU</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -9656,160 +9656,160 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Venlo</t>
+          <t>Roda</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>Jong Ajax</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.8</v>
+        <v>1.42</v>
       </c>
       <c r="H51" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I51" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K51" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L51" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N51" t="n">
+        <v>21</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P51" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R51" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T51" t="n">
         <v>4</v>
       </c>
-      <c r="I51" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="J51" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K51" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L51" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="M51" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N51" t="n">
+      <c r="U51" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V51" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W51" t="n">
+        <v>11</v>
+      </c>
+      <c r="X51" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ51" t="n">
         <v>17</v>
       </c>
-      <c r="O51" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P51" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R51" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S51" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T51" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U51" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V51" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W51" t="n">
-        <v>13</v>
-      </c>
-      <c r="X51" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y51" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z51" t="n">
+      <c r="AR51" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS51" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT51" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU51" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV51" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW51" t="n">
+        <v>301</v>
+      </c>
+      <c r="AX51" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY51" t="n">
         <v>29</v>
       </c>
-      <c r="AA51" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB51" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC51" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD51" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE51" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF51" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG51" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH51" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI51" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ51" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK51" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL51" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM51" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN51" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO51" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP51" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ51" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR51" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS51" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT51" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU51" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV51" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW51" t="n">
-        <v>351</v>
-      </c>
-      <c r="AX51" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AY51" t="n">
-        <v>12</v>
-      </c>
       <c r="AZ51" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="BA51" t="n">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="BB51" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BC51" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BD51" t="n">
         <v>151</v>
@@ -9818,7 +9818,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>MBnIpQ9b</t>
+          <t>SOHIr4vB</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -9838,160 +9838,160 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Vitesse</t>
+          <t>Venlo</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Jong PSV</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="H52" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I52" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="J52" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K52" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L52" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N52" t="n">
+        <v>17</v>
+      </c>
+      <c r="O52" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R52" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T52" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U52" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V52" t="n">
         <v>2.5</v>
       </c>
-      <c r="K52" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="L52" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M52" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N52" t="n">
+      <c r="W52" t="n">
+        <v>13</v>
+      </c>
+      <c r="X52" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA52" t="n">
         <v>21</v>
       </c>
-      <c r="O52" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P52" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="R52" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="S52" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="T52" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="U52" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="V52" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="W52" t="n">
+      <c r="AB52" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL52" t="n">
         <v>15</v>
-      </c>
-      <c r="X52" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y52" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z52" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA52" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB52" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC52" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD52" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE52" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF52" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG52" t="n">
-        <v>67</v>
-      </c>
-      <c r="AH52" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI52" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ52" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK52" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL52" t="n">
-        <v>21</v>
       </c>
       <c r="AM52" t="n">
         <v>21</v>
       </c>
       <c r="AN52" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO52" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AP52" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AQ52" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AR52" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS52" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AT52" t="n">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="AU52" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AV52" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AW52" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AX52" t="n">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="AY52" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AZ52" t="n">
         <v>17</v>
       </c>
       <c r="BA52" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BB52" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BC52" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BD52" t="n">
         <v>151</v>
@@ -10000,7 +10000,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>CUQsbGnU</t>
+          <t>MBnIpQ9b</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -10010,164 +10010,164 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>NORWAY - OBOS-LIGAEN</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Vitesse</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Valerenga</t>
+          <t>Jong PSV</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="H53" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I53" t="n">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="J53" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="K53" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="L53" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="M53" t="n">
         <v>1.02</v>
       </c>
       <c r="N53" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O53" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="P53" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="R53" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="S53" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="T53" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="U53" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="V53" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="W53" t="n">
         <v>15</v>
       </c>
       <c r="X53" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="Y53" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z53" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AA53" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AB53" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AC53" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD53" t="n">
         <v>8.5</v>
       </c>
       <c r="AE53" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>67</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO53" t="n">
         <v>11</v>
       </c>
-      <c r="AF53" t="n">
+      <c r="AP53" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ53" t="n">
         <v>29</v>
       </c>
-      <c r="AG53" t="n">
-        <v>81</v>
-      </c>
-      <c r="AH53" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI53" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ53" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK53" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL53" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM53" t="n">
-        <v>19</v>
-      </c>
-      <c r="AN53" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO53" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP53" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ53" t="n">
-        <v>41</v>
-      </c>
       <c r="AR53" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS53" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AT53" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="AU53" t="n">
         <v>6.5</v>
       </c>
       <c r="AV53" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AW53" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AX53" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY53" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ53" t="n">
         <v>17</v>
       </c>
       <c r="BA53" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BB53" t="n">
         <v>41</v>
@@ -10182,7 +10182,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>S0Lx5had</t>
+          <t>CUQsbGnU</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -10192,179 +10192,179 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>NORWAY - OBOS-LIGAEN</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Nacional Asuncion</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>General Caballero JLM</t>
+          <t>Valerenga</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.75</v>
+        <v>2.7</v>
       </c>
       <c r="H54" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="I54" t="n">
-        <v>4.33</v>
+        <v>2.25</v>
       </c>
       <c r="J54" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K54" t="n">
         <v>2.5</v>
       </c>
-      <c r="K54" t="n">
-        <v>2.05</v>
-      </c>
       <c r="L54" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N54" t="n">
+        <v>19</v>
+      </c>
+      <c r="O54" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P54" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R54" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S54" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T54" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U54" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W54" t="n">
+        <v>15</v>
+      </c>
+      <c r="X54" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>81</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT54" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU54" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AV54" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW54" t="n">
+        <v>251</v>
+      </c>
+      <c r="AX54" t="n">
         <v>5</v>
       </c>
-      <c r="M54" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N54" t="n">
-        <v>9</v>
-      </c>
-      <c r="O54" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P54" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R54" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S54" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T54" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U54" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V54" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W54" t="n">
-        <v>6</v>
-      </c>
-      <c r="X54" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y54" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z54" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA54" t="n">
+      <c r="AY54" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ54" t="n">
         <v>17</v>
       </c>
-      <c r="AB54" t="n">
+      <c r="BA54" t="n">
         <v>34</v>
       </c>
-      <c r="AC54" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD54" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE54" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF54" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG54" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AH54" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI54" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ54" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK54" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL54" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM54" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN54" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO54" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP54" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ54" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR54" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS54" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT54" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU54" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV54" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW54" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX54" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AY54" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ54" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA54" t="n">
-        <v>101</v>
-      </c>
       <c r="BB54" t="n">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="BC54" t="n">
-        <v>351</v>
+        <v>81</v>
       </c>
       <c r="BD54" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2oOvgLGE</t>
+          <t>S0Lx5had</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -10374,113 +10374,113 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Piast Gliwice</t>
+          <t>Nacional Asuncion</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Lechia Gdansk</t>
+          <t>General Caballero JLM</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="H55" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="I55" t="n">
-        <v>5.25</v>
+        <v>4.33</v>
       </c>
       <c r="J55" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K55" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L55" t="n">
+        <v>5</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N55" t="n">
+        <v>9</v>
+      </c>
+      <c r="O55" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P55" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R55" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S55" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T55" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U55" t="n">
         <v>2.1</v>
       </c>
-      <c r="K55" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L55" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M55" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N55" t="n">
-        <v>13</v>
-      </c>
-      <c r="O55" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P55" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R55" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="S55" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T55" t="n">
-        <v>3</v>
-      </c>
-      <c r="U55" t="n">
-        <v>1.91</v>
-      </c>
       <c r="V55" t="n">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="W55" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X55" t="n">
         <v>7.5</v>
       </c>
       <c r="Y55" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC55" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z55" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA55" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB55" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC55" t="n">
-        <v>12</v>
-      </c>
       <c r="AD55" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE55" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AF55" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG55" t="n">
-        <v>301</v>
+        <v>1250</v>
       </c>
       <c r="AH55" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ55" t="n">
         <v>15</v>
-      </c>
-      <c r="AI55" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ55" t="n">
-        <v>17</v>
       </c>
       <c r="AK55" t="n">
         <v>51</v>
@@ -10495,40 +10495,40 @@
         <v>3.6</v>
       </c>
       <c r="AO55" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AP55" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AQ55" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AR55" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS55" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="AT55" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AU55" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV55" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW55" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AX55" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AY55" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ55" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA55" t="n">
         <v>101</v>
@@ -10537,16 +10537,16 @@
         <v>126</v>
       </c>
       <c r="BC55" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="BD55" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ABRniaoR</t>
+          <t>f7DOSei3</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -10556,179 +10556,179 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Pogon Szczecin</t>
+          <t>Libertad Asuncion</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Puszcza</t>
+          <t>Ameliano</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.38</v>
+        <v>2.2</v>
       </c>
       <c r="H56" t="n">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="I56" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J56" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K56" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L56" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N56" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O56" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P56" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R56" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="T56" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U56" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V56" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W56" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X56" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH56" t="n">
         <v>7.5</v>
       </c>
-      <c r="J56" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="K56" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L56" t="n">
-        <v>7</v>
-      </c>
-      <c r="M56" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N56" t="n">
+      <c r="AI56" t="n">
         <v>15</v>
       </c>
-      <c r="O56" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P56" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R56" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S56" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T56" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U56" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V56" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W56" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X56" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y56" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z56" t="n">
+      <c r="AJ56" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS56" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT56" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU56" t="n">
         <v>9.5</v>
       </c>
-      <c r="AA56" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB56" t="n">
+      <c r="AV56" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW56" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX56" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY56" t="n">
         <v>23</v>
       </c>
-      <c r="AC56" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD56" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE56" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF56" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG56" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH56" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI56" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ56" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK56" t="n">
+      <c r="AZ56" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA56" t="n">
         <v>81</v>
       </c>
-      <c r="AL56" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM56" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN56" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO56" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP56" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ56" t="n">
-        <v>19</v>
-      </c>
-      <c r="AR56" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS56" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT56" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU56" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV56" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW56" t="n">
-        <v>501</v>
-      </c>
-      <c r="AX56" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AY56" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ56" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA56" t="n">
+      <c r="BB56" t="n">
         <v>126</v>
       </c>
-      <c r="BB56" t="n">
-        <v>151</v>
-      </c>
       <c r="BC56" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="BD56" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>pnFeHfN0</t>
+          <t>2oOvgLGE</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -10743,162 +10743,162 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Chrobry Glogow</t>
+          <t>Piast Gliwice</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Kotwica Kolobrzeg</t>
+          <t>Lechia Gdansk</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.2</v>
+        <v>1.57</v>
       </c>
       <c r="H57" t="n">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="I57" t="n">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="J57" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K57" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L57" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N57" t="n">
+        <v>13</v>
+      </c>
+      <c r="O57" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P57" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R57" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T57" t="n">
         <v>3</v>
       </c>
-      <c r="K57" t="n">
-        <v>2</v>
-      </c>
-      <c r="L57" t="n">
-        <v>4</v>
-      </c>
-      <c r="M57" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N57" t="n">
+      <c r="U57" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V57" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W57" t="n">
+        <v>7</v>
+      </c>
+      <c r="X57" t="n">
         <v>7.5</v>
       </c>
-      <c r="O57" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P57" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R57" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S57" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T57" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U57" t="n">
-        <v>2</v>
-      </c>
-      <c r="V57" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W57" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X57" t="n">
-        <v>10</v>
-      </c>
       <c r="Y57" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Z57" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AA57" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AB57" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AC57" t="n">
-        <v>7.5</v>
+        <v>12</v>
       </c>
       <c r="AD57" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE57" t="n">
         <v>17</v>
       </c>
       <c r="AF57" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG57" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH57" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO57" t="n">
         <v>8</v>
       </c>
-      <c r="AI57" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ57" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK57" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL57" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM57" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN57" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO57" t="n">
-        <v>13</v>
-      </c>
       <c r="AP57" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AQ57" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AR57" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AS57" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AT57" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AU57" t="n">
         <v>8.5</v>
       </c>
       <c r="AV57" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW57" t="n">
         <v>81</v>
       </c>
       <c r="AX57" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY57" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AZ57" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA57" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BB57" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC57" t="n">
         <v>251</v>
@@ -10910,7 +10910,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>OWQnJGhl</t>
+          <t>ABRniaoR</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -10925,165 +10925,165 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Ruch Chorzow</t>
+          <t>Pogon Szczecin</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Warta Poznan</t>
+          <t>Puszcza</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.75</v>
+        <v>1.38</v>
       </c>
       <c r="H58" t="n">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="I58" t="n">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="J58" t="n">
-        <v>2.4</v>
+        <v>1.83</v>
       </c>
       <c r="K58" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L58" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="M58" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N58" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="O58" t="n">
-        <v>1.4</v>
+        <v>1.18</v>
       </c>
       <c r="P58" t="n">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.3</v>
+        <v>1.62</v>
       </c>
       <c r="R58" t="n">
-        <v>1.6</v>
+        <v>2.25</v>
       </c>
       <c r="S58" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="T58" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="U58" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="V58" t="n">
-        <v>1.67</v>
+        <v>1.91</v>
       </c>
       <c r="W58" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="X58" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y58" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD58" t="n">
         <v>9</v>
       </c>
-      <c r="Z58" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA58" t="n">
+      <c r="AE58" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP58" t="n">
         <v>17</v>
       </c>
-      <c r="AB58" t="n">
+      <c r="AQ58" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS58" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT58" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU58" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV58" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW58" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX58" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AY58" t="n">
         <v>34</v>
       </c>
-      <c r="AC58" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD58" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE58" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF58" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG58" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH58" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI58" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ58" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK58" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL58" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM58" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN58" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO58" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP58" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ58" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR58" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS58" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT58" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU58" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV58" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW58" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX58" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AY58" t="n">
-        <v>29</v>
-      </c>
       <c r="AZ58" t="n">
         <v>41</v>
       </c>
       <c r="BA58" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB58" t="n">
         <v>151</v>
       </c>
       <c r="BC58" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="BD58" t="n">
         <v>81</v>
@@ -11092,7 +11092,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ER2eHJ1s</t>
+          <t>pnFeHfN0</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -11102,107 +11102,107 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Chrobry Glogow</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>Kotwica Kolobrzeg</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H59" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I59" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J59" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K59" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L59" t="n">
         <v>4</v>
       </c>
       <c r="M59" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N59" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="O59" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P59" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.1</v>
+        <v>2.35</v>
       </c>
       <c r="R59" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="S59" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T59" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U59" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V59" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W59" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X59" t="n">
         <v>10</v>
       </c>
       <c r="Y59" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z59" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA59" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB59" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC59" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AD59" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE59" t="n">
         <v>17</v>
       </c>
       <c r="AF59" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG59" t="n">
         <v>351</v>
       </c>
       <c r="AH59" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI59" t="n">
         <v>15</v>
@@ -11220,13 +11220,13 @@
         <v>41</v>
       </c>
       <c r="AN59" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO59" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP59" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ59" t="n">
         <v>41</v>
@@ -11235,19 +11235,19 @@
         <v>67</v>
       </c>
       <c r="AS59" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT59" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU59" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV59" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW59" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="AX59" t="n">
         <v>5</v>
@@ -11262,19 +11262,19 @@
         <v>67</v>
       </c>
       <c r="BB59" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC59" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD59" t="n">
         <v>81</v>
-      </c>
-      <c r="BC59" t="n">
-        <v>201</v>
-      </c>
-      <c r="BD59" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>viJc2jy8</t>
+          <t>OWQnJGhl</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -11284,158 +11284,158 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Santa Clara</t>
+          <t>Ruch Chorzow</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Gil Vicente</t>
+          <t>Warta Poznan</t>
         </is>
       </c>
       <c r="G60" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H60" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>5</v>
+      </c>
+      <c r="J60" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K60" t="n">
         <v>2.1</v>
       </c>
-      <c r="H60" t="n">
-        <v>3</v>
-      </c>
-      <c r="I60" t="n">
-        <v>4</v>
-      </c>
-      <c r="J60" t="n">
-        <v>3</v>
-      </c>
-      <c r="K60" t="n">
-        <v>1.83</v>
-      </c>
       <c r="L60" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M60" t="n">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="N60" t="n">
+        <v>8</v>
+      </c>
+      <c r="O60" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P60" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R60" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S60" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T60" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U60" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V60" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W60" t="n">
         <v>6</v>
       </c>
-      <c r="O60" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P60" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="R60" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S60" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T60" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U60" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V60" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W60" t="n">
-        <v>5</v>
-      </c>
       <c r="X60" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y60" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z60" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AA60" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AB60" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC60" t="n">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD60" t="n">
         <v>6.5</v>
       </c>
       <c r="AE60" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP60" t="n">
         <v>23</v>
       </c>
-      <c r="AF60" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG60" t="n">
-        <v>501</v>
-      </c>
-      <c r="AH60" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI60" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ60" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK60" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL60" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM60" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN60" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO60" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP60" t="n">
+      <c r="AQ60" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS60" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT60" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU60" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV60" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW60" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX60" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY60" t="n">
         <v>29</v>
-      </c>
-      <c r="AQ60" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR60" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS60" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT60" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AU60" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV60" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW60" t="n">
-        <v>126</v>
-      </c>
-      <c r="AX60" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AY60" t="n">
-        <v>26</v>
       </c>
       <c r="AZ60" t="n">
         <v>41</v>
@@ -11447,16 +11447,16 @@
         <v>151</v>
       </c>
       <c r="BC60" t="n">
-        <v>501</v>
+        <v>351</v>
       </c>
       <c r="BD60" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>xK4wDick</t>
+          <t>ER2eHJ1s</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -11466,47 +11466,47 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Pacos Ferreira</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Vizela</t>
+          <t>Nacional</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="H61" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="I61" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="J61" t="n">
-        <v>3.5</v>
+        <v>2.88</v>
       </c>
       <c r="K61" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L61" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M61" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N61" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O61" t="n">
         <v>1.36</v>
@@ -11515,10 +11515,10 @@
         <v>3</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R61" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S61" t="n">
         <v>1.44</v>
@@ -11527,79 +11527,79 @@
         <v>2.63</v>
       </c>
       <c r="U61" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="V61" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W61" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X61" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Y61" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Z61" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB61" t="n">
         <v>29</v>
       </c>
-      <c r="AA61" t="n">
+      <c r="AC61" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP61" t="n">
         <v>23</v>
       </c>
-      <c r="AB61" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC61" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD61" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE61" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF61" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG61" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH61" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI61" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ61" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK61" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL61" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM61" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN61" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO61" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP61" t="n">
-        <v>26</v>
-      </c>
       <c r="AQ61" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR61" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS61" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT61" t="n">
         <v>2.63</v>
@@ -11611,34 +11611,34 @@
         <v>51</v>
       </c>
       <c r="AW61" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX61" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY61" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ61" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA61" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB61" t="n">
         <v>81</v>
-      </c>
-      <c r="AX61" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AY61" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ61" t="n">
-        <v>26</v>
-      </c>
-      <c r="BA61" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB61" t="n">
-        <v>67</v>
       </c>
       <c r="BC61" t="n">
         <v>201</v>
       </c>
       <c r="BD61" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>viNYXqck</t>
+          <t>viJc2jy8</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -11648,179 +11648,179 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>CFR Cluj</t>
+          <t>Santa Clara</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Sepsi Sf. Gheorghe</t>
+          <t>Gil Vicente</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H62" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I62" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="J62" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="K62" t="n">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="L62" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="M62" t="n">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
       <c r="N62" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O62" t="n">
-        <v>1.36</v>
+        <v>1.57</v>
       </c>
       <c r="P62" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="Q62" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R62" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T62" t="n">
         <v>2.2</v>
       </c>
-      <c r="R62" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S62" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T62" t="n">
-        <v>2.63</v>
-      </c>
       <c r="U62" t="n">
-        <v>1.91</v>
+        <v>2.38</v>
       </c>
       <c r="V62" t="n">
-        <v>1.8</v>
+        <v>1.53</v>
       </c>
       <c r="W62" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="X62" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y62" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z62" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA62" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AB62" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC62" t="n">
-        <v>8.5</v>
+        <v>5.5</v>
       </c>
       <c r="AD62" t="n">
         <v>6.5</v>
       </c>
       <c r="AE62" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI62" t="n">
         <v>17</v>
       </c>
-      <c r="AF62" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG62" t="n">
+      <c r="AJ62" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR62" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS62" t="n">
         <v>351</v>
       </c>
-      <c r="AH62" t="n">
+      <c r="AT62" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU62" t="n">
         <v>10</v>
       </c>
-      <c r="AI62" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ62" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK62" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL62" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM62" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN62" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO62" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP62" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ62" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR62" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS62" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT62" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU62" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AV62" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AW62" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="AX62" t="n">
         <v>5.5</v>
       </c>
       <c r="AY62" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AZ62" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="BA62" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BB62" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BC62" t="n">
-        <v>251</v>
+        <v>501</v>
       </c>
       <c r="BD62" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>U5ehv3Vb</t>
+          <t>xK4wDick</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -11830,146 +11830,146 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Al Qadisiya</t>
+          <t>Pacos Ferreira</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Damac</t>
+          <t>Vizela</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.52</v>
+        <v>2.7</v>
       </c>
       <c r="H63" t="n">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="I63" t="n">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="J63" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K63" t="n">
         <v>2.05</v>
       </c>
-      <c r="K63" t="n">
-        <v>2.3</v>
-      </c>
       <c r="L63" t="n">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="M63" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N63" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O63" t="n">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="P63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q63" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R63" t="n">
         <v>1.67</v>
       </c>
-      <c r="R63" t="n">
-        <v>2.1</v>
-      </c>
       <c r="S63" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="T63" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="U63" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V63" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W63" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X63" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH63" t="n">
         <v>8</v>
       </c>
-      <c r="Y63" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z63" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA63" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB63" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC63" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD63" t="n">
+      <c r="AI63" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS63" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT63" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU63" t="n">
         <v>8</v>
-      </c>
-      <c r="AE63" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF63" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG63" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH63" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI63" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ63" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK63" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL63" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM63" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN63" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO63" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP63" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ63" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR63" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS63" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT63" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU63" t="n">
-        <v>8.5</v>
       </c>
       <c r="AV63" t="n">
         <v>51</v>
@@ -11978,22 +11978,22 @@
         <v>81</v>
       </c>
       <c r="AX63" t="n">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="AY63" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="AZ63" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="BA63" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BB63" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="BC63" t="n">
-        <v>450</v>
+        <v>201</v>
       </c>
       <c r="BD63" t="n">
         <v>81</v>
@@ -12002,7 +12002,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>WATRNsoI</t>
+          <t>viNYXqck</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -12012,143 +12012,143 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>12:05</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Al Kholood</t>
+          <t>CFR Cluj</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Sepsi Sf. Gheorghe</t>
         </is>
       </c>
       <c r="G64" t="n">
+        <v>2</v>
+      </c>
+      <c r="H64" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I64" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K64" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L64" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N64" t="n">
+        <v>9</v>
+      </c>
+      <c r="O64" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P64" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R64" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S64" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T64" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U64" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V64" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W64" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X64" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC64" t="n">
         <v>8.5</v>
       </c>
-      <c r="H64" t="n">
-        <v>5</v>
-      </c>
-      <c r="I64" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="J64" t="n">
+      <c r="AD64" t="n">
         <v>6.5</v>
       </c>
-      <c r="K64" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L64" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="M64" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N64" t="n">
+      <c r="AE64" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO64" t="n">
         <v>11</v>
       </c>
-      <c r="O64" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P64" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="R64" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S64" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T64" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U64" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V64" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W64" t="n">
-        <v>26</v>
-      </c>
-      <c r="X64" t="n">
-        <v>41</v>
-      </c>
-      <c r="Y64" t="n">
+      <c r="AP64" t="n">
         <v>23</v>
       </c>
-      <c r="Z64" t="n">
-        <v>81</v>
-      </c>
-      <c r="AA64" t="n">
-        <v>51</v>
-      </c>
-      <c r="AB64" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC64" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD64" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE64" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF64" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG64" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH64" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI64" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AJ64" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK64" t="n">
-        <v>9</v>
-      </c>
-      <c r="AL64" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM64" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN64" t="n">
-        <v>9</v>
-      </c>
-      <c r="AO64" t="n">
-        <v>34</v>
-      </c>
-      <c r="AP64" t="n">
-        <v>34</v>
-      </c>
       <c r="AQ64" t="n">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="AR64" t="n">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="AS64" t="n">
-        <v>450</v>
+        <v>201</v>
       </c>
       <c r="AT64" t="n">
-        <v>3.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU64" t="n">
         <v>8.5</v>
@@ -12157,34 +12157,34 @@
         <v>51</v>
       </c>
       <c r="AW64" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AX64" t="n">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="AY64" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="AZ64" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="BA64" t="n">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="BB64" t="n">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="BC64" t="n">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="BD64" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>dhcptP0n</t>
+          <t>U5ehv3Vb</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -12194,7 +12194,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -12204,55 +12204,55 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Al Ahli SC</t>
+          <t>Al Qadisiya</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Al Okhdood</t>
+          <t>Damac</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="H65" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I65" t="n">
-        <v>6.25</v>
+        <v>5.25</v>
       </c>
       <c r="J65" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="K65" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L65" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M65" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N65" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O65" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P65" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R65" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S65" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T65" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U65" t="n">
         <v>1.8</v>
@@ -12261,7 +12261,7 @@
         <v>1.91</v>
       </c>
       <c r="W65" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X65" t="n">
         <v>8</v>
@@ -12273,7 +12273,7 @@
         <v>11</v>
       </c>
       <c r="AA65" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB65" t="n">
         <v>23</v>
@@ -12282,7 +12282,7 @@
         <v>13</v>
       </c>
       <c r="AD65" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE65" t="n">
         <v>17</v>
@@ -12291,19 +12291,19 @@
         <v>51</v>
       </c>
       <c r="AG65" t="n">
-        <v>151</v>
+        <v>600</v>
       </c>
       <c r="AH65" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AI65" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ65" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK65" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL65" t="n">
         <v>41</v>
@@ -12315,7 +12315,7 @@
         <v>3.6</v>
       </c>
       <c r="AO65" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AP65" t="n">
         <v>17</v>
@@ -12327,10 +12327,10 @@
         <v>41</v>
       </c>
       <c r="AS65" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT65" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU65" t="n">
         <v>8.5</v>
@@ -12342,7 +12342,7 @@
         <v>81</v>
       </c>
       <c r="AX65" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AY65" t="n">
         <v>29</v>
@@ -12351,13 +12351,13 @@
         <v>34</v>
       </c>
       <c r="BA65" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB65" t="n">
         <v>101</v>
       </c>
       <c r="BC65" t="n">
-        <v>151</v>
+        <v>450</v>
       </c>
       <c r="BD65" t="n">
         <v>81</v>
@@ -12366,7 +12366,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>lnKaZbQH</t>
+          <t>WATRNsoI</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -12376,179 +12376,179 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>12:05</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>IMT Novi Beograd</t>
+          <t>Al Kholood</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Tekstilac Odzaci</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="G66" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+      <c r="I66" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="J66" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K66" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L66" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N66" t="n">
+        <v>11</v>
+      </c>
+      <c r="O66" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="R66" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S66" t="n">
         <v>1.25</v>
       </c>
-      <c r="H66" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>12</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="K66" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="L66" t="n">
+      <c r="T66" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U66" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V66" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W66" t="n">
+        <v>26</v>
+      </c>
+      <c r="X66" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>81</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH66" t="n">
         <v>9</v>
       </c>
-      <c r="M66" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N66" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="O66" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P66" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="Q66" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R66" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="S66" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="T66" t="n">
-        <v>3</v>
-      </c>
-      <c r="U66" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V66" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W66" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="X66" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="Y66" t="n">
+      <c r="AI66" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AJ66" t="n">
         <v>9</v>
       </c>
-      <c r="Z66" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA66" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AB66" t="n">
-        <v>35</v>
-      </c>
-      <c r="AC66" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AD66" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE66" t="n">
-        <v>27</v>
-      </c>
-      <c r="AF66" t="n">
-        <v>150</v>
-      </c>
-      <c r="AG66" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH66" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI66" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ66" t="n">
-        <v>37</v>
-      </c>
       <c r="AK66" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>126</v>
+      </c>
+      <c r="AR66" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS66" t="n">
         <v>450</v>
       </c>
-      <c r="AL66" t="n">
-        <v>175</v>
-      </c>
-      <c r="AM66" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN66" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AO66" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AP66" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ66" t="n">
-        <v>14</v>
-      </c>
-      <c r="AR66" t="n">
-        <v>45</v>
-      </c>
-      <c r="AS66" t="n">
-        <v>300</v>
-      </c>
       <c r="AT66" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="AU66" t="n">
-        <v>9.75</v>
+        <v>8.5</v>
       </c>
       <c r="AV66" t="n">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="AW66" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AX66" t="n">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="AY66" t="n">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="AZ66" t="n">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="BA66" t="n">
-        <v>350</v>
+        <v>15</v>
       </c>
       <c r="BB66" t="n">
-        <v>500</v>
+        <v>34</v>
       </c>
       <c r="BC66" t="n">
-        <v>500</v>
+        <v>101</v>
       </c>
       <c r="BD66" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>zqfQKaBO</t>
+          <t>dhcptP0n</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -12558,179 +12558,179 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Radnicki 1923</t>
+          <t>Al Ahli SC</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Jedinstvo U.</t>
+          <t>Al Okhdood</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.32</v>
+        <v>1.48</v>
       </c>
       <c r="H67" t="n">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="I67" t="n">
-        <v>8.75</v>
+        <v>6.25</v>
       </c>
       <c r="J67" t="n">
-        <v>1.78</v>
+        <v>1.95</v>
       </c>
       <c r="K67" t="n">
         <v>2.4</v>
       </c>
       <c r="L67" t="n">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="M67" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N67" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O67" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P67" t="n">
-        <v>3.9</v>
+        <v>4.33</v>
       </c>
       <c r="Q67" t="n">
         <v>1.65</v>
       </c>
       <c r="R67" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S67" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="T67" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="U67" t="n">
-        <v>2.02</v>
+        <v>1.8</v>
       </c>
       <c r="V67" t="n">
-        <v>1.72</v>
+        <v>1.91</v>
       </c>
       <c r="W67" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X67" t="n">
-        <v>6.3</v>
+        <v>8</v>
       </c>
       <c r="Y67" t="n">
         <v>8.5</v>
       </c>
       <c r="Z67" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AA67" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB67" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AC67" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD67" t="n">
         <v>8.5</v>
       </c>
-      <c r="AD67" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AE67" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AF67" t="n">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="AG67" t="n">
-        <v>900</v>
+        <v>151</v>
       </c>
       <c r="AH67" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AI67" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="AJ67" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="AK67" t="n">
-        <v>250</v>
+        <v>67</v>
       </c>
       <c r="AL67" t="n">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="AM67" t="n">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="AN67" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="AO67" t="n">
-        <v>5.8</v>
+        <v>7.5</v>
       </c>
       <c r="AP67" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AQ67" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AR67" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AS67" t="n">
-        <v>250</v>
+        <v>101</v>
       </c>
       <c r="AT67" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="AU67" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV67" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="AW67" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AX67" t="n">
-        <v>9.25</v>
+        <v>7.5</v>
       </c>
       <c r="AY67" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="AZ67" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="BA67" t="n">
-        <v>400</v>
+        <v>101</v>
       </c>
       <c r="BB67" t="n">
-        <v>400</v>
+        <v>101</v>
       </c>
       <c r="BC67" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="BD67" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>reMfU7iL</t>
+          <t>lnKaZbQH</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -12740,170 +12740,170 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Aarau</t>
+          <t>IMT Novi Beograd</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Stade Nyonnais</t>
+          <t>Tekstilac Odzaci</t>
         </is>
       </c>
       <c r="G68" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="H68" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>12</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="K68" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="L68" t="n">
+        <v>9</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N68" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="O68" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P68" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R68" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S68" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="T68" t="n">
+        <v>3</v>
+      </c>
+      <c r="U68" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V68" t="n">
         <v>1.57</v>
       </c>
-      <c r="H68" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="I68" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="K68" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="L68" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="M68" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N68" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="O68" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P68" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="Q68" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="R68" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="S68" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="T68" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="U68" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V68" t="n">
-        <v>2.35</v>
-      </c>
       <c r="W68" t="n">
-        <v>10.25</v>
+        <v>6.4</v>
       </c>
       <c r="X68" t="n">
-        <v>9.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y68" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC68" t="n">
         <v>8.25</v>
       </c>
-      <c r="Z68" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA68" t="n">
+      <c r="AD68" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI68" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>37</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>450</v>
+      </c>
+      <c r="AL68" t="n">
+        <v>175</v>
+      </c>
+      <c r="AM68" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AO68" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AP68" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ68" t="n">
+        <v>14</v>
+      </c>
+      <c r="AR68" t="n">
+        <v>45</v>
+      </c>
+      <c r="AS68" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT68" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU68" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AV68" t="n">
+        <v>110</v>
+      </c>
+      <c r="AW68" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX68" t="n">
         <v>11</v>
       </c>
-      <c r="AB68" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC68" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD68" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AE68" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF68" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG68" t="n">
-        <v>200</v>
-      </c>
-      <c r="AH68" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI68" t="n">
-        <v>35</v>
-      </c>
-      <c r="AJ68" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AK68" t="n">
-        <v>90</v>
-      </c>
-      <c r="AL68" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM68" t="n">
-        <v>32</v>
-      </c>
-      <c r="AN68" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO68" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP68" t="n">
-        <v>14</v>
-      </c>
-      <c r="AQ68" t="n">
-        <v>22</v>
-      </c>
-      <c r="AR68" t="n">
-        <v>40</v>
-      </c>
-      <c r="AS68" t="n">
-        <v>150</v>
-      </c>
-      <c r="AT68" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AU68" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AV68" t="n">
-        <v>45</v>
-      </c>
-      <c r="AW68" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX68" t="n">
-        <v>6.9</v>
-      </c>
       <c r="AY68" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="AZ68" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="BA68" t="n">
-        <v>120</v>
+        <v>350</v>
       </c>
       <c r="BB68" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="BC68" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="BD68" t="n">
         <v>51</v>
@@ -12912,7 +12912,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>8x6ZMPqe</t>
+          <t>zqfQKaBO</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -12922,50 +12922,50 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Etoile-Carouge</t>
+          <t>Radnicki 1923</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Lausanne Ouchy</t>
+          <t>Jedinstvo U.</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.93</v>
+        <v>1.32</v>
       </c>
       <c r="H69" t="n">
-        <v>3.6</v>
+        <v>4.8</v>
       </c>
       <c r="I69" t="n">
-        <v>3.55</v>
+        <v>8.75</v>
       </c>
       <c r="J69" t="n">
-        <v>2.47</v>
+        <v>1.78</v>
       </c>
       <c r="K69" t="n">
-        <v>2.22</v>
+        <v>2.4</v>
       </c>
       <c r="L69" t="n">
-        <v>3.9</v>
+        <v>7.5</v>
       </c>
       <c r="M69" t="n">
         <v>1.04</v>
       </c>
       <c r="N69" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="O69" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P69" t="n">
         <v>3.9</v>
@@ -12983,109 +12983,109 @@
         <v>3</v>
       </c>
       <c r="U69" t="n">
-        <v>1.57</v>
+        <v>2.02</v>
       </c>
       <c r="V69" t="n">
-        <v>2.25</v>
+        <v>1.72</v>
       </c>
       <c r="W69" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="X69" t="n">
-        <v>10.5</v>
+        <v>6.3</v>
       </c>
       <c r="Y69" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z69" t="n">
-        <v>17.5</v>
+        <v>8</v>
       </c>
       <c r="AA69" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AB69" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AC69" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AD69" t="n">
-        <v>7.1</v>
+        <v>9.5</v>
       </c>
       <c r="AE69" t="n">
-        <v>12.5</v>
+        <v>22</v>
       </c>
       <c r="AF69" t="n">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="AG69" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="AH69" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="AI69" t="n">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="AJ69" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="AK69" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="AL69" t="n">
-        <v>28</v>
+        <v>110</v>
       </c>
       <c r="AM69" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="AN69" t="n">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="AO69" t="n">
-        <v>9.75</v>
+        <v>5.8</v>
       </c>
       <c r="AP69" t="n">
         <v>16.5</v>
       </c>
       <c r="AQ69" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="AR69" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AS69" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="AT69" t="n">
         <v>3</v>
       </c>
       <c r="AU69" t="n">
-        <v>6.7</v>
+        <v>9</v>
       </c>
       <c r="AV69" t="n">
+        <v>90</v>
+      </c>
+      <c r="AW69" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX69" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AY69" t="n">
+        <v>55</v>
+      </c>
+      <c r="AZ69" t="n">
         <v>50</v>
       </c>
-      <c r="AW69" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX69" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AY69" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ69" t="n">
-        <v>23</v>
-      </c>
       <c r="BA69" t="n">
-        <v>90</v>
+        <v>400</v>
       </c>
       <c r="BB69" t="n">
-        <v>110</v>
+        <v>400</v>
       </c>
       <c r="BC69" t="n">
-        <v>250</v>
+        <v>51</v>
       </c>
       <c r="BD69" t="n">
         <v>51</v>
@@ -13094,7 +13094,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>O6TEZfLO</t>
+          <t>reMfU7iL</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -13104,179 +13104,179 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Aarau</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Stade Nyonnais</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.75</v>
+        <v>1.57</v>
       </c>
       <c r="H70" t="n">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="I70" t="n">
-        <v>2.45</v>
+        <v>4.85</v>
       </c>
       <c r="J70" t="n">
-        <v>3.25</v>
+        <v>2.07</v>
       </c>
       <c r="K70" t="n">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="L70" t="n">
-        <v>3</v>
+        <v>4.7</v>
       </c>
       <c r="M70" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N70" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O70" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="R70" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="S70" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="T70" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="U70" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V70" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="W70" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="X70" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z70" t="n">
         <v>13</v>
       </c>
-      <c r="O70" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P70" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q70" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R70" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S70" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T70" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U70" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V70" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W70" t="n">
+      <c r="AA70" t="n">
         <v>11</v>
       </c>
-      <c r="X70" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y70" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z70" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA70" t="n">
-        <v>21</v>
-      </c>
       <c r="AB70" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="AC70" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AE70" t="n">
         <v>13</v>
       </c>
-      <c r="AD70" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE70" t="n">
-        <v>12</v>
-      </c>
       <c r="AF70" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AG70" t="n">
-        <v>126</v>
+        <v>200</v>
       </c>
       <c r="AH70" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AI70" t="n">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="AJ70" t="n">
-        <v>9.5</v>
+        <v>15.5</v>
       </c>
       <c r="AK70" t="n">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="AL70" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="AM70" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="AN70" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="AO70" t="n">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="AP70" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AQ70" t="n">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="AR70" t="n">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="AS70" t="n">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="AT70" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="AU70" t="n">
-        <v>7.5</v>
+        <v>6.8</v>
       </c>
       <c r="AV70" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AW70" t="n">
-        <v>251</v>
+        <v>51</v>
       </c>
       <c r="AX70" t="n">
-        <v>4.75</v>
+        <v>6.9</v>
       </c>
       <c r="AY70" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="AZ70" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="BA70" t="n">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="BB70" t="n">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="BC70" t="n">
-        <v>126</v>
+        <v>250</v>
       </c>
       <c r="BD70" t="n">
-        <v>301</v>
+        <v>51</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>zwTt1TS1</t>
+          <t>8x6ZMPqe</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -13286,179 +13286,179 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Karagumruk</t>
+          <t>Etoile-Carouge</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Adanaspor AS</t>
+          <t>Lausanne Ouchy</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.3</v>
+        <v>1.93</v>
       </c>
       <c r="H71" t="n">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="I71" t="n">
-        <v>9.5</v>
+        <v>3.55</v>
       </c>
       <c r="J71" t="n">
-        <v>1.73</v>
+        <v>2.47</v>
       </c>
       <c r="K71" t="n">
-        <v>2.63</v>
+        <v>2.22</v>
       </c>
       <c r="L71" t="n">
-        <v>8</v>
+        <v>3.9</v>
       </c>
       <c r="M71" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N71" t="n">
-        <v>15</v>
+        <v>8.25</v>
       </c>
       <c r="O71" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="P71" t="n">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="R71" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="S71" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="T71" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U71" t="n">
-        <v>1.91</v>
+        <v>1.57</v>
       </c>
       <c r="V71" t="n">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="W71" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X71" t="n">
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="Y71" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="Z71" t="n">
-        <v>8.5</v>
+        <v>17.5</v>
       </c>
       <c r="AA71" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AB71" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AC71" t="n">
-        <v>15</v>
+        <v>8.25</v>
       </c>
       <c r="AD71" t="n">
-        <v>10</v>
+        <v>7.1</v>
       </c>
       <c r="AE71" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI71" t="n">
         <v>21</v>
       </c>
-      <c r="AF71" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG71" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH71" t="n">
+      <c r="AJ71" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK71" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL71" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM71" t="n">
+        <v>30</v>
+      </c>
+      <c r="AN71" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO71" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AP71" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AQ71" t="n">
+        <v>32</v>
+      </c>
+      <c r="AR71" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS71" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT71" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU71" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AV71" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW71" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX71" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AY71" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ71" t="n">
         <v>23</v>
       </c>
-      <c r="AI71" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ71" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK71" t="n">
-        <v>101</v>
-      </c>
-      <c r="AL71" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM71" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN71" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO71" t="n">
-        <v>6</v>
-      </c>
-      <c r="AP71" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ71" t="n">
-        <v>15</v>
-      </c>
-      <c r="AR71" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS71" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT71" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU71" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV71" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW71" t="n">
-        <v>126</v>
-      </c>
-      <c r="AX71" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AY71" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ71" t="n">
-        <v>41</v>
-      </c>
       <c r="BA71" t="n">
-        <v>151</v>
+        <v>90</v>
       </c>
       <c r="BB71" t="n">
-        <v>151</v>
+        <v>110</v>
       </c>
       <c r="BC71" t="n">
-        <v>301</v>
+        <v>250</v>
       </c>
       <c r="BD71" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Y1UhtUYP</t>
+          <t>O6TEZfLO</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -13468,179 +13468,179 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Rukh Lviv</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Ch. Odesa</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.65</v>
+        <v>2.75</v>
       </c>
       <c r="H72" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I72" t="n">
-        <v>5.5</v>
+        <v>2.45</v>
       </c>
       <c r="J72" t="n">
-        <v>2.27</v>
+        <v>3.25</v>
       </c>
       <c r="K72" t="n">
-        <v>1.98</v>
+        <v>2.3</v>
       </c>
       <c r="L72" t="n">
-        <v>5.8</v>
+        <v>3</v>
       </c>
       <c r="M72" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N72" t="n">
-        <v>7.33</v>
+        <v>13</v>
       </c>
       <c r="O72" t="n">
-        <v>1.47</v>
+        <v>1.2</v>
       </c>
       <c r="P72" t="n">
-        <v>2.35</v>
+        <v>4.33</v>
       </c>
       <c r="Q72" t="n">
-        <v>2.32</v>
+        <v>1.7</v>
       </c>
       <c r="R72" t="n">
-        <v>1.47</v>
+        <v>2.1</v>
       </c>
       <c r="S72" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="T72" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U72" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V72" t="n">
         <v>2.25</v>
       </c>
-      <c r="U72" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="V72" t="n">
-        <v>1.5</v>
-      </c>
       <c r="W72" t="n">
-        <v>4.8</v>
+        <v>11</v>
       </c>
       <c r="X72" t="n">
-        <v>6.2</v>
+        <v>15</v>
       </c>
       <c r="Y72" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z72" t="n">
-        <v>11.5</v>
+        <v>29</v>
       </c>
       <c r="AA72" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AB72" t="n">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="AC72" t="n">
-        <v>6.7</v>
+        <v>13</v>
       </c>
       <c r="AD72" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="AE72" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="AF72" t="n">
-        <v>175</v>
+        <v>41</v>
       </c>
       <c r="AG72" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="AH72" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="AI72" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="AJ72" t="n">
-        <v>19.5</v>
+        <v>9.5</v>
       </c>
       <c r="AK72" t="n">
-        <v>120</v>
+        <v>23</v>
       </c>
       <c r="AL72" t="n">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="AM72" t="n">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="AN72" t="n">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="AO72" t="n">
-        <v>8.25</v>
+        <v>15</v>
       </c>
       <c r="AP72" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ72" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="AR72" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="AS72" t="n">
-        <v>450</v>
+        <v>126</v>
       </c>
       <c r="AT72" t="n">
-        <v>2.22</v>
+        <v>3.25</v>
       </c>
       <c r="AU72" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AV72" t="n">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="AW72" t="n">
-        <v>81</v>
+        <v>251</v>
       </c>
       <c r="AX72" t="n">
-        <v>6.7</v>
+        <v>4.75</v>
       </c>
       <c r="AY72" t="n">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="AZ72" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="BA72" t="n">
-        <v>250</v>
+        <v>41</v>
       </c>
       <c r="BB72" t="n">
-        <v>350</v>
+        <v>51</v>
       </c>
       <c r="BC72" t="n">
-        <v>700</v>
+        <v>126</v>
       </c>
       <c r="BD72" t="n">
-        <v>81</v>
+        <v>301</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>hnBPz8dm</t>
+          <t>zwTt1TS1</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -13650,179 +13650,179 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>TURKEY - 1. LIG</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Polissya Zhytomyr</t>
+          <t>Karagumruk</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Kolos Kovalivka</t>
+          <t>Adanaspor AS</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.82</v>
+        <v>1.3</v>
       </c>
       <c r="H73" t="n">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="I73" t="n">
-        <v>5.6</v>
+        <v>9.5</v>
       </c>
       <c r="J73" t="n">
-        <v>2.47</v>
+        <v>1.73</v>
       </c>
       <c r="K73" t="n">
-        <v>1.82</v>
+        <v>2.63</v>
       </c>
       <c r="L73" t="n">
-        <v>6.1</v>
+        <v>8</v>
       </c>
       <c r="M73" t="n">
-        <v>1.15</v>
+        <v>1.03</v>
       </c>
       <c r="N73" t="n">
-        <v>4.2</v>
+        <v>15</v>
       </c>
       <c r="O73" t="n">
-        <v>1.62</v>
+        <v>1.18</v>
       </c>
       <c r="P73" t="n">
-        <v>2.05</v>
+        <v>4.5</v>
       </c>
       <c r="Q73" t="n">
-        <v>2.75</v>
+        <v>1.6</v>
       </c>
       <c r="R73" t="n">
-        <v>1.34</v>
+        <v>2.3</v>
       </c>
       <c r="S73" t="n">
-        <v>1.6</v>
+        <v>1.29</v>
       </c>
       <c r="T73" t="n">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="U73" t="n">
-        <v>2.37</v>
+        <v>1.91</v>
       </c>
       <c r="V73" t="n">
-        <v>1.45</v>
+        <v>1.8</v>
       </c>
       <c r="W73" t="n">
-        <v>4.4</v>
+        <v>8</v>
       </c>
       <c r="X73" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="Y73" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH73" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI73" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ73" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK73" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL73" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM73" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN73" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO73" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP73" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ73" t="n">
+        <v>15</v>
+      </c>
+      <c r="AR73" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS73" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT73" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU73" t="n">
         <v>9.5</v>
       </c>
-      <c r="Z73" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA73" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB73" t="n">
-        <v>55</v>
-      </c>
-      <c r="AC73" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="AD73" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AE73" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF73" t="n">
-        <v>200</v>
-      </c>
-      <c r="AG73" t="n">
-        <v>67</v>
-      </c>
-      <c r="AH73" t="n">
+      <c r="AV73" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW73" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX73" t="n">
         <v>9.5</v>
       </c>
-      <c r="AI73" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ73" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK73" t="n">
-        <v>150</v>
-      </c>
-      <c r="AL73" t="n">
-        <v>100</v>
-      </c>
-      <c r="AM73" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN73" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AO73" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP73" t="n">
-        <v>25</v>
-      </c>
-      <c r="AQ73" t="n">
-        <v>37</v>
-      </c>
-      <c r="AR73" t="n">
-        <v>100</v>
-      </c>
-      <c r="AS73" t="n">
-        <v>500</v>
-      </c>
-      <c r="AT73" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="AU73" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AV73" t="n">
-        <v>120</v>
-      </c>
-      <c r="AW73" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX73" t="n">
-        <v>6.8</v>
-      </c>
       <c r="AY73" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AZ73" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="BA73" t="n">
-        <v>300</v>
+        <v>151</v>
       </c>
       <c r="BB73" t="n">
-        <v>450</v>
+        <v>151</v>
       </c>
       <c r="BC73" t="n">
-        <v>67</v>
+        <v>301</v>
       </c>
       <c r="BD73" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>GjyWUcDj</t>
+          <t>Y1UhtUYP</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -13832,172 +13832,536 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>WALES - CYMRU PREMIER</t>
+          <t>UKRAINE - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Rukh Lviv</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>Ch. Odesa</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="H74" t="n">
         <v>3.35</v>
       </c>
       <c r="I74" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J74" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="K74" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="L74" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N74" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="O74" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P74" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R74" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S74" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T74" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U74" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="V74" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W74" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="X74" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>45</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>175</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>67</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AI74" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ74" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AK74" t="n">
+        <v>120</v>
+      </c>
+      <c r="AL74" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM74" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN74" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AO74" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AP74" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ74" t="n">
+        <v>30</v>
+      </c>
+      <c r="AR74" t="n">
+        <v>90</v>
+      </c>
+      <c r="AS74" t="n">
+        <v>450</v>
+      </c>
+      <c r="AT74" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AU74" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV74" t="n">
+        <v>120</v>
+      </c>
+      <c r="AW74" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX74" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AY74" t="n">
+        <v>35</v>
+      </c>
+      <c r="AZ74" t="n">
+        <v>50</v>
+      </c>
+      <c r="BA74" t="n">
+        <v>250</v>
+      </c>
+      <c r="BB74" t="n">
+        <v>350</v>
+      </c>
+      <c r="BC74" t="n">
+        <v>700</v>
+      </c>
+      <c r="BD74" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>hnBPz8dm</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>25/10/2024</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Polissya Zhytomyr</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Kolos Kovalivka</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H75" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I75" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="J75" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K75" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="L75" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="M75" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N75" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O75" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P75" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R75" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S75" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="T75" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U75" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="V75" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="W75" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="X75" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>55</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>200</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>67</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI75" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ75" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK75" t="n">
+        <v>150</v>
+      </c>
+      <c r="AL75" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM75" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN75" t="n">
         <v>3.3</v>
       </c>
-      <c r="J74" t="n">
+      <c r="AO75" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP75" t="n">
+        <v>25</v>
+      </c>
+      <c r="AQ75" t="n">
+        <v>37</v>
+      </c>
+      <c r="AR75" t="n">
+        <v>100</v>
+      </c>
+      <c r="AS75" t="n">
+        <v>500</v>
+      </c>
+      <c r="AT75" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AU75" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AV75" t="n">
+        <v>120</v>
+      </c>
+      <c r="AW75" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX75" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AY75" t="n">
+        <v>40</v>
+      </c>
+      <c r="AZ75" t="n">
+        <v>50</v>
+      </c>
+      <c r="BA75" t="n">
+        <v>300</v>
+      </c>
+      <c r="BB75" t="n">
+        <v>450</v>
+      </c>
+      <c r="BC75" t="n">
+        <v>67</v>
+      </c>
+      <c r="BD75" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>GjyWUcDj</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>25/10/2024</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>15:45</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>WALES - CYMRU PREMIER</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Cardiff Metropolitan</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Newtown</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>2</v>
+      </c>
+      <c r="H76" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I76" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J76" t="n">
         <v>2.6</v>
       </c>
-      <c r="K74" t="n">
+      <c r="K76" t="n">
         <v>2.18</v>
       </c>
-      <c r="L74" t="n">
+      <c r="L76" t="n">
         <v>3.75</v>
       </c>
-      <c r="M74" t="n">
+      <c r="M76" t="n">
         <v>1.05</v>
       </c>
-      <c r="N74" t="n">
+      <c r="N76" t="n">
         <v>8</v>
       </c>
-      <c r="O74" t="n">
+      <c r="O76" t="n">
         <v>1.23</v>
       </c>
-      <c r="P74" t="n">
+      <c r="P76" t="n">
         <v>3.75</v>
       </c>
-      <c r="Q74" t="n">
+      <c r="Q76" t="n">
         <v>1.7</v>
       </c>
-      <c r="R74" t="n">
+      <c r="R76" t="n">
         <v>2.07</v>
       </c>
-      <c r="S74" t="n">
+      <c r="S76" t="n">
         <v>1.35</v>
       </c>
-      <c r="T74" t="n">
+      <c r="T76" t="n">
         <v>2.95</v>
       </c>
-      <c r="U74" t="n">
+      <c r="U76" t="n">
         <v>1.6</v>
       </c>
-      <c r="V74" t="n">
+      <c r="V76" t="n">
         <v>2.22</v>
       </c>
-      <c r="W74" t="n">
+      <c r="W76" t="n">
         <v>8.75</v>
       </c>
-      <c r="X74" t="n">
+      <c r="X76" t="n">
         <v>10.75</v>
       </c>
-      <c r="Y74" t="n">
+      <c r="Y76" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z74" t="n">
+      <c r="Z76" t="n">
         <v>19</v>
       </c>
-      <c r="AA74" t="n">
+      <c r="AA76" t="n">
         <v>15</v>
       </c>
-      <c r="AB74" t="n">
+      <c r="AB76" t="n">
         <v>22</v>
       </c>
-      <c r="AC74" t="n">
+      <c r="AC76" t="n">
         <v>8</v>
       </c>
-      <c r="AD74" t="n">
+      <c r="AD76" t="n">
         <v>6.8</v>
       </c>
-      <c r="AE74" t="n">
+      <c r="AE76" t="n">
         <v>12</v>
       </c>
-      <c r="AF74" t="n">
+      <c r="AF76" t="n">
         <v>45</v>
       </c>
-      <c r="AG74" t="n">
+      <c r="AG76" t="n">
         <v>300</v>
       </c>
-      <c r="AH74" t="n">
+      <c r="AH76" t="n">
         <v>12.5</v>
       </c>
-      <c r="AI74" t="n">
+      <c r="AI76" t="n">
         <v>20</v>
       </c>
-      <c r="AJ74" t="n">
+      <c r="AJ76" t="n">
         <v>11.25</v>
       </c>
-      <c r="AK74" t="n">
+      <c r="AK76" t="n">
         <v>45</v>
       </c>
-      <c r="AL74" t="n">
+      <c r="AL76" t="n">
         <v>27</v>
       </c>
-      <c r="AM74" t="n">
+      <c r="AM76" t="n">
         <v>28</v>
       </c>
-      <c r="AN74" t="n">
+      <c r="AN76" t="n">
         <v>4.1</v>
       </c>
-      <c r="AO74" t="n">
+      <c r="AO76" t="n">
         <v>10.25</v>
       </c>
-      <c r="AP74" t="n">
+      <c r="AP76" t="n">
         <v>17</v>
       </c>
-      <c r="AQ74" t="n">
+      <c r="AQ76" t="n">
         <v>37</v>
       </c>
-      <c r="AR74" t="n">
+      <c r="AR76" t="n">
         <v>60</v>
       </c>
-      <c r="AS74" t="n">
+      <c r="AS76" t="n">
         <v>175</v>
       </c>
-      <c r="AT74" t="n">
+      <c r="AT76" t="n">
         <v>2.95</v>
       </c>
-      <c r="AU74" t="n">
+      <c r="AU76" t="n">
         <v>6.6</v>
       </c>
-      <c r="AV74" t="n">
+      <c r="AV76" t="n">
         <v>50</v>
       </c>
-      <c r="AW74" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX74" t="n">
+      <c r="AW76" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX76" t="n">
         <v>5.5</v>
       </c>
-      <c r="AY74" t="n">
+      <c r="AY76" t="n">
         <v>18</v>
       </c>
-      <c r="AZ74" t="n">
+      <c r="AZ76" t="n">
         <v>21</v>
       </c>
-      <c r="BA74" t="n">
+      <c r="BA76" t="n">
         <v>80</v>
       </c>
-      <c r="BB74" t="n">
+      <c r="BB76" t="n">
         <v>100</v>
       </c>
-      <c r="BC74" t="n">
+      <c r="BC76" t="n">
         <v>250</v>
       </c>
-      <c r="BD74" t="n">
+      <c r="BD76" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD81"/>
+  <dimension ref="A1:BD83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2203,28 +2203,28 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="H10" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I10" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K10" t="n">
         <v>2.05</v>
       </c>
       <c r="L10" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="M10" t="n">
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O10" t="n">
         <v>1.36</v>
@@ -2245,13 +2245,13 @@
         <v>2.63</v>
       </c>
       <c r="U10" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V10" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X10" t="n">
         <v>15</v>
@@ -2263,7 +2263,7 @@
         <v>34</v>
       </c>
       <c r="AA10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB10" t="n">
         <v>41</v>
@@ -2281,13 +2281,13 @@
         <v>51</v>
       </c>
       <c r="AG10" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH10" t="n">
         <v>7</v>
       </c>
       <c r="AI10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ10" t="n">
         <v>9.5</v>
@@ -2296,28 +2296,28 @@
         <v>21</v>
       </c>
       <c r="AL10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN10" t="n">
         <v>5</v>
       </c>
       <c r="AO10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP10" t="n">
         <v>29</v>
       </c>
       <c r="AQ10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR10" t="n">
         <v>81</v>
       </c>
       <c r="AS10" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT10" t="n">
         <v>2.63</v>
@@ -2332,13 +2332,13 @@
         <v>126</v>
       </c>
       <c r="AX10" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AY10" t="n">
         <v>13</v>
       </c>
       <c r="AZ10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA10" t="n">
         <v>41</v>
@@ -3659,7 +3659,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H18" t="n">
         <v>2.9</v>
@@ -3668,7 +3668,7 @@
         <v>3.6</v>
       </c>
       <c r="J18" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K18" t="n">
         <v>1.95</v>
@@ -3677,10 +3677,10 @@
         <v>4.33</v>
       </c>
       <c r="M18" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N18" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O18" t="n">
         <v>1.44</v>
@@ -3841,19 +3841,19 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H19" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I19" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J19" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K19" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L19" t="n">
         <v>6</v>
@@ -3871,10 +3871,10 @@
         <v>2.75</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R19" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S19" t="n">
         <v>1.5</v>
@@ -3901,13 +3901,13 @@
         <v>12</v>
       </c>
       <c r="AA19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB19" t="n">
         <v>34</v>
       </c>
       <c r="AC19" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD19" t="n">
         <v>7</v>
@@ -3916,13 +3916,13 @@
         <v>21</v>
       </c>
       <c r="AF19" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG19" t="n">
         <v>201</v>
       </c>
       <c r="AH19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI19" t="n">
         <v>26</v>
@@ -3949,7 +3949,7 @@
         <v>23</v>
       </c>
       <c r="AQ19" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR19" t="n">
         <v>51</v>
@@ -3973,7 +3973,7 @@
         <v>7</v>
       </c>
       <c r="AY19" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ19" t="n">
         <v>41</v>
@@ -4569,7 +4569,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H23" t="n">
         <v>3.3</v>
@@ -4587,10 +4587,10 @@
         <v>5.5</v>
       </c>
       <c r="M23" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O23" t="n">
         <v>1.44</v>
@@ -4605,16 +4605,16 @@
         <v>1.53</v>
       </c>
       <c r="S23" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T23" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="U23" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V23" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W23" t="n">
         <v>5.5</v>
@@ -4632,7 +4632,7 @@
         <v>17</v>
       </c>
       <c r="AB23" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC23" t="n">
         <v>7</v>
@@ -4686,7 +4686,7 @@
         <v>251</v>
       </c>
       <c r="AT23" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU23" t="n">
         <v>9.5</v>
@@ -9090,7 +9090,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>EN8jc4Kc</t>
+          <t>fuXEh68c</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -9100,179 +9100,179 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Cancun</t>
+          <t>Santos Laguna</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Atl. Morelia</t>
+          <t>Mazatlan FC</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.65</v>
+        <v>3.75</v>
       </c>
       <c r="H48" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="I48" t="n">
-        <v>4.9</v>
+        <v>2</v>
       </c>
       <c r="J48" t="n">
-        <v>2.18</v>
+        <v>3.75</v>
       </c>
       <c r="K48" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="L48" t="n">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="M48" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N48" t="n">
-        <v>7.8</v>
+        <v>13</v>
       </c>
       <c r="O48" t="n">
-        <v>1.31</v>
+        <v>1.2</v>
       </c>
       <c r="P48" t="n">
-        <v>2.9</v>
+        <v>4.33</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.98</v>
+        <v>1.7</v>
       </c>
       <c r="R48" t="n">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="S48" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="T48" t="n">
-        <v>2.52</v>
+        <v>3.25</v>
       </c>
       <c r="U48" t="n">
-        <v>1.88</v>
+        <v>1.62</v>
       </c>
       <c r="V48" t="n">
-        <v>1.72</v>
+        <v>2.2</v>
       </c>
       <c r="W48" t="n">
-        <v>6.1</v>
+        <v>13</v>
       </c>
       <c r="X48" t="n">
-        <v>7.2</v>
+        <v>21</v>
       </c>
       <c r="Y48" t="n">
-        <v>8.25</v>
+        <v>13</v>
       </c>
       <c r="Z48" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE48" t="n">
         <v>12</v>
       </c>
-      <c r="AA48" t="n">
-        <v>14</v>
-      </c>
-      <c r="AB48" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>17</v>
-      </c>
       <c r="AF48" t="n">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="AG48" t="n">
-        <v>800</v>
+        <v>151</v>
       </c>
       <c r="AH48" t="n">
-        <v>12.5</v>
+        <v>9</v>
       </c>
       <c r="AI48" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="AJ48" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AK48" t="n">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="AL48" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="AM48" t="n">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="AN48" t="n">
-        <v>3.45</v>
+        <v>5.5</v>
       </c>
       <c r="AO48" t="n">
-        <v>7.8</v>
+        <v>19</v>
       </c>
       <c r="AP48" t="n">
-        <v>17.5</v>
+        <v>23</v>
       </c>
       <c r="AQ48" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="AR48" t="n">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="AS48" t="n">
-        <v>250</v>
+        <v>151</v>
       </c>
       <c r="AT48" t="n">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="AU48" t="n">
         <v>7.5</v>
       </c>
       <c r="AV48" t="n">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="AW48" t="n">
-        <v>51</v>
+        <v>451</v>
       </c>
       <c r="AX48" t="n">
-        <v>6.5</v>
+        <v>4.33</v>
       </c>
       <c r="AY48" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="AZ48" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="BA48" t="n">
-        <v>175</v>
+        <v>34</v>
       </c>
       <c r="BB48" t="n">
-        <v>200</v>
+        <v>51</v>
       </c>
       <c r="BC48" t="n">
-        <v>400</v>
+        <v>101</v>
       </c>
       <c r="BD48" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>0ji5D4v2</t>
+          <t>EN8jc4Kc</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -9282,170 +9282,170 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Maghreb Fez</t>
+          <t>Cancun</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Raja Casablanca</t>
+          <t>Atl. Morelia</t>
         </is>
       </c>
       <c r="G49" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H49" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I49" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J49" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="K49" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="L49" t="n">
         <v>5</v>
       </c>
-      <c r="H49" t="n">
-        <v>3</v>
-      </c>
-      <c r="I49" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="J49" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="K49" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="L49" t="n">
-        <v>2.5</v>
-      </c>
       <c r="M49" t="n">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="N49" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P49" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T49" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="U49" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="V49" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="W49" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="X49" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>90</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>90</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>55</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT49" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AU49" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV49" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW49" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX49" t="n">
         <v>6.5</v>
       </c>
-      <c r="O49" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P49" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R49" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S49" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T49" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U49" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V49" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W49" t="n">
-        <v>10</v>
-      </c>
-      <c r="X49" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y49" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z49" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA49" t="n">
-        <v>51</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF49" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG49" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH49" t="n">
-        <v>5</v>
-      </c>
-      <c r="AI49" t="n">
-        <v>7</v>
-      </c>
-      <c r="AJ49" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK49" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL49" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM49" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN49" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AO49" t="n">
-        <v>29</v>
-      </c>
-      <c r="AP49" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ49" t="n">
-        <v>126</v>
-      </c>
-      <c r="AR49" t="n">
-        <v>151</v>
-      </c>
-      <c r="AS49" t="n">
-        <v>51</v>
-      </c>
-      <c r="AT49" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU49" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV49" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW49" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX49" t="n">
-        <v>3.6</v>
-      </c>
       <c r="AY49" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="AZ49" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="BA49" t="n">
-        <v>34</v>
+        <v>175</v>
       </c>
       <c r="BB49" t="n">
-        <v>67</v>
+        <v>200</v>
       </c>
       <c r="BC49" t="n">
-        <v>251</v>
+        <v>400</v>
       </c>
       <c r="BD49" t="n">
         <v>51</v>
@@ -9454,7 +9454,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Sdqiy8W8</t>
+          <t>SS3Wi9rI</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -9464,170 +9464,170 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Moghreb Tetouan</t>
+          <t>Zacatecas Mineros</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Chabab Mohammedia</t>
+          <t>Atlante</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="H50" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="I50" t="n">
-        <v>6.25</v>
+        <v>2.45</v>
       </c>
       <c r="J50" t="n">
-        <v>2.38</v>
+        <v>3.4</v>
       </c>
       <c r="K50" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="L50" t="n">
-        <v>7</v>
+        <v>3.05</v>
       </c>
       <c r="M50" t="n">
-        <v>1.13</v>
+        <v>1.03</v>
       </c>
       <c r="N50" t="n">
-        <v>6</v>
+        <v>6.9</v>
       </c>
       <c r="O50" t="n">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="P50" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T50" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U50" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="V50" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="W50" t="n">
+        <v>9</v>
+      </c>
+      <c r="X50" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>22</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>70</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>90</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT50" t="n">
         <v>2.5</v>
       </c>
-      <c r="Q50" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R50" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S50" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T50" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U50" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V50" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W50" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="X50" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y50" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z50" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA50" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB50" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC50" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD50" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE50" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF50" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG50" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH50" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI50" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ50" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK50" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL50" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM50" t="n">
-        <v>67</v>
-      </c>
-      <c r="AN50" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO50" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP50" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ50" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR50" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS50" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT50" t="n">
-        <v>2.25</v>
-      </c>
       <c r="AU50" t="n">
-        <v>11</v>
+        <v>6.4</v>
       </c>
       <c r="AV50" t="n">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="AW50" t="n">
         <v>51</v>
       </c>
       <c r="AX50" t="n">
-        <v>7.5</v>
+        <v>4.35</v>
       </c>
       <c r="AY50" t="n">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="AZ50" t="n">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="BA50" t="n">
-        <v>151</v>
+        <v>55</v>
       </c>
       <c r="BB50" t="n">
-        <v>251</v>
+        <v>90</v>
       </c>
       <c r="BC50" t="n">
-        <v>51</v>
+        <v>250</v>
       </c>
       <c r="BD50" t="n">
         <v>51</v>
@@ -9636,7 +9636,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>vTURZ8et</t>
+          <t>0ji5D4v2</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -9646,179 +9646,179 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Den Haag</t>
+          <t>Maghreb Fez</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>Raja Casablanca</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.85</v>
+        <v>5</v>
       </c>
       <c r="H51" t="n">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="I51" t="n">
-        <v>3.7</v>
+        <v>1.73</v>
       </c>
       <c r="J51" t="n">
-        <v>2.38</v>
+        <v>5.5</v>
       </c>
       <c r="K51" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="L51" t="n">
         <v>2.5</v>
       </c>
-      <c r="L51" t="n">
-        <v>3.75</v>
-      </c>
       <c r="M51" t="n">
-        <v>1.02</v>
+        <v>1.11</v>
       </c>
       <c r="N51" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P51" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T51" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U51" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V51" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W51" t="n">
+        <v>10</v>
+      </c>
+      <c r="X51" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE51" t="n">
         <v>21</v>
       </c>
-      <c r="O51" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P51" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R51" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="S51" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T51" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U51" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V51" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="W51" t="n">
-        <v>12</v>
-      </c>
-      <c r="X51" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y51" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z51" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA51" t="n">
+      <c r="AF51" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK51" t="n">
         <v>13</v>
       </c>
-      <c r="AB51" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC51" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD51" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE51" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF51" t="n">
+      <c r="AL51" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AO51" t="n">
         <v>29</v>
       </c>
-      <c r="AG51" t="n">
+      <c r="AP51" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>126</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS51" t="n">
+        <v>51</v>
+      </c>
+      <c r="AT51" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU51" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV51" t="n">
         <v>81</v>
       </c>
-      <c r="AH51" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI51" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ51" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK51" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL51" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM51" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN51" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO51" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP51" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ51" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR51" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS51" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT51" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU51" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV51" t="n">
-        <v>41</v>
-      </c>
       <c r="AW51" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX51" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AY51" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ51" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA51" t="n">
+        <v>34</v>
+      </c>
+      <c r="BB51" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC51" t="n">
         <v>251</v>
       </c>
-      <c r="AX51" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY51" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ51" t="n">
-        <v>21</v>
-      </c>
-      <c r="BA51" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB51" t="n">
-        <v>51</v>
-      </c>
-      <c r="BC51" t="n">
-        <v>101</v>
-      </c>
       <c r="BD51" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>zeOzYnQh</t>
+          <t>Sdqiy8W8</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -9828,179 +9828,179 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Dordrecht</t>
+          <t>Moghreb Tetouan</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Jong Utrecht</t>
+          <t>Chabab Mohammedia</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="H52" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K52" t="n">
+        <v>2</v>
+      </c>
+      <c r="L52" t="n">
+        <v>7</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N52" t="n">
+        <v>6</v>
+      </c>
+      <c r="O52" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P52" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T52" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U52" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W52" t="n">
         <v>4.75</v>
       </c>
-      <c r="I52" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="K52" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L52" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M52" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N52" t="n">
-        <v>19</v>
-      </c>
-      <c r="O52" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P52" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R52" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S52" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T52" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U52" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V52" t="n">
-        <v>2</v>
-      </c>
-      <c r="W52" t="n">
-        <v>9</v>
-      </c>
       <c r="X52" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Y52" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z52" t="n">
         <v>11</v>
       </c>
       <c r="AA52" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT52" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU52" t="n">
         <v>11</v>
       </c>
-      <c r="AB52" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC52" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD52" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE52" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF52" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG52" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH52" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI52" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ52" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK52" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL52" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM52" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN52" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO52" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP52" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ52" t="n">
-        <v>19</v>
-      </c>
-      <c r="AR52" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS52" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT52" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU52" t="n">
-        <v>8</v>
-      </c>
       <c r="AV52" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AW52" t="n">
-        <v>351</v>
+        <v>51</v>
       </c>
       <c r="AX52" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AY52" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AZ52" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="BA52" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BB52" t="n">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="BC52" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="BD52" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>27FiU4PH</t>
+          <t>vTURZ8et</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -10020,37 +10020,37 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>FC Volendam</t>
+          <t>Den Haag</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Eindhoven FC</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.45</v>
+        <v>1.85</v>
       </c>
       <c r="H53" t="n">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="I53" t="n">
-        <v>6.25</v>
+        <v>3.7</v>
       </c>
       <c r="J53" t="n">
-        <v>1.91</v>
+        <v>2.38</v>
       </c>
       <c r="K53" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="L53" t="n">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M53" t="n">
         <v>1.02</v>
       </c>
       <c r="N53" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O53" t="n">
         <v>1.13</v>
@@ -10065,115 +10065,115 @@
         <v>2.7</v>
       </c>
       <c r="S53" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="T53" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U53" t="n">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="V53" t="n">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="W53" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X53" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="Y53" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z53" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AA53" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AB53" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC53" t="n">
         <v>21</v>
       </c>
       <c r="AD53" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>81</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO53" t="n">
         <v>9.5</v>
-      </c>
-      <c r="AE53" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF53" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG53" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH53" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI53" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ53" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK53" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL53" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM53" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN53" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO53" t="n">
-        <v>7</v>
       </c>
       <c r="AP53" t="n">
         <v>15</v>
       </c>
       <c r="AQ53" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AR53" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AS53" t="n">
         <v>81</v>
       </c>
       <c r="AT53" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AU53" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV53" t="n">
         <v>41</v>
       </c>
       <c r="AW53" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AX53" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AY53" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AZ53" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="BA53" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BB53" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BC53" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="BD53" t="n">
         <v>151</v>
@@ -10182,7 +10182,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>lblAnnun</t>
+          <t>zeOzYnQh</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -10202,37 +10202,37 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Oss</t>
+          <t>Dordrecht</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Jong AZ</t>
+          <t>Jong Utrecht</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.3</v>
+        <v>1.45</v>
       </c>
       <c r="H54" t="n">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="I54" t="n">
-        <v>2.9</v>
+        <v>5.75</v>
       </c>
       <c r="J54" t="n">
-        <v>2.88</v>
+        <v>1.95</v>
       </c>
       <c r="K54" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="L54" t="n">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="M54" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N54" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="O54" t="n">
         <v>1.17</v>
@@ -10241,10 +10241,10 @@
         <v>5</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R54" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S54" t="n">
         <v>1.29</v>
@@ -10253,25 +10253,25 @@
         <v>3.5</v>
       </c>
       <c r="U54" t="n">
-        <v>1.5</v>
+        <v>1.73</v>
       </c>
       <c r="V54" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="W54" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="X54" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="Y54" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z54" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="AA54" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AB54" t="n">
         <v>21</v>
@@ -10280,49 +10280,49 @@
         <v>17</v>
       </c>
       <c r="AD54" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO54" t="n">
         <v>7</v>
       </c>
-      <c r="AE54" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF54" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG54" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH54" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI54" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ54" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK54" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL54" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM54" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN54" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO54" t="n">
-        <v>12</v>
-      </c>
       <c r="AP54" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ54" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="AR54" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS54" t="n">
         <v>101</v>
@@ -10331,31 +10331,31 @@
         <v>3.5</v>
       </c>
       <c r="AU54" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV54" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW54" t="n">
         <v>351</v>
       </c>
       <c r="AX54" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AY54" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AZ54" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="BA54" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="BB54" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BC54" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BD54" t="n">
         <v>151</v>
@@ -10364,7 +10364,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>AXIaSrfU</t>
+          <t>27FiU4PH</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -10384,19 +10384,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Roda</t>
+          <t>FC Volendam</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Jong Ajax</t>
+          <t>Eindhoven FC</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="H55" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I55" t="n">
         <v>6.25</v>
@@ -10405,7 +10405,7 @@
         <v>1.91</v>
       </c>
       <c r="K55" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="L55" t="n">
         <v>5.5</v>
@@ -10414,7 +10414,7 @@
         <v>1.02</v>
       </c>
       <c r="N55" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O55" t="n">
         <v>1.13</v>
@@ -10444,13 +10444,13 @@
         <v>11</v>
       </c>
       <c r="X55" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y55" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z55" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA55" t="n">
         <v>11</v>
@@ -10462,7 +10462,7 @@
         <v>21</v>
       </c>
       <c r="AD55" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE55" t="n">
         <v>15</v>
@@ -10477,7 +10477,7 @@
         <v>23</v>
       </c>
       <c r="AI55" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ55" t="n">
         <v>19</v>
@@ -10489,7 +10489,7 @@
         <v>41</v>
       </c>
       <c r="AM55" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN55" t="n">
         <v>3.75</v>
@@ -10498,10 +10498,10 @@
         <v>7</v>
       </c>
       <c r="AP55" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ55" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AR55" t="n">
         <v>34</v>
@@ -10519,13 +10519,13 @@
         <v>41</v>
       </c>
       <c r="AW55" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AX55" t="n">
         <v>8</v>
       </c>
       <c r="AY55" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ55" t="n">
         <v>26</v>
@@ -10546,7 +10546,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SOHIr4vB</t>
+          <t>lblAnnun</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -10566,37 +10566,37 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Venlo</t>
+          <t>Oss</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>Jong AZ</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="H56" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="I56" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="J56" t="n">
-        <v>3.4</v>
+        <v>2.88</v>
       </c>
       <c r="K56" t="n">
         <v>2.4</v>
       </c>
       <c r="L56" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="M56" t="n">
         <v>1.03</v>
       </c>
       <c r="N56" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O56" t="n">
         <v>1.17</v>
@@ -10605,10 +10605,10 @@
         <v>5</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R56" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="S56" t="n">
         <v>1.29</v>
@@ -10623,31 +10623,31 @@
         <v>2.5</v>
       </c>
       <c r="W56" t="n">
+        <v>12</v>
+      </c>
+      <c r="X56" t="n">
         <v>13</v>
       </c>
-      <c r="X56" t="n">
+      <c r="Y56" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA56" t="n">
         <v>17</v>
       </c>
-      <c r="Y56" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z56" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA56" t="n">
+      <c r="AB56" t="n">
         <v>21</v>
-      </c>
-      <c r="AB56" t="n">
-        <v>23</v>
       </c>
       <c r="AC56" t="n">
         <v>17</v>
       </c>
       <c r="AD56" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE56" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF56" t="n">
         <v>34</v>
@@ -10656,31 +10656,31 @@
         <v>101</v>
       </c>
       <c r="AH56" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ56" t="n">
         <v>11</v>
       </c>
-      <c r="AI56" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ56" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AK56" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL56" t="n">
         <v>21</v>
       </c>
-      <c r="AL56" t="n">
-        <v>15</v>
-      </c>
       <c r="AM56" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN56" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO56" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AP56" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AQ56" t="n">
         <v>41</v>
@@ -10704,16 +10704,16 @@
         <v>351</v>
       </c>
       <c r="AX56" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AY56" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ56" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BA56" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BB56" t="n">
         <v>51</v>
@@ -10728,7 +10728,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>MBnIpQ9b</t>
+          <t>AXIaSrfU</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -10748,31 +10748,31 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Vitesse</t>
+          <t>Roda</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Jong PSV</t>
+          <t>Jong Ajax</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.1</v>
+        <v>1.42</v>
       </c>
       <c r="H57" t="n">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="I57" t="n">
-        <v>3.1</v>
+        <v>6.25</v>
       </c>
       <c r="J57" t="n">
-        <v>2.5</v>
+        <v>1.91</v>
       </c>
       <c r="K57" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="L57" t="n">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="M57" t="n">
         <v>1.02</v>
@@ -10781,127 +10781,127 @@
         <v>21</v>
       </c>
       <c r="O57" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="P57" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R57" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T57" t="n">
+        <v>4</v>
+      </c>
+      <c r="U57" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V57" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W57" t="n">
+        <v>11</v>
+      </c>
+      <c r="X57" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO57" t="n">
         <v>7</v>
       </c>
-      <c r="Q57" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="R57" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="S57" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="T57" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="U57" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="V57" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="W57" t="n">
-        <v>15</v>
-      </c>
-      <c r="X57" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y57" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z57" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA57" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB57" t="n">
+      <c r="AP57" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ57" t="n">
         <v>17</v>
       </c>
-      <c r="AC57" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD57" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE57" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF57" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG57" t="n">
-        <v>67</v>
-      </c>
-      <c r="AH57" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI57" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ57" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK57" t="n">
+      <c r="AR57" t="n">
         <v>34</v>
       </c>
-      <c r="AL57" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM57" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN57" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO57" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP57" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ57" t="n">
+      <c r="AS57" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT57" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU57" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV57" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW57" t="n">
+        <v>301</v>
+      </c>
+      <c r="AX57" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY57" t="n">
         <v>29</v>
       </c>
-      <c r="AR57" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS57" t="n">
-        <v>67</v>
-      </c>
-      <c r="AT57" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AU57" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AV57" t="n">
-        <v>34</v>
-      </c>
-      <c r="AW57" t="n">
-        <v>201</v>
-      </c>
-      <c r="AX57" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY57" t="n">
-        <v>15</v>
-      </c>
       <c r="AZ57" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="BA57" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="BB57" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="BC57" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BD57" t="n">
         <v>151</v>
@@ -10910,7 +10910,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>CUQsbGnU</t>
+          <t>SOHIr4vB</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -10920,77 +10920,77 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>NORWAY - OBOS-LIGAEN</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Venlo</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Valerenga</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H58" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I58" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J58" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="K58" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L58" t="n">
         <v>2.75</v>
       </c>
       <c r="M58" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N58" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O58" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="P58" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="R58" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="S58" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T58" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U58" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="V58" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="W58" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X58" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y58" t="n">
         <v>11</v>
@@ -10999,52 +10999,52 @@
         <v>29</v>
       </c>
       <c r="AA58" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB58" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK58" t="n">
         <v>21</v>
-      </c>
-      <c r="AC58" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD58" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE58" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF58" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG58" t="n">
-        <v>81</v>
-      </c>
-      <c r="AH58" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI58" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ58" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK58" t="n">
-        <v>23</v>
       </c>
       <c r="AL58" t="n">
         <v>15</v>
       </c>
       <c r="AM58" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN58" t="n">
         <v>5.5</v>
       </c>
       <c r="AO58" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP58" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AQ58" t="n">
         <v>41</v>
@@ -11053,22 +11053,22 @@
         <v>51</v>
       </c>
       <c r="AS58" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AT58" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU58" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AV58" t="n">
         <v>41</v>
       </c>
       <c r="AW58" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AX58" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AY58" t="n">
         <v>12</v>
@@ -11080,10 +11080,10 @@
         <v>34</v>
       </c>
       <c r="BB58" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BC58" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BD58" t="n">
         <v>151</v>
@@ -11092,7 +11092,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>S0Lx5had</t>
+          <t>MBnIpQ9b</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -11102,179 +11102,179 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Nacional Asuncion</t>
+          <t>Vitesse</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>General Caballero JLM</t>
+          <t>Jong PSV</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="H59" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="I59" t="n">
-        <v>4.33</v>
+        <v>3.1</v>
       </c>
       <c r="J59" t="n">
         <v>2.5</v>
       </c>
       <c r="K59" t="n">
-        <v>2.05</v>
+        <v>2.63</v>
       </c>
       <c r="L59" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N59" t="n">
+        <v>21</v>
+      </c>
+      <c r="O59" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P59" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S59" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="T59" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U59" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="V59" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W59" t="n">
+        <v>15</v>
+      </c>
+      <c r="X59" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>67</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN59" t="n">
         <v>5</v>
       </c>
-      <c r="M59" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N59" t="n">
-        <v>9</v>
-      </c>
-      <c r="O59" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P59" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R59" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S59" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T59" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U59" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V59" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W59" t="n">
+      <c r="AO59" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR59" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS59" t="n">
+        <v>67</v>
+      </c>
+      <c r="AT59" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AU59" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AV59" t="n">
+        <v>34</v>
+      </c>
+      <c r="AW59" t="n">
+        <v>201</v>
+      </c>
+      <c r="AX59" t="n">
         <v>6</v>
       </c>
-      <c r="X59" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y59" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z59" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA59" t="n">
+      <c r="AY59" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ59" t="n">
         <v>17</v>
       </c>
-      <c r="AB59" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC59" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD59" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE59" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF59" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG59" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AH59" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI59" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ59" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK59" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL59" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM59" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN59" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO59" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP59" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ59" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR59" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS59" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT59" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU59" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV59" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW59" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX59" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AY59" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ59" t="n">
-        <v>41</v>
-      </c>
       <c r="BA59" t="n">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="BB59" t="n">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="BC59" t="n">
-        <v>351</v>
+        <v>81</v>
       </c>
       <c r="BD59" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>f7DOSei3</t>
+          <t>CUQsbGnU</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -11284,179 +11284,179 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>NORWAY - OBOS-LIGAEN</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Libertad Asuncion</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Ameliano</t>
+          <t>Valerenga</t>
         </is>
       </c>
       <c r="G60" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H60" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I60" t="n">
         <v>2.25</v>
       </c>
-      <c r="H60" t="n">
-        <v>3</v>
-      </c>
-      <c r="I60" t="n">
-        <v>3.3</v>
-      </c>
       <c r="J60" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K60" t="n">
-        <v>1.83</v>
+        <v>2.5</v>
       </c>
       <c r="L60" t="n">
-        <v>4.33</v>
+        <v>2.75</v>
       </c>
       <c r="M60" t="n">
-        <v>1.11</v>
+        <v>1.02</v>
       </c>
       <c r="N60" t="n">
-        <v>6.5</v>
+        <v>19</v>
       </c>
       <c r="O60" t="n">
-        <v>1.57</v>
+        <v>1.13</v>
       </c>
       <c r="P60" t="n">
-        <v>2.25</v>
+        <v>6</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.88</v>
+        <v>1.44</v>
       </c>
       <c r="R60" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S60" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T60" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U60" t="n">
         <v>1.4</v>
       </c>
-      <c r="S60" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T60" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U60" t="n">
-        <v>2.25</v>
-      </c>
       <c r="V60" t="n">
-        <v>1.57</v>
+        <v>2.75</v>
       </c>
       <c r="W60" t="n">
-        <v>5.5</v>
+        <v>15</v>
       </c>
       <c r="X60" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="Y60" t="n">
         <v>11</v>
       </c>
       <c r="Z60" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB60" t="n">
         <v>21</v>
       </c>
-      <c r="AA60" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB60" t="n">
-        <v>41</v>
-      </c>
       <c r="AC60" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="AD60" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="AE60" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AF60" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG60" t="n">
         <v>81</v>
       </c>
-      <c r="AG60" t="n">
-        <v>201</v>
-      </c>
       <c r="AH60" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AI60" t="n">
         <v>15</v>
       </c>
       <c r="AJ60" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO60" t="n">
         <v>13</v>
       </c>
-      <c r="AK60" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL60" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM60" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN60" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO60" t="n">
-        <v>15</v>
-      </c>
       <c r="AP60" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="AQ60" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR60" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS60" t="n">
         <v>81</v>
       </c>
-      <c r="AS60" t="n">
-        <v>351</v>
-      </c>
       <c r="AT60" t="n">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="AU60" t="n">
-        <v>9.5</v>
+        <v>6.5</v>
       </c>
       <c r="AV60" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AW60" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="AX60" t="n">
         <v>5</v>
       </c>
       <c r="AY60" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AZ60" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="BA60" t="n">
+        <v>34</v>
+      </c>
+      <c r="BB60" t="n">
+        <v>41</v>
+      </c>
+      <c r="BC60" t="n">
         <v>81</v>
       </c>
-      <c r="BB60" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC60" t="n">
-        <v>351</v>
-      </c>
       <c r="BD60" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2oOvgLGE</t>
+          <t>S0Lx5had</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -11466,113 +11466,113 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Piast Gliwice</t>
+          <t>Nacional Asuncion</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Lechia Gdansk</t>
+          <t>General Caballero JLM</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="H61" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="I61" t="n">
-        <v>5.25</v>
+        <v>4.33</v>
       </c>
       <c r="J61" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K61" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L61" t="n">
+        <v>5</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N61" t="n">
+        <v>9</v>
+      </c>
+      <c r="O61" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P61" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R61" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S61" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T61" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U61" t="n">
         <v>2.1</v>
       </c>
-      <c r="K61" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L61" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M61" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N61" t="n">
-        <v>13</v>
-      </c>
-      <c r="O61" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P61" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R61" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="S61" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T61" t="n">
-        <v>3</v>
-      </c>
-      <c r="U61" t="n">
-        <v>1.91</v>
-      </c>
       <c r="V61" t="n">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="W61" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X61" t="n">
         <v>7.5</v>
       </c>
       <c r="Y61" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC61" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z61" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA61" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB61" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC61" t="n">
-        <v>12</v>
-      </c>
       <c r="AD61" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE61" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AF61" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG61" t="n">
-        <v>301</v>
+        <v>1250</v>
       </c>
       <c r="AH61" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ61" t="n">
         <v>15</v>
-      </c>
-      <c r="AI61" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ61" t="n">
-        <v>17</v>
       </c>
       <c r="AK61" t="n">
         <v>51</v>
@@ -11587,40 +11587,40 @@
         <v>3.6</v>
       </c>
       <c r="AO61" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AP61" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AQ61" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AR61" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS61" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="AT61" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AU61" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV61" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW61" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AX61" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AY61" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ61" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA61" t="n">
         <v>101</v>
@@ -11629,16 +11629,16 @@
         <v>126</v>
       </c>
       <c r="BC61" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="BD61" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ABRniaoR</t>
+          <t>f7DOSei3</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -11648,179 +11648,179 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Pogon Szczecin</t>
+          <t>Libertad Asuncion</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Puszcza</t>
+          <t>Ameliano</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.38</v>
+        <v>2.2</v>
       </c>
       <c r="H62" t="n">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="I62" t="n">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="J62" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K62" t="n">
         <v>1.83</v>
       </c>
-      <c r="K62" t="n">
-        <v>2.5</v>
-      </c>
       <c r="L62" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N62" t="n">
+        <v>6</v>
+      </c>
+      <c r="O62" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P62" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R62" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S62" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T62" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U62" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V62" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W62" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X62" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH62" t="n">
         <v>7</v>
       </c>
-      <c r="M62" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N62" t="n">
+      <c r="AI62" t="n">
         <v>15</v>
       </c>
-      <c r="O62" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P62" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R62" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S62" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T62" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U62" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V62" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W62" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X62" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y62" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z62" t="n">
+      <c r="AJ62" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR62" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS62" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT62" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU62" t="n">
         <v>9.5</v>
       </c>
-      <c r="AA62" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB62" t="n">
+      <c r="AV62" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW62" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX62" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY62" t="n">
         <v>23</v>
       </c>
-      <c r="AC62" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD62" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE62" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF62" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG62" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH62" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI62" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ62" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK62" t="n">
+      <c r="AZ62" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA62" t="n">
         <v>81</v>
       </c>
-      <c r="AL62" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM62" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN62" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO62" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP62" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ62" t="n">
-        <v>19</v>
-      </c>
-      <c r="AR62" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS62" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT62" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU62" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV62" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW62" t="n">
-        <v>501</v>
-      </c>
-      <c r="AX62" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AY62" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ62" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA62" t="n">
+      <c r="BB62" t="n">
         <v>126</v>
       </c>
-      <c r="BB62" t="n">
-        <v>151</v>
-      </c>
       <c r="BC62" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="BD62" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>pnFeHfN0</t>
+          <t>2oOvgLGE</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -11835,162 +11835,162 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Chrobry Glogow</t>
+          <t>Piast Gliwice</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Kotwica Kolobrzeg</t>
+          <t>Lechia Gdansk</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.2</v>
+        <v>1.57</v>
       </c>
       <c r="H63" t="n">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="I63" t="n">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="J63" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K63" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L63" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N63" t="n">
+        <v>13</v>
+      </c>
+      <c r="O63" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P63" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R63" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S63" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T63" t="n">
         <v>3</v>
       </c>
-      <c r="K63" t="n">
-        <v>2</v>
-      </c>
-      <c r="L63" t="n">
-        <v>4</v>
-      </c>
-      <c r="M63" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N63" t="n">
+      <c r="U63" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V63" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W63" t="n">
+        <v>7</v>
+      </c>
+      <c r="X63" t="n">
         <v>7.5</v>
       </c>
-      <c r="O63" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P63" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R63" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S63" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T63" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U63" t="n">
-        <v>2</v>
-      </c>
-      <c r="V63" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W63" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X63" t="n">
-        <v>10</v>
-      </c>
       <c r="Y63" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Z63" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AA63" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AB63" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AC63" t="n">
-        <v>7.5</v>
+        <v>12</v>
       </c>
       <c r="AD63" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE63" t="n">
         <v>17</v>
       </c>
       <c r="AF63" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG63" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH63" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO63" t="n">
         <v>8</v>
       </c>
-      <c r="AI63" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ63" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK63" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL63" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM63" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN63" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO63" t="n">
-        <v>13</v>
-      </c>
       <c r="AP63" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AQ63" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AR63" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AS63" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AT63" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AU63" t="n">
         <v>8.5</v>
       </c>
       <c r="AV63" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW63" t="n">
         <v>81</v>
       </c>
       <c r="AX63" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY63" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AZ63" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA63" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BB63" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC63" t="n">
         <v>251</v>
@@ -12002,7 +12002,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>OWQnJGhl</t>
+          <t>ABRniaoR</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -12017,165 +12017,165 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Ruch Chorzow</t>
+          <t>Pogon Szczecin</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Warta Poznan</t>
+          <t>Puszcza</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.75</v>
+        <v>1.38</v>
       </c>
       <c r="H64" t="n">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="I64" t="n">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="J64" t="n">
-        <v>2.4</v>
+        <v>1.83</v>
       </c>
       <c r="K64" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L64" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="M64" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N64" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="O64" t="n">
-        <v>1.4</v>
+        <v>1.18</v>
       </c>
       <c r="P64" t="n">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q64" t="n">
-        <v>2.3</v>
+        <v>1.62</v>
       </c>
       <c r="R64" t="n">
-        <v>1.6</v>
+        <v>2.25</v>
       </c>
       <c r="S64" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="T64" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="U64" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="V64" t="n">
-        <v>1.67</v>
+        <v>1.91</v>
       </c>
       <c r="W64" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="X64" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y64" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD64" t="n">
         <v>9</v>
       </c>
-      <c r="Z64" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA64" t="n">
+      <c r="AE64" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP64" t="n">
         <v>17</v>
       </c>
-      <c r="AB64" t="n">
+      <c r="AQ64" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS64" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT64" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU64" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV64" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW64" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX64" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AY64" t="n">
         <v>34</v>
       </c>
-      <c r="AC64" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD64" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE64" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF64" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG64" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH64" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI64" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ64" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK64" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL64" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM64" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN64" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO64" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP64" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ64" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR64" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS64" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT64" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU64" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV64" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW64" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX64" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AY64" t="n">
-        <v>29</v>
-      </c>
       <c r="AZ64" t="n">
         <v>41</v>
       </c>
       <c r="BA64" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB64" t="n">
         <v>151</v>
       </c>
       <c r="BC64" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="BD64" t="n">
         <v>81</v>
@@ -12184,7 +12184,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ER2eHJ1s</t>
+          <t>pnFeHfN0</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -12194,107 +12194,107 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Chrobry Glogow</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>Kotwica Kolobrzeg</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H65" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I65" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J65" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K65" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L65" t="n">
         <v>4</v>
       </c>
       <c r="M65" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N65" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="O65" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P65" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q65" t="n">
-        <v>2.1</v>
+        <v>2.35</v>
       </c>
       <c r="R65" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="S65" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T65" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U65" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V65" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W65" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X65" t="n">
         <v>10</v>
       </c>
       <c r="Y65" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z65" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA65" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB65" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC65" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AD65" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE65" t="n">
         <v>17</v>
       </c>
       <c r="AF65" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG65" t="n">
         <v>351</v>
       </c>
       <c r="AH65" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI65" t="n">
         <v>15</v>
@@ -12312,13 +12312,13 @@
         <v>41</v>
       </c>
       <c r="AN65" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO65" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP65" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ65" t="n">
         <v>41</v>
@@ -12327,19 +12327,19 @@
         <v>67</v>
       </c>
       <c r="AS65" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT65" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU65" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV65" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW65" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="AX65" t="n">
         <v>5</v>
@@ -12354,19 +12354,19 @@
         <v>67</v>
       </c>
       <c r="BB65" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC65" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD65" t="n">
         <v>81</v>
-      </c>
-      <c r="BC65" t="n">
-        <v>201</v>
-      </c>
-      <c r="BD65" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>viJc2jy8</t>
+          <t>OWQnJGhl</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -12376,158 +12376,158 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Santa Clara</t>
+          <t>Ruch Chorzow</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Gil Vicente</t>
+          <t>Warta Poznan</t>
         </is>
       </c>
       <c r="G66" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H66" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>5</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K66" t="n">
         <v>2.1</v>
       </c>
-      <c r="H66" t="n">
-        <v>3</v>
-      </c>
-      <c r="I66" t="n">
-        <v>4</v>
-      </c>
-      <c r="J66" t="n">
-        <v>3</v>
-      </c>
-      <c r="K66" t="n">
-        <v>1.83</v>
-      </c>
       <c r="L66" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M66" t="n">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="N66" t="n">
+        <v>8</v>
+      </c>
+      <c r="O66" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P66" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R66" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S66" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T66" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U66" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V66" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W66" t="n">
         <v>6</v>
       </c>
-      <c r="O66" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P66" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Q66" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="R66" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S66" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T66" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U66" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V66" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W66" t="n">
-        <v>5</v>
-      </c>
       <c r="X66" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y66" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z66" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AA66" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AB66" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC66" t="n">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD66" t="n">
         <v>6.5</v>
       </c>
       <c r="AE66" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP66" t="n">
         <v>23</v>
       </c>
-      <c r="AF66" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG66" t="n">
-        <v>501</v>
-      </c>
-      <c r="AH66" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI66" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ66" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK66" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL66" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM66" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN66" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO66" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP66" t="n">
+      <c r="AQ66" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR66" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS66" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT66" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU66" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV66" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW66" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX66" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY66" t="n">
         <v>29</v>
-      </c>
-      <c r="AQ66" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR66" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS66" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT66" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AU66" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV66" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW66" t="n">
-        <v>126</v>
-      </c>
-      <c r="AX66" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AY66" t="n">
-        <v>26</v>
       </c>
       <c r="AZ66" t="n">
         <v>41</v>
@@ -12539,16 +12539,16 @@
         <v>151</v>
       </c>
       <c r="BC66" t="n">
-        <v>501</v>
+        <v>351</v>
       </c>
       <c r="BD66" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>xK4wDick</t>
+          <t>ER2eHJ1s</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -12558,47 +12558,47 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Pacos Ferreira</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Vizela</t>
+          <t>Nacional</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="H67" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="I67" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="J67" t="n">
-        <v>3.5</v>
+        <v>2.88</v>
       </c>
       <c r="K67" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L67" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M67" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N67" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O67" t="n">
         <v>1.36</v>
@@ -12607,10 +12607,10 @@
         <v>3</v>
       </c>
       <c r="Q67" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R67" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S67" t="n">
         <v>1.44</v>
@@ -12619,79 +12619,79 @@
         <v>2.63</v>
       </c>
       <c r="U67" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="V67" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W67" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X67" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Y67" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Z67" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB67" t="n">
         <v>29</v>
       </c>
-      <c r="AA67" t="n">
+      <c r="AC67" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP67" t="n">
         <v>23</v>
       </c>
-      <c r="AB67" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC67" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD67" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE67" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF67" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG67" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH67" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI67" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ67" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK67" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL67" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM67" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN67" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO67" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP67" t="n">
-        <v>26</v>
-      </c>
       <c r="AQ67" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR67" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS67" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT67" t="n">
         <v>2.63</v>
@@ -12703,34 +12703,34 @@
         <v>51</v>
       </c>
       <c r="AW67" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX67" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY67" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ67" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA67" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB67" t="n">
         <v>81</v>
-      </c>
-      <c r="AX67" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AY67" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ67" t="n">
-        <v>26</v>
-      </c>
-      <c r="BA67" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB67" t="n">
-        <v>67</v>
       </c>
       <c r="BC67" t="n">
         <v>201</v>
       </c>
       <c r="BD67" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>viNYXqck</t>
+          <t>viJc2jy8</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -12740,179 +12740,179 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>CFR Cluj</t>
+          <t>Santa Clara</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Sepsi Sf. Gheorghe</t>
+          <t>Gil Vicente</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H68" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I68" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="J68" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="K68" t="n">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="L68" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="M68" t="n">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
       <c r="N68" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O68" t="n">
-        <v>1.36</v>
+        <v>1.57</v>
       </c>
       <c r="P68" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="Q68" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R68" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T68" t="n">
         <v>2.2</v>
       </c>
-      <c r="R68" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S68" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T68" t="n">
-        <v>2.63</v>
-      </c>
       <c r="U68" t="n">
-        <v>1.91</v>
+        <v>2.38</v>
       </c>
       <c r="V68" t="n">
-        <v>1.8</v>
+        <v>1.53</v>
       </c>
       <c r="W68" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="X68" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y68" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z68" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA68" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AB68" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC68" t="n">
-        <v>8.5</v>
+        <v>5.5</v>
       </c>
       <c r="AD68" t="n">
         <v>6.5</v>
       </c>
       <c r="AE68" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI68" t="n">
         <v>17</v>
       </c>
-      <c r="AF68" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG68" t="n">
+      <c r="AJ68" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL68" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM68" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO68" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP68" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ68" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR68" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS68" t="n">
         <v>351</v>
       </c>
-      <c r="AH68" t="n">
+      <c r="AT68" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU68" t="n">
         <v>10</v>
       </c>
-      <c r="AI68" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ68" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK68" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL68" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM68" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN68" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO68" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP68" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ68" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR68" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS68" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT68" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU68" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AV68" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AW68" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="AX68" t="n">
         <v>5.5</v>
       </c>
       <c r="AY68" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AZ68" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="BA68" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BB68" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BC68" t="n">
-        <v>251</v>
+        <v>501</v>
       </c>
       <c r="BD68" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>U5ehv3Vb</t>
+          <t>xK4wDick</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -12922,146 +12922,146 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Al Qadisiya</t>
+          <t>Pacos Ferreira</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Damac</t>
+          <t>Vizela</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.52</v>
+        <v>2.7</v>
       </c>
       <c r="H69" t="n">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="I69" t="n">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="J69" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K69" t="n">
         <v>2.05</v>
       </c>
-      <c r="K69" t="n">
-        <v>2.3</v>
-      </c>
       <c r="L69" t="n">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="M69" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N69" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O69" t="n">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="P69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q69" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R69" t="n">
         <v>1.67</v>
       </c>
-      <c r="R69" t="n">
-        <v>2.1</v>
-      </c>
       <c r="S69" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="T69" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="U69" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V69" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W69" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X69" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH69" t="n">
         <v>8</v>
       </c>
-      <c r="Y69" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z69" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA69" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB69" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC69" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD69" t="n">
+      <c r="AI69" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK69" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL69" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM69" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN69" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO69" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP69" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ69" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR69" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS69" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT69" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU69" t="n">
         <v>8</v>
-      </c>
-      <c r="AE69" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF69" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG69" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH69" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI69" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ69" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK69" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL69" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM69" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN69" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO69" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP69" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ69" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR69" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS69" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT69" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU69" t="n">
-        <v>8.5</v>
       </c>
       <c r="AV69" t="n">
         <v>51</v>
@@ -13070,22 +13070,22 @@
         <v>81</v>
       </c>
       <c r="AX69" t="n">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="AY69" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="AZ69" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="BA69" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BB69" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="BC69" t="n">
-        <v>450</v>
+        <v>201</v>
       </c>
       <c r="BD69" t="n">
         <v>81</v>
@@ -13094,7 +13094,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>WATRNsoI</t>
+          <t>viNYXqck</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -13104,143 +13104,143 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>12:05</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Al Kholood</t>
+          <t>CFR Cluj</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Sepsi Sf. Gheorghe</t>
         </is>
       </c>
       <c r="G70" t="n">
+        <v>2</v>
+      </c>
+      <c r="H70" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I70" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J70" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K70" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L70" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N70" t="n">
+        <v>9</v>
+      </c>
+      <c r="O70" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P70" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R70" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S70" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T70" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U70" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V70" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W70" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X70" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC70" t="n">
         <v>8.5</v>
       </c>
-      <c r="H70" t="n">
-        <v>5</v>
-      </c>
-      <c r="I70" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="J70" t="n">
+      <c r="AD70" t="n">
         <v>6.5</v>
       </c>
-      <c r="K70" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L70" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="M70" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N70" t="n">
+      <c r="AE70" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH70" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI70" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ70" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK70" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL70" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM70" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN70" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO70" t="n">
         <v>11</v>
       </c>
-      <c r="O70" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P70" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q70" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="R70" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S70" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T70" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U70" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V70" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W70" t="n">
-        <v>26</v>
-      </c>
-      <c r="X70" t="n">
-        <v>41</v>
-      </c>
-      <c r="Y70" t="n">
+      <c r="AP70" t="n">
         <v>23</v>
       </c>
-      <c r="Z70" t="n">
-        <v>81</v>
-      </c>
-      <c r="AA70" t="n">
-        <v>51</v>
-      </c>
-      <c r="AB70" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC70" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD70" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE70" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF70" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG70" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH70" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI70" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AJ70" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK70" t="n">
-        <v>9</v>
-      </c>
-      <c r="AL70" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM70" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN70" t="n">
-        <v>9</v>
-      </c>
-      <c r="AO70" t="n">
-        <v>34</v>
-      </c>
-      <c r="AP70" t="n">
-        <v>34</v>
-      </c>
       <c r="AQ70" t="n">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="AR70" t="n">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="AS70" t="n">
-        <v>450</v>
+        <v>201</v>
       </c>
       <c r="AT70" t="n">
-        <v>3.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU70" t="n">
         <v>8.5</v>
@@ -13249,34 +13249,34 @@
         <v>51</v>
       </c>
       <c r="AW70" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AX70" t="n">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="AY70" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="AZ70" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="BA70" t="n">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="BB70" t="n">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="BC70" t="n">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="BD70" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>dhcptP0n</t>
+          <t>U5ehv3Vb</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -13286,7 +13286,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -13296,55 +13296,55 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Al Ahli SC</t>
+          <t>Al Qadisiya</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Al Okhdood</t>
+          <t>Damac</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="H71" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I71" t="n">
-        <v>6.25</v>
+        <v>5.25</v>
       </c>
       <c r="J71" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="K71" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L71" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M71" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N71" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O71" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P71" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R71" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S71" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T71" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U71" t="n">
         <v>1.8</v>
@@ -13353,7 +13353,7 @@
         <v>1.91</v>
       </c>
       <c r="W71" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X71" t="n">
         <v>8</v>
@@ -13365,7 +13365,7 @@
         <v>11</v>
       </c>
       <c r="AA71" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB71" t="n">
         <v>23</v>
@@ -13374,7 +13374,7 @@
         <v>13</v>
       </c>
       <c r="AD71" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE71" t="n">
         <v>17</v>
@@ -13383,19 +13383,19 @@
         <v>51</v>
       </c>
       <c r="AG71" t="n">
-        <v>151</v>
+        <v>600</v>
       </c>
       <c r="AH71" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AI71" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ71" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK71" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL71" t="n">
         <v>41</v>
@@ -13407,7 +13407,7 @@
         <v>3.6</v>
       </c>
       <c r="AO71" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AP71" t="n">
         <v>17</v>
@@ -13419,10 +13419,10 @@
         <v>41</v>
       </c>
       <c r="AS71" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT71" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU71" t="n">
         <v>8.5</v>
@@ -13434,7 +13434,7 @@
         <v>81</v>
       </c>
       <c r="AX71" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AY71" t="n">
         <v>29</v>
@@ -13443,13 +13443,13 @@
         <v>34</v>
       </c>
       <c r="BA71" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB71" t="n">
         <v>101</v>
       </c>
       <c r="BC71" t="n">
-        <v>151</v>
+        <v>450</v>
       </c>
       <c r="BD71" t="n">
         <v>81</v>
@@ -13458,7 +13458,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>lnKaZbQH</t>
+          <t>WATRNsoI</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -13468,179 +13468,179 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>12:05</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>IMT Novi Beograd</t>
+          <t>Al Kholood</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Tekstilac Odzaci</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="G72" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+      <c r="I72" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="J72" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K72" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L72" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N72" t="n">
+        <v>11</v>
+      </c>
+      <c r="O72" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="R72" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S72" t="n">
         <v>1.25</v>
       </c>
-      <c r="H72" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>12</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="K72" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="L72" t="n">
+      <c r="T72" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U72" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V72" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W72" t="n">
+        <v>26</v>
+      </c>
+      <c r="X72" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>81</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF72" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH72" t="n">
         <v>9</v>
       </c>
-      <c r="M72" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N72" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="O72" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P72" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="Q72" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R72" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="S72" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="T72" t="n">
-        <v>3</v>
-      </c>
-      <c r="U72" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V72" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W72" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="X72" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="Y72" t="n">
+      <c r="AI72" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AJ72" t="n">
         <v>9</v>
       </c>
-      <c r="Z72" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA72" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AB72" t="n">
-        <v>35</v>
-      </c>
-      <c r="AC72" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AD72" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE72" t="n">
-        <v>27</v>
-      </c>
-      <c r="AF72" t="n">
-        <v>150</v>
-      </c>
-      <c r="AG72" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH72" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI72" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ72" t="n">
-        <v>37</v>
-      </c>
       <c r="AK72" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL72" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM72" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN72" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO72" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP72" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ72" t="n">
+        <v>126</v>
+      </c>
+      <c r="AR72" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS72" t="n">
         <v>450</v>
       </c>
-      <c r="AL72" t="n">
-        <v>175</v>
-      </c>
-      <c r="AM72" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN72" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AO72" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AP72" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ72" t="n">
-        <v>14</v>
-      </c>
-      <c r="AR72" t="n">
-        <v>45</v>
-      </c>
-      <c r="AS72" t="n">
-        <v>300</v>
-      </c>
       <c r="AT72" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="AU72" t="n">
-        <v>9.75</v>
+        <v>8.5</v>
       </c>
       <c r="AV72" t="n">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="AW72" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AX72" t="n">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="AY72" t="n">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="AZ72" t="n">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="BA72" t="n">
-        <v>350</v>
+        <v>15</v>
       </c>
       <c r="BB72" t="n">
-        <v>500</v>
+        <v>34</v>
       </c>
       <c r="BC72" t="n">
-        <v>500</v>
+        <v>101</v>
       </c>
       <c r="BD72" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>zqfQKaBO</t>
+          <t>dhcptP0n</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -13650,179 +13650,179 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Radnicki 1923</t>
+          <t>Al Ahli SC</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Jedinstvo U.</t>
+          <t>Al Okhdood</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.32</v>
+        <v>1.48</v>
       </c>
       <c r="H73" t="n">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="I73" t="n">
-        <v>8.75</v>
+        <v>6.25</v>
       </c>
       <c r="J73" t="n">
-        <v>1.78</v>
+        <v>1.95</v>
       </c>
       <c r="K73" t="n">
         <v>2.4</v>
       </c>
       <c r="L73" t="n">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="M73" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N73" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O73" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P73" t="n">
-        <v>3.9</v>
+        <v>4.33</v>
       </c>
       <c r="Q73" t="n">
         <v>1.65</v>
       </c>
       <c r="R73" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S73" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="T73" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="U73" t="n">
-        <v>2.02</v>
+        <v>1.8</v>
       </c>
       <c r="V73" t="n">
-        <v>1.72</v>
+        <v>1.91</v>
       </c>
       <c r="W73" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X73" t="n">
-        <v>6.3</v>
+        <v>8</v>
       </c>
       <c r="Y73" t="n">
         <v>8.5</v>
       </c>
       <c r="Z73" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AA73" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB73" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AC73" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD73" t="n">
         <v>8.5</v>
       </c>
-      <c r="AD73" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AE73" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AF73" t="n">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="AG73" t="n">
-        <v>900</v>
+        <v>151</v>
       </c>
       <c r="AH73" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AI73" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="AJ73" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="AK73" t="n">
-        <v>250</v>
+        <v>67</v>
       </c>
       <c r="AL73" t="n">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="AM73" t="n">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="AN73" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="AO73" t="n">
-        <v>5.8</v>
+        <v>7.5</v>
       </c>
       <c r="AP73" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AQ73" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AR73" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AS73" t="n">
-        <v>250</v>
+        <v>101</v>
       </c>
       <c r="AT73" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="AU73" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV73" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="AW73" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AX73" t="n">
-        <v>9.25</v>
+        <v>7.5</v>
       </c>
       <c r="AY73" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="AZ73" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="BA73" t="n">
-        <v>400</v>
+        <v>101</v>
       </c>
       <c r="BB73" t="n">
-        <v>400</v>
+        <v>101</v>
       </c>
       <c r="BC73" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="BD73" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>reMfU7iL</t>
+          <t>lnKaZbQH</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -13832,170 +13832,170 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Aarau</t>
+          <t>IMT Novi Beograd</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Stade Nyonnais</t>
+          <t>Tekstilac Odzaci</t>
         </is>
       </c>
       <c r="G74" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="H74" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>12</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="K74" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="L74" t="n">
+        <v>9</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N74" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="O74" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P74" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R74" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S74" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="T74" t="n">
+        <v>3</v>
+      </c>
+      <c r="U74" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V74" t="n">
         <v>1.57</v>
       </c>
-      <c r="H74" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="I74" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="J74" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="K74" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="L74" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="M74" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N74" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="O74" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P74" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="Q74" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="R74" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="S74" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="T74" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="U74" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V74" t="n">
-        <v>2.35</v>
-      </c>
       <c r="W74" t="n">
-        <v>10.25</v>
+        <v>6.4</v>
       </c>
       <c r="X74" t="n">
-        <v>9.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y74" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC74" t="n">
         <v>8.25</v>
       </c>
-      <c r="Z74" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA74" t="n">
+      <c r="AD74" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI74" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ74" t="n">
+        <v>37</v>
+      </c>
+      <c r="AK74" t="n">
+        <v>450</v>
+      </c>
+      <c r="AL74" t="n">
+        <v>175</v>
+      </c>
+      <c r="AM74" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN74" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AO74" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AP74" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ74" t="n">
+        <v>14</v>
+      </c>
+      <c r="AR74" t="n">
+        <v>45</v>
+      </c>
+      <c r="AS74" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT74" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU74" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AV74" t="n">
+        <v>110</v>
+      </c>
+      <c r="AW74" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX74" t="n">
         <v>11</v>
       </c>
-      <c r="AB74" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC74" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD74" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AE74" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF74" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG74" t="n">
-        <v>200</v>
-      </c>
-      <c r="AH74" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI74" t="n">
-        <v>35</v>
-      </c>
-      <c r="AJ74" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AK74" t="n">
-        <v>90</v>
-      </c>
-      <c r="AL74" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM74" t="n">
-        <v>32</v>
-      </c>
-      <c r="AN74" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO74" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP74" t="n">
-        <v>14</v>
-      </c>
-      <c r="AQ74" t="n">
-        <v>22</v>
-      </c>
-      <c r="AR74" t="n">
-        <v>40</v>
-      </c>
-      <c r="AS74" t="n">
-        <v>150</v>
-      </c>
-      <c r="AT74" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AU74" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AV74" t="n">
-        <v>45</v>
-      </c>
-      <c r="AW74" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX74" t="n">
-        <v>6.9</v>
-      </c>
       <c r="AY74" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="AZ74" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="BA74" t="n">
-        <v>120</v>
+        <v>350</v>
       </c>
       <c r="BB74" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="BC74" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="BD74" t="n">
         <v>51</v>
@@ -14004,7 +14004,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>8x6ZMPqe</t>
+          <t>zqfQKaBO</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -14014,50 +14014,50 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Etoile-Carouge</t>
+          <t>Radnicki 1923</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Lausanne Ouchy</t>
+          <t>Jedinstvo U.</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.93</v>
+        <v>1.32</v>
       </c>
       <c r="H75" t="n">
-        <v>3.6</v>
+        <v>4.8</v>
       </c>
       <c r="I75" t="n">
-        <v>3.55</v>
+        <v>8.75</v>
       </c>
       <c r="J75" t="n">
-        <v>2.47</v>
+        <v>1.78</v>
       </c>
       <c r="K75" t="n">
-        <v>2.22</v>
+        <v>2.4</v>
       </c>
       <c r="L75" t="n">
-        <v>3.9</v>
+        <v>7.5</v>
       </c>
       <c r="M75" t="n">
         <v>1.04</v>
       </c>
       <c r="N75" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="O75" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P75" t="n">
         <v>3.9</v>
@@ -14075,109 +14075,109 @@
         <v>3</v>
       </c>
       <c r="U75" t="n">
-        <v>1.57</v>
+        <v>2.02</v>
       </c>
       <c r="V75" t="n">
-        <v>2.25</v>
+        <v>1.72</v>
       </c>
       <c r="W75" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="X75" t="n">
-        <v>10.5</v>
+        <v>6.3</v>
       </c>
       <c r="Y75" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z75" t="n">
-        <v>17.5</v>
+        <v>8</v>
       </c>
       <c r="AA75" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AB75" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AC75" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AD75" t="n">
-        <v>7.1</v>
+        <v>9.5</v>
       </c>
       <c r="AE75" t="n">
-        <v>12.5</v>
+        <v>22</v>
       </c>
       <c r="AF75" t="n">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="AG75" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="AH75" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="AI75" t="n">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="AJ75" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="AK75" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="AL75" t="n">
-        <v>28</v>
+        <v>110</v>
       </c>
       <c r="AM75" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="AN75" t="n">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="AO75" t="n">
-        <v>9.75</v>
+        <v>5.8</v>
       </c>
       <c r="AP75" t="n">
         <v>16.5</v>
       </c>
       <c r="AQ75" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="AR75" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AS75" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="AT75" t="n">
         <v>3</v>
       </c>
       <c r="AU75" t="n">
-        <v>6.7</v>
+        <v>9</v>
       </c>
       <c r="AV75" t="n">
+        <v>90</v>
+      </c>
+      <c r="AW75" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX75" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AY75" t="n">
+        <v>55</v>
+      </c>
+      <c r="AZ75" t="n">
         <v>50</v>
       </c>
-      <c r="AW75" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX75" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AY75" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ75" t="n">
-        <v>23</v>
-      </c>
       <c r="BA75" t="n">
-        <v>90</v>
+        <v>400</v>
       </c>
       <c r="BB75" t="n">
-        <v>110</v>
+        <v>400</v>
       </c>
       <c r="BC75" t="n">
-        <v>250</v>
+        <v>51</v>
       </c>
       <c r="BD75" t="n">
         <v>51</v>
@@ -14186,7 +14186,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>O6TEZfLO</t>
+          <t>reMfU7iL</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -14196,179 +14196,179 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Aarau</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Stade Nyonnais</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.75</v>
+        <v>1.57</v>
       </c>
       <c r="H76" t="n">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="I76" t="n">
-        <v>2.45</v>
+        <v>4.85</v>
       </c>
       <c r="J76" t="n">
-        <v>3.25</v>
+        <v>2.07</v>
       </c>
       <c r="K76" t="n">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="L76" t="n">
-        <v>3</v>
+        <v>4.7</v>
       </c>
       <c r="M76" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N76" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O76" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="R76" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="S76" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="T76" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="U76" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V76" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="W76" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="X76" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z76" t="n">
         <v>13</v>
       </c>
-      <c r="O76" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P76" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q76" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R76" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S76" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T76" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U76" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V76" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W76" t="n">
+      <c r="AA76" t="n">
         <v>11</v>
       </c>
-      <c r="X76" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y76" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z76" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA76" t="n">
-        <v>21</v>
-      </c>
       <c r="AB76" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="AC76" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AE76" t="n">
         <v>13</v>
       </c>
-      <c r="AD76" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE76" t="n">
-        <v>12</v>
-      </c>
       <c r="AF76" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AG76" t="n">
-        <v>126</v>
+        <v>200</v>
       </c>
       <c r="AH76" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AI76" t="n">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="AJ76" t="n">
-        <v>9.5</v>
+        <v>15.5</v>
       </c>
       <c r="AK76" t="n">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="AL76" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="AM76" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="AN76" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="AO76" t="n">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="AP76" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AQ76" t="n">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="AR76" t="n">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="AS76" t="n">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="AT76" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="AU76" t="n">
-        <v>7.5</v>
+        <v>6.8</v>
       </c>
       <c r="AV76" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AW76" t="n">
-        <v>251</v>
+        <v>51</v>
       </c>
       <c r="AX76" t="n">
-        <v>4.75</v>
+        <v>6.9</v>
       </c>
       <c r="AY76" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="AZ76" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="BA76" t="n">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="BB76" t="n">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="BC76" t="n">
-        <v>126</v>
+        <v>250</v>
       </c>
       <c r="BD76" t="n">
-        <v>301</v>
+        <v>51</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>zwTt1TS1</t>
+          <t>8x6ZMPqe</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -14378,179 +14378,179 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Karagumruk</t>
+          <t>Etoile-Carouge</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Adanaspor AS</t>
+          <t>Lausanne Ouchy</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.3</v>
+        <v>1.93</v>
       </c>
       <c r="H77" t="n">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="I77" t="n">
-        <v>9.5</v>
+        <v>3.55</v>
       </c>
       <c r="J77" t="n">
-        <v>1.73</v>
+        <v>2.47</v>
       </c>
       <c r="K77" t="n">
-        <v>2.63</v>
+        <v>2.22</v>
       </c>
       <c r="L77" t="n">
-        <v>8</v>
+        <v>3.9</v>
       </c>
       <c r="M77" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N77" t="n">
-        <v>15</v>
+        <v>8.25</v>
       </c>
       <c r="O77" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="P77" t="n">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="R77" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="S77" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="T77" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U77" t="n">
-        <v>1.91</v>
+        <v>1.57</v>
       </c>
       <c r="V77" t="n">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="W77" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X77" t="n">
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="Y77" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="Z77" t="n">
-        <v>8.5</v>
+        <v>17.5</v>
       </c>
       <c r="AA77" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AB77" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AC77" t="n">
-        <v>15</v>
+        <v>8.25</v>
       </c>
       <c r="AD77" t="n">
-        <v>10</v>
+        <v>7.1</v>
       </c>
       <c r="AE77" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF77" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG77" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH77" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI77" t="n">
         <v>21</v>
       </c>
-      <c r="AF77" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG77" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH77" t="n">
+      <c r="AJ77" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK77" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL77" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM77" t="n">
+        <v>30</v>
+      </c>
+      <c r="AN77" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO77" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AP77" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AQ77" t="n">
+        <v>32</v>
+      </c>
+      <c r="AR77" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS77" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT77" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU77" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AV77" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW77" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX77" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AY77" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ77" t="n">
         <v>23</v>
       </c>
-      <c r="AI77" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ77" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK77" t="n">
-        <v>101</v>
-      </c>
-      <c r="AL77" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM77" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN77" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO77" t="n">
-        <v>6</v>
-      </c>
-      <c r="AP77" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ77" t="n">
-        <v>15</v>
-      </c>
-      <c r="AR77" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS77" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT77" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU77" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV77" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW77" t="n">
-        <v>126</v>
-      </c>
-      <c r="AX77" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AY77" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ77" t="n">
-        <v>41</v>
-      </c>
       <c r="BA77" t="n">
-        <v>151</v>
+        <v>90</v>
       </c>
       <c r="BB77" t="n">
-        <v>151</v>
+        <v>110</v>
       </c>
       <c r="BC77" t="n">
-        <v>301</v>
+        <v>250</v>
       </c>
       <c r="BD77" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Y1UhtUYP</t>
+          <t>O6TEZfLO</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -14560,179 +14560,179 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Rukh Lviv</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Ch. Odesa</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.65</v>
+        <v>2.75</v>
       </c>
       <c r="H78" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I78" t="n">
-        <v>5.5</v>
+        <v>2.45</v>
       </c>
       <c r="J78" t="n">
-        <v>2.27</v>
+        <v>3.25</v>
       </c>
       <c r="K78" t="n">
-        <v>1.98</v>
+        <v>2.3</v>
       </c>
       <c r="L78" t="n">
-        <v>5.8</v>
+        <v>3</v>
       </c>
       <c r="M78" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N78" t="n">
-        <v>7.33</v>
+        <v>13</v>
       </c>
       <c r="O78" t="n">
-        <v>1.47</v>
+        <v>1.2</v>
       </c>
       <c r="P78" t="n">
-        <v>2.35</v>
+        <v>4.33</v>
       </c>
       <c r="Q78" t="n">
-        <v>2.32</v>
+        <v>1.7</v>
       </c>
       <c r="R78" t="n">
-        <v>1.47</v>
+        <v>2.1</v>
       </c>
       <c r="S78" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="T78" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U78" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V78" t="n">
         <v>2.25</v>
       </c>
-      <c r="U78" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="V78" t="n">
-        <v>1.5</v>
-      </c>
       <c r="W78" t="n">
-        <v>4.8</v>
+        <v>11</v>
       </c>
       <c r="X78" t="n">
-        <v>6.2</v>
+        <v>15</v>
       </c>
       <c r="Y78" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z78" t="n">
-        <v>11.5</v>
+        <v>29</v>
       </c>
       <c r="AA78" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AB78" t="n">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="AC78" t="n">
-        <v>6.7</v>
+        <v>13</v>
       </c>
       <c r="AD78" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="AE78" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="AF78" t="n">
-        <v>175</v>
+        <v>41</v>
       </c>
       <c r="AG78" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="AH78" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="AI78" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="AJ78" t="n">
-        <v>19.5</v>
+        <v>9.5</v>
       </c>
       <c r="AK78" t="n">
-        <v>120</v>
+        <v>23</v>
       </c>
       <c r="AL78" t="n">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="AM78" t="n">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="AN78" t="n">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="AO78" t="n">
-        <v>8.25</v>
+        <v>15</v>
       </c>
       <c r="AP78" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ78" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="AR78" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="AS78" t="n">
-        <v>450</v>
+        <v>126</v>
       </c>
       <c r="AT78" t="n">
-        <v>2.22</v>
+        <v>3.25</v>
       </c>
       <c r="AU78" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AV78" t="n">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="AW78" t="n">
-        <v>81</v>
+        <v>251</v>
       </c>
       <c r="AX78" t="n">
-        <v>6.7</v>
+        <v>4.75</v>
       </c>
       <c r="AY78" t="n">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="AZ78" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="BA78" t="n">
-        <v>250</v>
+        <v>41</v>
       </c>
       <c r="BB78" t="n">
-        <v>350</v>
+        <v>51</v>
       </c>
       <c r="BC78" t="n">
-        <v>700</v>
+        <v>126</v>
       </c>
       <c r="BD78" t="n">
-        <v>81</v>
+        <v>301</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>hnBPz8dm</t>
+          <t>zwTt1TS1</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -14742,179 +14742,179 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>TURKEY - 1. LIG</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Polissya Zhytomyr</t>
+          <t>Karagumruk</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Kolos Kovalivka</t>
+          <t>Adanaspor AS</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.82</v>
+        <v>1.3</v>
       </c>
       <c r="H79" t="n">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="I79" t="n">
-        <v>5.6</v>
+        <v>9.5</v>
       </c>
       <c r="J79" t="n">
-        <v>2.47</v>
+        <v>1.73</v>
       </c>
       <c r="K79" t="n">
-        <v>1.82</v>
+        <v>2.63</v>
       </c>
       <c r="L79" t="n">
-        <v>6.1</v>
+        <v>8</v>
       </c>
       <c r="M79" t="n">
-        <v>1.15</v>
+        <v>1.03</v>
       </c>
       <c r="N79" t="n">
-        <v>4.2</v>
+        <v>15</v>
       </c>
       <c r="O79" t="n">
-        <v>1.62</v>
+        <v>1.18</v>
       </c>
       <c r="P79" t="n">
-        <v>2.05</v>
+        <v>4.5</v>
       </c>
       <c r="Q79" t="n">
-        <v>2.75</v>
+        <v>1.6</v>
       </c>
       <c r="R79" t="n">
-        <v>1.34</v>
+        <v>2.3</v>
       </c>
       <c r="S79" t="n">
-        <v>1.6</v>
+        <v>1.29</v>
       </c>
       <c r="T79" t="n">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="U79" t="n">
-        <v>2.37</v>
+        <v>1.91</v>
       </c>
       <c r="V79" t="n">
-        <v>1.45</v>
+        <v>1.8</v>
       </c>
       <c r="W79" t="n">
-        <v>4.4</v>
+        <v>8</v>
       </c>
       <c r="X79" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="Y79" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE79" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF79" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG79" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH79" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI79" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ79" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK79" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL79" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM79" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN79" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO79" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP79" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ79" t="n">
+        <v>15</v>
+      </c>
+      <c r="AR79" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS79" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT79" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU79" t="n">
         <v>9.5</v>
       </c>
-      <c r="Z79" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA79" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB79" t="n">
-        <v>55</v>
-      </c>
-      <c r="AC79" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="AD79" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AE79" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF79" t="n">
-        <v>200</v>
-      </c>
-      <c r="AG79" t="n">
-        <v>67</v>
-      </c>
-      <c r="AH79" t="n">
+      <c r="AV79" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW79" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX79" t="n">
         <v>9.5</v>
       </c>
-      <c r="AI79" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ79" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK79" t="n">
-        <v>150</v>
-      </c>
-      <c r="AL79" t="n">
-        <v>100</v>
-      </c>
-      <c r="AM79" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN79" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AO79" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP79" t="n">
-        <v>25</v>
-      </c>
-      <c r="AQ79" t="n">
-        <v>37</v>
-      </c>
-      <c r="AR79" t="n">
-        <v>100</v>
-      </c>
-      <c r="AS79" t="n">
-        <v>500</v>
-      </c>
-      <c r="AT79" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="AU79" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AV79" t="n">
-        <v>120</v>
-      </c>
-      <c r="AW79" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX79" t="n">
-        <v>6.8</v>
-      </c>
       <c r="AY79" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AZ79" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="BA79" t="n">
-        <v>300</v>
+        <v>151</v>
       </c>
       <c r="BB79" t="n">
-        <v>450</v>
+        <v>151</v>
       </c>
       <c r="BC79" t="n">
-        <v>67</v>
+        <v>301</v>
       </c>
       <c r="BD79" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>fDSu8w3U</t>
+          <t>Y1UhtUYP</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -14924,179 +14924,179 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>USA - MLS</t>
+          <t>UKRAINE - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Inter Miami</t>
+          <t>Rukh Lviv</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Atlanta Utd</t>
+          <t>Ch. Odesa</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.33</v>
+        <v>1.65</v>
       </c>
       <c r="H80" t="n">
-        <v>5.75</v>
+        <v>3.35</v>
       </c>
       <c r="I80" t="n">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="J80" t="n">
-        <v>1.73</v>
+        <v>2.27</v>
       </c>
       <c r="K80" t="n">
-        <v>3</v>
+        <v>1.98</v>
       </c>
       <c r="L80" t="n">
-        <v>6.5</v>
+        <v>5.8</v>
       </c>
       <c r="M80" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N80" t="n">
-        <v>29</v>
+        <v>7.33</v>
       </c>
       <c r="O80" t="n">
-        <v>1.07</v>
+        <v>1.47</v>
       </c>
       <c r="P80" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R80" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S80" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T80" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U80" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="V80" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W80" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="X80" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Y80" t="n">
         <v>9</v>
       </c>
-      <c r="Q80" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="R80" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="S80" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="T80" t="n">
-        <v>5</v>
-      </c>
-      <c r="U80" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V80" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W80" t="n">
-        <v>15</v>
-      </c>
-      <c r="X80" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y80" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z80" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AA80" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AB80" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="AC80" t="n">
-        <v>29</v>
+        <v>6.7</v>
       </c>
       <c r="AD80" t="n">
-        <v>13</v>
+        <v>6.9</v>
       </c>
       <c r="AE80" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="AF80" t="n">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="AG80" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="AH80" t="n">
-        <v>34</v>
+        <v>10.75</v>
       </c>
       <c r="AI80" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="AJ80" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AK80" t="n">
+        <v>120</v>
+      </c>
+      <c r="AL80" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM80" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN80" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AO80" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AP80" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ80" t="n">
+        <v>30</v>
+      </c>
+      <c r="AR80" t="n">
+        <v>90</v>
+      </c>
+      <c r="AS80" t="n">
+        <v>450</v>
+      </c>
+      <c r="AT80" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AU80" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV80" t="n">
+        <v>120</v>
+      </c>
+      <c r="AW80" t="n">
         <v>81</v>
       </c>
-      <c r="AL80" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM80" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN80" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO80" t="n">
-        <v>6</v>
-      </c>
-      <c r="AP80" t="n">
-        <v>12</v>
-      </c>
-      <c r="AQ80" t="n">
-        <v>13</v>
-      </c>
-      <c r="AR80" t="n">
-        <v>26</v>
-      </c>
-      <c r="AS80" t="n">
-        <v>67</v>
-      </c>
-      <c r="AT80" t="n">
-        <v>5</v>
-      </c>
-      <c r="AU80" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV80" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW80" t="n">
-        <v>251</v>
-      </c>
       <c r="AX80" t="n">
-        <v>9.5</v>
+        <v>6.7</v>
       </c>
       <c r="AY80" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AZ80" t="n">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="BA80" t="n">
-        <v>101</v>
+        <v>250</v>
       </c>
       <c r="BB80" t="n">
+        <v>350</v>
+      </c>
+      <c r="BC80" t="n">
+        <v>700</v>
+      </c>
+      <c r="BD80" t="n">
         <v>81</v>
-      </c>
-      <c r="BC80" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD80" t="n">
-        <v>176</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>GjyWUcDj</t>
+          <t>hnBPz8dm</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -15106,172 +15106,536 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>WALES - CYMRU PREMIER</t>
+          <t>UKRAINE - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Polissya Zhytomyr</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>Kolos Kovalivka</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="H81" t="n">
-        <v>3.35</v>
+        <v>2.8</v>
       </c>
       <c r="I81" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K81" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="L81" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="M81" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N81" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O81" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P81" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R81" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S81" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="T81" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U81" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="V81" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="W81" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="X81" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>55</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AE81" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF81" t="n">
+        <v>200</v>
+      </c>
+      <c r="AG81" t="n">
+        <v>67</v>
+      </c>
+      <c r="AH81" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI81" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ81" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK81" t="n">
+        <v>150</v>
+      </c>
+      <c r="AL81" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM81" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN81" t="n">
         <v>3.3</v>
       </c>
-      <c r="J81" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K81" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="L81" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M81" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N81" t="n">
-        <v>8</v>
-      </c>
-      <c r="O81" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P81" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q81" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R81" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="S81" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="T81" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="U81" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="V81" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="W81" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="X81" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="Y81" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z81" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA81" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB81" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC81" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD81" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AE81" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF81" t="n">
-        <v>45</v>
-      </c>
-      <c r="AG81" t="n">
-        <v>300</v>
-      </c>
-      <c r="AH81" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AI81" t="n">
-        <v>20</v>
-      </c>
-      <c r="AJ81" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AK81" t="n">
-        <v>45</v>
-      </c>
-      <c r="AL81" t="n">
-        <v>27</v>
-      </c>
-      <c r="AM81" t="n">
-        <v>28</v>
-      </c>
-      <c r="AN81" t="n">
-        <v>4.1</v>
-      </c>
       <c r="AO81" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="AP81" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AQ81" t="n">
         <v>37</v>
       </c>
       <c r="AR81" t="n">
+        <v>100</v>
+      </c>
+      <c r="AS81" t="n">
+        <v>500</v>
+      </c>
+      <c r="AT81" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AU81" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AV81" t="n">
+        <v>120</v>
+      </c>
+      <c r="AW81" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX81" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AY81" t="n">
+        <v>40</v>
+      </c>
+      <c r="AZ81" t="n">
+        <v>50</v>
+      </c>
+      <c r="BA81" t="n">
+        <v>300</v>
+      </c>
+      <c r="BB81" t="n">
+        <v>450</v>
+      </c>
+      <c r="BC81" t="n">
+        <v>67</v>
+      </c>
+      <c r="BD81" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>fDSu8w3U</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>25/10/2024</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>USA - MLS</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Inter Miami</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Atlanta Utd</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="H82" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="I82" t="n">
+        <v>8</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="K82" t="n">
+        <v>3</v>
+      </c>
+      <c r="L82" t="n">
+        <v>6</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N82" t="n">
+        <v>29</v>
+      </c>
+      <c r="O82" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="P82" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="R82" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="S82" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="T82" t="n">
+        <v>5</v>
+      </c>
+      <c r="U82" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W82" t="n">
+        <v>15</v>
+      </c>
+      <c r="X82" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB82" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC82" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD82" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE82" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF82" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG82" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH82" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI82" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ82" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK82" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL82" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM82" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN82" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO82" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP82" t="n">
+        <v>12</v>
+      </c>
+      <c r="AQ82" t="n">
+        <v>13</v>
+      </c>
+      <c r="AR82" t="n">
+        <v>26</v>
+      </c>
+      <c r="AS82" t="n">
+        <v>67</v>
+      </c>
+      <c r="AT82" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU82" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV82" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW82" t="n">
+        <v>251</v>
+      </c>
+      <c r="AX82" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AY82" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ82" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA82" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB82" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC82" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD82" t="n">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>GjyWUcDj</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>25/10/2024</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>15:45</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>WALES - CYMRU PREMIER</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Cardiff Metropolitan</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Newtown</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>2</v>
+      </c>
+      <c r="H83" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I83" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J83" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K83" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="L83" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M83" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N83" t="n">
+        <v>8</v>
+      </c>
+      <c r="O83" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P83" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R83" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S83" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="T83" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U83" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="V83" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="W83" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="X83" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB83" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC83" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD83" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AE83" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF83" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG83" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH83" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AI83" t="n">
+        <v>20</v>
+      </c>
+      <c r="AJ83" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AK83" t="n">
+        <v>45</v>
+      </c>
+      <c r="AL83" t="n">
+        <v>27</v>
+      </c>
+      <c r="AM83" t="n">
+        <v>28</v>
+      </c>
+      <c r="AN83" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AO83" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AP83" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ83" t="n">
+        <v>37</v>
+      </c>
+      <c r="AR83" t="n">
         <v>60</v>
       </c>
-      <c r="AS81" t="n">
+      <c r="AS83" t="n">
         <v>175</v>
       </c>
-      <c r="AT81" t="n">
+      <c r="AT83" t="n">
         <v>2.95</v>
       </c>
-      <c r="AU81" t="n">
+      <c r="AU83" t="n">
         <v>6.6</v>
       </c>
-      <c r="AV81" t="n">
+      <c r="AV83" t="n">
         <v>50</v>
       </c>
-      <c r="AW81" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX81" t="n">
+      <c r="AW83" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX83" t="n">
         <v>5.5</v>
       </c>
-      <c r="AY81" t="n">
+      <c r="AY83" t="n">
         <v>18</v>
       </c>
-      <c r="AZ81" t="n">
+      <c r="AZ83" t="n">
         <v>21</v>
       </c>
-      <c r="BA81" t="n">
+      <c r="BA83" t="n">
         <v>80</v>
       </c>
-      <c r="BB81" t="n">
+      <c r="BB83" t="n">
         <v>100</v>
       </c>
-      <c r="BC81" t="n">
+      <c r="BC83" t="n">
         <v>250</v>
       </c>
-      <c r="BD81" t="n">
+      <c r="BD83" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-25.xlsx
@@ -2203,28 +2203,28 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="H10" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I10" t="n">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="J10" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
         <v>2.05</v>
       </c>
       <c r="L10" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="M10" t="n">
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O10" t="n">
         <v>1.36</v>
@@ -2239,31 +2239,31 @@
         <v>1.67</v>
       </c>
       <c r="S10" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T10" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U10" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V10" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y10" t="n">
         <v>12</v>
       </c>
       <c r="Z10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB10" t="n">
         <v>41</v>
@@ -2272,58 +2272,58 @@
         <v>8.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF10" t="n">
         <v>51</v>
       </c>
       <c r="AG10" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH10" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AJ10" t="n">
         <v>9.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM10" t="n">
         <v>34</v>
       </c>
       <c r="AN10" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AP10" t="n">
         <v>29</v>
       </c>
       <c r="AQ10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR10" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS10" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU10" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV10" t="n">
         <v>51</v>
@@ -2332,13 +2332,13 @@
         <v>126</v>
       </c>
       <c r="AX10" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AY10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BA10" t="n">
         <v>41</v>
@@ -3659,7 +3659,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H18" t="n">
         <v>2.9</v>
@@ -3668,7 +3668,7 @@
         <v>3.6</v>
       </c>
       <c r="J18" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K18" t="n">
         <v>1.95</v>
@@ -3689,10 +3689,10 @@
         <v>2.63</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R18" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S18" t="n">
         <v>1.53</v>
@@ -3841,13 +3841,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H19" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I19" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J19" t="n">
         <v>2.3</v>
@@ -3865,10 +3865,10 @@
         <v>8</v>
       </c>
       <c r="O19" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P19" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q19" t="n">
         <v>2.25</v>
@@ -3877,16 +3877,16 @@
         <v>1.62</v>
       </c>
       <c r="S19" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T19" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U19" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V19" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W19" t="n">
         <v>5.5</v>
@@ -3934,7 +3934,7 @@
         <v>51</v>
       </c>
       <c r="AL19" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM19" t="n">
         <v>51</v>
@@ -3958,7 +3958,7 @@
         <v>201</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU19" t="n">
         <v>9.5</v>
@@ -3973,7 +3973,7 @@
         <v>7</v>
       </c>
       <c r="AY19" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ19" t="n">
         <v>41</v>
@@ -9155,7 +9155,7 @@
         <v>2.1</v>
       </c>
       <c r="S48" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T48" t="n">
         <v>3.25</v>
@@ -15307,7 +15307,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H82" t="n">
         <v>5.75</v>
@@ -15316,13 +15316,13 @@
         <v>8</v>
       </c>
       <c r="J82" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="K82" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L82" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M82" t="n">
         <v>1.01</v>
@@ -15373,7 +15373,7 @@
         <v>17</v>
       </c>
       <c r="AC82" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AD82" t="n">
         <v>13</v>
@@ -15382,7 +15382,7 @@
         <v>15</v>
       </c>
       <c r="AF82" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG82" t="n">
         <v>101</v>
@@ -15391,16 +15391,16 @@
         <v>34</v>
       </c>
       <c r="AI82" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ82" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK82" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AL82" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM82" t="n">
         <v>41</v>
@@ -15418,10 +15418,10 @@
         <v>13</v>
       </c>
       <c r="AR82" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AS82" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AT82" t="n">
         <v>5</v>
@@ -15433,7 +15433,7 @@
         <v>41</v>
       </c>
       <c r="AW82" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AX82" t="n">
         <v>9.5</v>
@@ -15451,7 +15451,7 @@
         <v>81</v>
       </c>
       <c r="BC82" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BD82" t="n">
         <v>176</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-25.xlsx
@@ -3841,13 +3841,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H19" t="n">
         <v>3.5</v>
       </c>
       <c r="I19" t="n">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="J19" t="n">
         <v>2.3</v>
@@ -3871,10 +3871,10 @@
         <v>3</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R19" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S19" t="n">
         <v>1.44</v>
@@ -3883,16 +3883,16 @@
         <v>2.63</v>
       </c>
       <c r="U19" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V19" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W19" t="n">
         <v>5.5</v>
       </c>
       <c r="X19" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y19" t="n">
         <v>9</v>
@@ -3922,28 +3922,28 @@
         <v>201</v>
       </c>
       <c r="AH19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ19" t="n">
         <v>19</v>
       </c>
       <c r="AK19" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL19" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM19" t="n">
         <v>51</v>
       </c>
       <c r="AN19" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO19" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP19" t="n">
         <v>23</v>
@@ -3973,7 +3973,7 @@
         <v>7</v>
       </c>
       <c r="AY19" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ19" t="n">
         <v>41</v>
@@ -9119,13 +9119,13 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="H48" t="n">
         <v>3.4</v>
       </c>
       <c r="I48" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J48" t="n">
         <v>3.75</v>
@@ -9134,7 +9134,7 @@
         <v>2.3</v>
       </c>
       <c r="L48" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="M48" t="n">
         <v>1.04</v>
@@ -9161,19 +9161,19 @@
         <v>3.25</v>
       </c>
       <c r="U48" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V48" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W48" t="n">
         <v>13</v>
       </c>
       <c r="X48" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y48" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z48" t="n">
         <v>41</v>
@@ -9197,10 +9197,10 @@
         <v>41</v>
       </c>
       <c r="AG48" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH48" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI48" t="n">
         <v>11</v>
@@ -9221,7 +9221,7 @@
         <v>5.5</v>
       </c>
       <c r="AO48" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP48" t="n">
         <v>23</v>
@@ -9483,34 +9483,34 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H50" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="I50" t="n">
-        <v>2.45</v>
+        <v>2.32</v>
       </c>
       <c r="J50" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="K50" t="n">
         <v>2.02</v>
       </c>
       <c r="L50" t="n">
-        <v>3.05</v>
+        <v>2.87</v>
       </c>
       <c r="M50" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="N50" t="n">
-        <v>6.9</v>
+        <v>7.5</v>
       </c>
       <c r="O50" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P50" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="Q50" t="n">
         <v>2.02</v>
@@ -9522,109 +9522,109 @@
         <v>1.4</v>
       </c>
       <c r="T50" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="U50" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="V50" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="W50" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X50" t="n">
         <v>16</v>
       </c>
       <c r="Y50" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="Z50" t="n">
         <v>40</v>
       </c>
       <c r="AA50" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AB50" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AC50" t="n">
         <v>7.9</v>
       </c>
       <c r="AD50" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AE50" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF50" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AG50" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AH50" t="n">
         <v>7.2</v>
       </c>
       <c r="AI50" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AJ50" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AK50" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AL50" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AM50" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AN50" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AO50" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AP50" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AQ50" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AR50" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AS50" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AT50" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="AU50" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AV50" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW50" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX50" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AY50" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ50" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA50" t="n">
         <v>50</v>
       </c>
-      <c r="AW50" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX50" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="AY50" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ50" t="n">
-        <v>20</v>
-      </c>
-      <c r="BA50" t="n">
-        <v>55</v>
-      </c>
       <c r="BB50" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BC50" t="n">
         <v>250</v>
